--- a/Data/regression_data/Dwelling_Lifetime/lifetime_regression.xlsx
+++ b/Data/regression_data/Dwelling_Lifetime/lifetime_regression.xlsx
@@ -434,14 +434,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lifetime</t>
+          <t>Avg_lifetime</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -455,10 +450,10 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>150.252166517835</v>
+        <v>150.2609869198162</v>
       </c>
       <c r="C2" t="n">
-        <v>45.11847175615102</v>
+        <v>45.12462703419202</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +461,10 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>150.2521637558162</v>
+        <v>150.2609841094522</v>
       </c>
       <c r="C3" t="n">
-        <v>45.11847041802515</v>
+        <v>45.12462565826509</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +472,10 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>150.2521608816651</v>
+        <v>150.2609811851524</v>
       </c>
       <c r="C4" t="n">
-        <v>45.11846902473921</v>
+        <v>45.12462422574999</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +483,10 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>150.2521578908296</v>
+        <v>150.2609781422979</v>
       </c>
       <c r="C5" t="n">
-        <v>45.11846757401939</v>
+        <v>45.12462273431942</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +494,10 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>150.2521547785723</v>
+        <v>150.2609749760822</v>
       </c>
       <c r="C6" t="n">
-        <v>45.11846606349818</v>
+        <v>45.12462118155035</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +505,10 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>150.2521515399638</v>
+        <v>150.2609716815042</v>
       </c>
       <c r="C7" t="n">
-        <v>45.11846449071046</v>
+        <v>45.12461956492009</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +516,10 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>150.2521481698747</v>
+        <v>150.2609682533598</v>
       </c>
       <c r="C8" t="n">
-        <v>45.11846285308949</v>
+        <v>45.12461788180222</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +527,10 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>150.2521446629669</v>
+        <v>150.2609646862343</v>
       </c>
       <c r="C9" t="n">
-        <v>45.11846114796273</v>
+        <v>45.1246161294623</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +538,10 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>150.2521410136861</v>
+        <v>150.2609609744931</v>
       </c>
       <c r="C10" t="n">
-        <v>45.11845937254748</v>
+        <v>45.12461430505341</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +549,10 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>150.2521372162522</v>
+        <v>150.2609571122732</v>
       </c>
       <c r="C11" t="n">
-        <v>45.11845752394633</v>
+        <v>45.12461240561158</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +560,10 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>150.2521332646504</v>
+        <v>150.2609530934743</v>
       </c>
       <c r="C12" t="n">
-        <v>45.11845559914242</v>
+        <v>45.12461042805091</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +571,10 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>150.252129152622</v>
+        <v>150.2609489117484</v>
       </c>
       <c r="C13" t="n">
-        <v>45.11845359499456</v>
+        <v>45.12460836915859</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +582,10 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>150.252124873654</v>
+        <v>150.2609445604902</v>
       </c>
       <c r="C14" t="n">
-        <v>45.11845150823205</v>
+        <v>45.12460622558971</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +593,10 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>150.252120420969</v>
+        <v>150.2609400328268</v>
       </c>
       <c r="C15" t="n">
-        <v>45.11844933544938</v>
+        <v>45.12460399386175</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +604,10 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>150.2521157875145</v>
+        <v>150.2609353216064</v>
       </c>
       <c r="C16" t="n">
-        <v>45.11844707310065</v>
+        <v>45.124601670349</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +615,10 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>150.2521109659517</v>
+        <v>150.2609304193876</v>
       </c>
       <c r="C17" t="n">
-        <v>45.11844471749382</v>
+        <v>45.12459925127661</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +626,10 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>150.2521059486437</v>
+        <v>150.260925318427</v>
       </c>
       <c r="C18" t="n">
-        <v>45.1184422647846</v>
+        <v>45.12459673271451</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +637,10 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>150.252100727644</v>
+        <v>150.2609200106674</v>
       </c>
       <c r="C19" t="n">
-        <v>45.11843971097032</v>
+        <v>45.12459411057097</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +648,10 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>150.2520952946829</v>
+        <v>150.2609144877251</v>
       </c>
       <c r="C20" t="n">
-        <v>45.11843705188325</v>
+        <v>45.124591380586</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +659,10 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>150.2520896411554</v>
+        <v>150.2609087408763</v>
       </c>
       <c r="C21" t="n">
-        <v>45.11843428318387</v>
+        <v>45.12458853832442</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +670,10 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>150.2520837581071</v>
+        <v>150.2609027610436</v>
       </c>
       <c r="C22" t="n">
-        <v>45.1184314003538</v>
+        <v>45.12458557916862</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +681,10 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>150.2520776362199</v>
+        <v>150.2608965387816</v>
       </c>
       <c r="C23" t="n">
-        <v>45.1184283986884</v>
+        <v>45.12458249831111</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +692,10 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>150.2520712657975</v>
+        <v>150.260890064262</v>
       </c>
       <c r="C24" t="n">
-        <v>45.11842527328909</v>
+        <v>45.12457929074667</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +703,10 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>150.2520646367501</v>
+        <v>150.2608833272582</v>
       </c>
       <c r="C25" t="n">
-        <v>45.11842201905538</v>
+        <v>45.12457595126423</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +714,10 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>150.252057738578</v>
+        <v>150.2608763171287</v>
       </c>
       <c r="C26" t="n">
-        <v>45.11841863067652</v>
+        <v>45.12457247443841</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +725,10 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>150.2520505603556</v>
+        <v>150.2608690228008</v>
       </c>
       <c r="C27" t="n">
-        <v>45.11841510262285</v>
+        <v>45.12456885462072</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +736,10 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>150.2520430907134</v>
+        <v>150.2608614327528</v>
       </c>
       <c r="C28" t="n">
-        <v>45.11841142913678</v>
+        <v>45.12456508593035</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +747,10 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>150.2520353178206</v>
+        <v>150.2608535349961</v>
       </c>
       <c r="C29" t="n">
-        <v>45.11840760422338</v>
+        <v>45.12456116224465</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +758,10 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>150.2520272293659</v>
+        <v>150.2608453170559</v>
       </c>
       <c r="C30" t="n">
-        <v>45.1184036216406</v>
+        <v>45.12455707718914</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +769,10 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>150.2520188125384</v>
+        <v>150.2608367659517</v>
       </c>
       <c r="C31" t="n">
-        <v>45.11839947488911</v>
+        <v>45.12455282412721</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +780,10 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>150.2520100540069</v>
+        <v>150.2608278681768</v>
       </c>
       <c r="C32" t="n">
-        <v>45.11839515720163</v>
+        <v>45.12454839614932</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +791,10 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>150.2520009398992</v>
+        <v>150.2608186096768</v>
       </c>
       <c r="C33" t="n">
-        <v>45.11839066153198</v>
+        <v>45.12454378606174</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +802,10 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>150.2519914557798</v>
+        <v>150.2608089758279</v>
       </c>
       <c r="C34" t="n">
-        <v>45.1183859805435</v>
+        <v>45.12453898637489</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +813,10 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>150.2519815866273</v>
+        <v>150.2607989514131</v>
       </c>
       <c r="C35" t="n">
-        <v>45.11838110659711</v>
+        <v>45.12453398929121</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +824,10 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>150.2519713168103</v>
+        <v>150.2607885205985</v>
       </c>
       <c r="C36" t="n">
-        <v>45.11837603173884</v>
+        <v>45.12452878669242</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +835,10 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>150.251960630063</v>
+        <v>150.2607776669086</v>
       </c>
       <c r="C37" t="n">
-        <v>45.11837074768689</v>
+        <v>45.1245233701264</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +846,10 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>150.2519495094591</v>
+        <v>150.2607663731997</v>
       </c>
       <c r="C38" t="n">
-        <v>45.11836524581803</v>
+        <v>45.12451773079339</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +857,10 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>150.2519379373853</v>
+        <v>150.2607546216332</v>
       </c>
       <c r="C39" t="n">
-        <v>45.11835951715362</v>
+        <v>45.12451185953179</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +868,10 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>150.2519258955132</v>
+        <v>150.2607423936473</v>
       </c>
       <c r="C40" t="n">
-        <v>45.1183535523449</v>
+        <v>45.12450574680317</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +879,10 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>150.2519133647704</v>
+        <v>150.2607296699279</v>
       </c>
       <c r="C41" t="n">
-        <v>45.11834734165775</v>
+        <v>45.12449938267686</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +890,10 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>150.25190032531</v>
+        <v>150.2607164303775</v>
       </c>
       <c r="C42" t="n">
-        <v>45.11834087495681</v>
+        <v>45.12449275681378</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +901,10 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>150.2518867564796</v>
+        <v>150.2607026540843</v>
       </c>
       <c r="C43" t="n">
-        <v>45.11833414168895</v>
+        <v>45.12448585844965</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +912,10 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>150.2518726367885</v>
+        <v>150.2606883192885</v>
       </c>
       <c r="C44" t="n">
-        <v>45.11832713086603</v>
+        <v>45.12447867637749</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +923,10 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>150.2518579438733</v>
+        <v>150.2606734033483</v>
       </c>
       <c r="C45" t="n">
-        <v>45.11831983104699</v>
+        <v>45.12447119892946</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +934,10 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>150.251842654463</v>
+        <v>150.2606578827039</v>
       </c>
       <c r="C46" t="n">
-        <v>45.11831223031918</v>
+        <v>45.12446341395788</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +945,10 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>150.2518267443415</v>
+        <v>150.2606417328405</v>
       </c>
       <c r="C47" t="n">
-        <v>45.11830431627888</v>
+        <v>45.12445530881545</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +956,10 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>150.2518101883101</v>
+        <v>150.2606249282494</v>
       </c>
       <c r="C48" t="n">
-        <v>45.11829607601113</v>
+        <v>45.1244468703348</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +967,10 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>150.2517929601469</v>
+        <v>150.260607442388</v>
       </c>
       <c r="C49" t="n">
-        <v>45.11828749606863</v>
+        <v>45.12443808480704</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +978,10 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>150.2517750325655</v>
+        <v>150.2605892476373</v>
       </c>
       <c r="C50" t="n">
-        <v>45.11827856244975</v>
+        <v>45.12442893795951</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +989,10 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>150.2517563771719</v>
+        <v>150.2605703152592</v>
       </c>
       <c r="C51" t="n">
-        <v>45.11826926057575</v>
+        <v>45.12441941493258</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1000,10 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>150.2517369644193</v>
+        <v>150.2605506153502</v>
       </c>
       <c r="C52" t="n">
-        <v>45.11825957526697</v>
+        <v>45.12440950025552</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1011,10 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>150.2517167635615</v>
+        <v>150.2605301167947</v>
       </c>
       <c r="C53" t="n">
-        <v>45.11824949071805</v>
+        <v>45.12439917782142</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1022,10 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>150.2516957426042</v>
+        <v>150.2605087872157</v>
       </c>
       <c r="C54" t="n">
-        <v>45.11823899047216</v>
+        <v>45.12438843086094</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1033,10 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>150.2516738682543</v>
+        <v>150.2604865929236</v>
       </c>
       <c r="C55" t="n">
-        <v>45.11822805739414</v>
+        <v>45.12437724191513</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1044,10 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>150.2516511058672</v>
+        <v>150.2604634988633</v>
       </c>
       <c r="C56" t="n">
-        <v>45.11821667364253</v>
+        <v>45.12436559280707</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1055,10 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>150.2516274193917</v>
+        <v>150.2604394685586</v>
       </c>
       <c r="C57" t="n">
-        <v>45.11820482064049</v>
+        <v>45.12435346461233</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1066,10 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>150.2516027713133</v>
+        <v>150.2604144640543</v>
       </c>
       <c r="C58" t="n">
-        <v>45.11819247904545</v>
+        <v>45.12434083762824</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1077,10 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>150.2515771225948</v>
+        <v>150.2603884458571</v>
       </c>
       <c r="C59" t="n">
-        <v>45.11817962871761</v>
+        <v>45.12432769134188</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1088,10 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>150.2515504326138</v>
+        <v>150.2603613728723</v>
       </c>
       <c r="C60" t="n">
-        <v>45.11816624868703</v>
+        <v>45.12431400439677</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1099,10 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>150.2515226590994</v>
+        <v>150.2603332023396</v>
       </c>
       <c r="C61" t="n">
-        <v>45.11815231711943</v>
+        <v>45.1242997545582</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1110,10 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>150.2514937580645</v>
+        <v>150.2603038897652</v>
       </c>
       <c r="C62" t="n">
-        <v>45.11813781128057</v>
+        <v>45.1242849186771</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1121,10 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>150.2514636837363</v>
+        <v>150.2602733888516</v>
       </c>
       <c r="C63" t="n">
-        <v>45.11812270749918</v>
+        <v>45.12426947265242</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1132,10 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>150.2514323884842</v>
+        <v>150.2602416514247</v>
       </c>
       <c r="C64" t="n">
-        <v>45.11810698112831</v>
+        <v>45.12425339139205</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1143,10 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>150.2513998227439</v>
+        <v>150.2602086273575</v>
       </c>
       <c r="C65" t="n">
-        <v>45.11809060650513</v>
+        <v>45.12423664877201</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1154,10 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>150.2513659349391</v>
+        <v>150.260174264491</v>
       </c>
       <c r="C66" t="n">
-        <v>45.11807355690908</v>
+        <v>45.12421921759404</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1165,10 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>150.2513306714002</v>
+        <v>150.260138508552</v>
       </c>
       <c r="C67" t="n">
-        <v>45.11805580451827</v>
+        <v>45.12420106954145</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1176,10 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>150.2512939762784</v>
+        <v>150.2601013030669</v>
       </c>
       <c r="C68" t="n">
-        <v>45.11803732036408</v>
+        <v>45.12418217513311</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1187,10 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>150.2512557914584</v>
+        <v>150.2600625892734</v>
       </c>
       <c r="C69" t="n">
-        <v>45.11801807428392</v>
+        <v>45.12416250367557</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1198,10 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>150.2512160564657</v>
+        <v>150.2600223060269</v>
       </c>
       <c r="C70" t="n">
-        <v>45.11799803487202</v>
+        <v>45.12414202321326</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1209,10 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>150.2511747083708</v>
+        <v>150.2599803897043</v>
       </c>
       <c r="C71" t="n">
-        <v>45.11797716942819</v>
+        <v>45.12412070047652</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1220,10 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>150.2511316816901</v>
+        <v>150.2599367741038</v>
       </c>
       <c r="C72" t="n">
-        <v>45.11795544390448</v>
+        <v>45.12409850082764</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1231,10 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>150.2510869082815</v>
+        <v>150.2598913903397</v>
       </c>
       <c r="C73" t="n">
-        <v>45.11793282284966</v>
+        <v>45.1240753882046</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1242,10 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>150.2510403172374</v>
+        <v>150.2598441667343</v>
       </c>
       <c r="C74" t="n">
-        <v>45.11790926935139</v>
+        <v>45.12405132506248</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1253,10 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>150.2509918347716</v>
+        <v>150.2597950287044</v>
       </c>
       <c r="C75" t="n">
-        <v>45.11788474497597</v>
+        <v>45.12402627231253</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1264,10 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>150.2509413841031</v>
+        <v>150.2597438986438</v>
       </c>
       <c r="C76" t="n">
-        <v>45.11785920970572</v>
+        <v>45.12400018925869</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1275,10 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>150.2508888853341</v>
+        <v>150.2596906958003</v>
       </c>
       <c r="C77" t="n">
-        <v>45.11783262187362</v>
+        <v>45.1239730335315</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1286,10 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>150.2508342553238</v>
+        <v>150.2596353361489</v>
       </c>
       <c r="C78" t="n">
-        <v>45.11780493809545</v>
+        <v>45.1239447610193</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1297,10 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>150.2507774075567</v>
+        <v>150.2595777322584</v>
       </c>
       <c r="C79" t="n">
-        <v>45.11777611319895</v>
+        <v>45.12391532579664</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1308,10 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>150.2507182520059</v>
+        <v>150.2595177931541</v>
       </c>
       <c r="C80" t="n">
-        <v>45.11774610015018</v>
+        <v>45.12388468004968</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1319,10 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>150.2506566949899</v>
+        <v>150.2594554241738</v>
       </c>
       <c r="C81" t="n">
-        <v>45.11771484997681</v>
+        <v>45.12385277399861</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1330,10 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>150.2505926390253</v>
+        <v>150.2593905268182</v>
       </c>
       <c r="C82" t="n">
-        <v>45.11768231168826</v>
+        <v>45.12381955581677</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1341,10 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>150.2505259826716</v>
+        <v>150.2593229985958</v>
       </c>
       <c r="C83" t="n">
-        <v>45.11764843219251</v>
+        <v>45.12378497154653</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1352,10 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>150.2504566203711</v>
+        <v>150.2592527328612</v>
       </c>
       <c r="C84" t="n">
-        <v>45.11761315620958</v>
+        <v>45.12374896501176</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1363,10 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>150.2503844422818</v>
+        <v>150.2591796186461</v>
       </c>
       <c r="C85" t="n">
-        <v>45.11757642618131</v>
+        <v>45.1237114777265</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1374,10 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>150.2503093341034</v>
+        <v>150.259103540485</v>
       </c>
       <c r="C86" t="n">
-        <v>45.11753818217755</v>
+        <v>45.12367244880017</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1385,10 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>150.2502311768968</v>
+        <v>150.2590243782323</v>
       </c>
       <c r="C87" t="n">
-        <v>45.11749836179845</v>
+        <v>45.12363181483863</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1396,10 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>150.2501498468951</v>
+        <v>150.258942006873</v>
       </c>
       <c r="C88" t="n">
-        <v>45.11745690007265</v>
+        <v>45.1235895098413</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1407,10 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>150.2500652153085</v>
+        <v>150.2588562963253</v>
       </c>
       <c r="C89" t="n">
-        <v>45.11741372935142</v>
+        <v>45.12354546509405</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1418,10 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>150.2499771481202</v>
+        <v>150.2587671112356</v>
       </c>
       <c r="C90" t="n">
-        <v>45.11736877919828</v>
+        <v>45.12349960905766</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1429,10 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>150.2498855058742</v>
+        <v>150.2586743107643</v>
       </c>
       <c r="C91" t="n">
-        <v>45.11732197627425</v>
+        <v>45.1234518672517</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1440,10 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>150.2497901434547</v>
+        <v>150.258577748364</v>
       </c>
       <c r="C92" t="n">
-        <v>45.11727324421823</v>
+        <v>45.12340216213366</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1451,10 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>150.2496909098568</v>
+        <v>150.2584772715483</v>
       </c>
       <c r="C93" t="n">
-        <v>45.11722250352252</v>
+        <v>45.12335041297312</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1462,10 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>150.2495876479469</v>
+        <v>150.258372721651</v>
       </c>
       <c r="C94" t="n">
-        <v>45.1171696714032</v>
+        <v>45.12329653572074</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1473,10 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>150.2494801942149</v>
+        <v>150.2582639335757</v>
       </c>
       <c r="C95" t="n">
-        <v>45.11711466166521</v>
+        <v>45.12324044287183</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1484,10 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>150.2493683785147</v>
+        <v>150.2581507355353</v>
       </c>
       <c r="C96" t="n">
-        <v>45.11705738456186</v>
+        <v>45.12318204332442</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1495,10 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>150.2492520237958</v>
+        <v>150.2580329487814</v>
       </c>
       <c r="C97" t="n">
-        <v>45.11699774664849</v>
+        <v>45.12312124223138</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1506,10 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>150.2491309458224</v>
+        <v>150.2579103873219</v>
       </c>
       <c r="C98" t="n">
-        <v>45.11693565063023</v>
+        <v>45.12305794084659</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1517,10 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>150.2490049528827</v>
+        <v>150.2577828576273</v>
       </c>
       <c r="C99" t="n">
-        <v>45.1168709952034</v>
+        <v>45.12299203636469</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1528,10 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>150.2488738454853</v>
+        <v>150.2576501583264</v>
       </c>
       <c r="C100" t="n">
-        <v>45.11680367489041</v>
+        <v>45.12292342175434</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1539,10 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>150.2487374160435</v>
+        <v>150.2575120798876</v>
       </c>
       <c r="C101" t="n">
-        <v>45.11673357986791</v>
+        <v>45.12285198558452</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1550,10 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>150.2485954485473</v>
+        <v>150.257368404289</v>
       </c>
       <c r="C102" t="n">
-        <v>45.11666059578782</v>
+        <v>45.12277761184388</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1561,10 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>150.2484477182218</v>
+        <v>150.2572189046745</v>
       </c>
       <c r="C103" t="n">
-        <v>45.11658460359099</v>
+        <v>45.12270017975247</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1572,10 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>150.2482939911712</v>
+        <v>150.2570633449959</v>
       </c>
       <c r="C104" t="n">
-        <v>45.11650547931326</v>
+        <v>45.12261956356592</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1583,10 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>150.2481340240095</v>
+        <v>150.2569014796404</v>
       </c>
       <c r="C105" t="n">
-        <v>45.11642309388346</v>
+        <v>45.12253563237147</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1594,10 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>150.2479675634754</v>
+        <v>150.2567330530441</v>
       </c>
       <c r="C106" t="n">
-        <v>45.11633731291318</v>
+        <v>45.12244824987567</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1605,10 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>150.2477943460321</v>
+        <v>150.2565577992881</v>
       </c>
       <c r="C107" t="n">
-        <v>45.11624799647787</v>
+        <v>45.12235727418342</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1616,10 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>150.2476140974501</v>
+        <v>150.2563754416799</v>
       </c>
       <c r="C108" t="n">
-        <v>45.11615499888887</v>
+        <v>45.12226255756784</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1627,10 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>150.2474265323741</v>
+        <v>150.2561856923166</v>
       </c>
       <c r="C109" t="n">
-        <v>45.11605816845623</v>
+        <v>45.12216394623081</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1638,10 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>150.2472313538721</v>
+        <v>150.2559882516318</v>
       </c>
       <c r="C110" t="n">
-        <v>45.11595734724156</v>
+        <v>45.12206128005361</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1649,10 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>150.2470282529654</v>
+        <v>150.2557828079227</v>
       </c>
       <c r="C111" t="n">
-        <v>45.11585237080097</v>
+        <v>45.12195439233739</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1660,10 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>150.2468169081408</v>
+        <v>150.2555690368591</v>
       </c>
       <c r="C112" t="n">
-        <v>45.11574306791719</v>
+        <v>45.12184310953296</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1671,10 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>150.2465969848423</v>
+        <v>150.2553466009723</v>
       </c>
       <c r="C113" t="n">
-        <v>45.11562926032094</v>
+        <v>45.12172725095952</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1682,10 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>150.2463681349425</v>
+        <v>150.2551151491231</v>
       </c>
       <c r="C114" t="n">
-        <v>45.11551076240063</v>
+        <v>45.12160662851187</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1693,10 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>150.2461299961922</v>
+        <v>150.2548743159486</v>
       </c>
       <c r="C115" t="n">
-        <v>45.11538738090024</v>
+        <v>45.12148104635563</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1704,10 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>150.2458821916485</v>
+        <v>150.2546237212868</v>
       </c>
       <c r="C116" t="n">
-        <v>45.11525891460484</v>
+        <v>45.12135030060989</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1715,10 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>150.2456243290792</v>
+        <v>150.254362969577</v>
       </c>
       <c r="C117" t="n">
-        <v>45.11512515401306</v>
+        <v>45.121214179017</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1726,10 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>150.2453560003428</v>
+        <v>150.2540916492376</v>
       </c>
       <c r="C118" t="n">
-        <v>45.11498588099622</v>
+        <v>45.1210724605987</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1737,10 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>150.2450767807445</v>
+        <v>150.2538093320169</v>
       </c>
       <c r="C119" t="n">
-        <v>45.11484086844344</v>
+        <v>45.12092491529825</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1748,10 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>150.2447862283651</v>
+        <v>150.2535155723193</v>
       </c>
       <c r="C120" t="n">
-        <v>45.11468987989215</v>
+        <v>45.12077130360784</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1759,10 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>150.2444838833633</v>
+        <v>150.2532099065037</v>
       </c>
       <c r="C121" t="n">
-        <v>45.11453266914348</v>
+        <v>45.12061137618082</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1770,10 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>150.2441692672495</v>
+        <v>150.2528918521526</v>
       </c>
       <c r="C122" t="n">
-        <v>45.11436897986184</v>
+        <v>45.12044487342799</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1781,10 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>150.2438418821307</v>
+        <v>150.2525609073137</v>
       </c>
       <c r="C123" t="n">
-        <v>45.11419854515807</v>
+        <v>45.12027152509741</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1792,10 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>150.2435012099243</v>
+        <v>150.2522165497093</v>
       </c>
       <c r="C124" t="n">
-        <v>45.11402108715552</v>
+        <v>45.12009104983699</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1803,10 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>150.2431467115406</v>
+        <v>150.2518582359141</v>
       </c>
       <c r="C125" t="n">
-        <v>45.11383631653832</v>
+        <v>45.11990315473923</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1814,10 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>150.2427778260322</v>
+        <v>150.2514854005004</v>
       </c>
       <c r="C126" t="n">
-        <v>45.1136439320811</v>
+        <v>45.11970753486722</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1825,10 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>150.2423939697086</v>
+        <v>150.2510974551484</v>
       </c>
       <c r="C127" t="n">
-        <v>45.11344362015949</v>
+        <v>45.11950387276145</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1836,10 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>150.2419945352158</v>
+        <v>150.2506937877205</v>
       </c>
       <c r="C128" t="n">
-        <v>45.11323505424053</v>
+        <v>45.11929183792628</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1847,10 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>150.2415788905782</v>
+        <v>150.2502737612986</v>
       </c>
       <c r="C129" t="n">
-        <v>45.11301789435218</v>
+        <v>45.11907108629549</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1858,10 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>150.2411463782016</v>
+        <v>150.2498367131826</v>
       </c>
       <c r="C130" t="n">
-        <v>45.11279178653113</v>
+        <v>45.11884125967605</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1869,10 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>150.2406963138371</v>
+        <v>150.2493819538482</v>
       </c>
       <c r="C131" t="n">
-        <v>45.11255636224803</v>
+        <v>45.11860198516902</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1880,10 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>150.2402279855018</v>
+        <v>150.2489087658629</v>
       </c>
       <c r="C132" t="n">
-        <v>45.11231123780907</v>
+        <v>45.11835287456699</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1891,10 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>150.2397406523567</v>
+        <v>150.2484164027587</v>
       </c>
       <c r="C133" t="n">
-        <v>45.11205601373323</v>
+        <v>45.11809352372673</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1902,10 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>150.2392335435398</v>
+        <v>150.2479040878588</v>
       </c>
       <c r="C134" t="n">
-        <v>45.11179027410393</v>
+        <v>45.11782351191638</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1913,10 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>150.2387058569506</v>
+        <v>150.2473710130575</v>
       </c>
       <c r="C135" t="n">
-        <v>45.11151358589421</v>
+        <v>45.11754240113591</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1924,10 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>150.2381567579879</v>
+        <v>150.2468163375507</v>
       </c>
       <c r="C136" t="n">
-        <v>45.1112254982643</v>
+        <v>45.11724973540992</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1935,10 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>150.2375853782345</v>
+        <v>150.246239186516</v>
       </c>
       <c r="C137" t="n">
-        <v>45.11092554183049</v>
+        <v>45.11694504005158</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1946,10 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>150.2369908140903</v>
+        <v>150.2456386497385</v>
       </c>
       <c r="C138" t="n">
-        <v>45.11061322790415</v>
+        <v>45.11662782089657</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1957,10 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>150.23637212535</v>
+        <v>150.2450137801826</v>
       </c>
       <c r="C139" t="n">
-        <v>45.1102880476996</v>
+        <v>45.11629756350579</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1968,10 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>150.2357283337238</v>
+        <v>150.2443635925059</v>
       </c>
       <c r="C140" t="n">
-        <v>45.10994947150969</v>
+        <v>45.11595373233565</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1979,10 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>150.2350584212977</v>
+        <v>150.243687061513</v>
       </c>
       <c r="C141" t="n">
-        <v>45.10959694784774</v>
+        <v>45.11559576987452</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1990,10 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>150.2343613289331</v>
+        <v>150.2429831205481</v>
       </c>
       <c r="C142" t="n">
-        <v>45.10922990255444</v>
+        <v>45.11522309574406</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2001,10 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>150.2336359546012</v>
+        <v>150.2422506598221</v>
       </c>
       <c r="C143" t="n">
-        <v>45.10884773786835</v>
+        <v>45.11483510576401</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2012,10 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>150.2328811516509</v>
+        <v>150.2414885246735</v>
       </c>
       <c r="C144" t="n">
-        <v>45.10844983145848</v>
+        <v>45.11443117097892</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2023,10 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>150.2320957270068</v>
+        <v>150.2406955137588</v>
       </c>
       <c r="C145" t="n">
-        <v>45.10803553541754</v>
+        <v>45.11401063664535</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2034,10 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>150.2312784392952</v>
+        <v>150.2398703771708</v>
       </c>
       <c r="C146" t="n">
-        <v>45.10760417521407</v>
+        <v>45.11357282117798</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2045,10 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>150.2304279968945</v>
+        <v>150.2390118144814</v>
       </c>
       <c r="C147" t="n">
-        <v>45.10715504860205</v>
+        <v>45.1131170150528</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2056,10 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>150.229543055908</v>
+        <v>150.2381184727057</v>
       </c>
       <c r="C148" t="n">
-        <v>45.10668742448607</v>
+        <v>45.11264247966592</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2067,10 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>150.2286222180543</v>
+        <v>150.2371889441854</v>
       </c>
       <c r="C149" t="n">
-        <v>45.10620054174035</v>
+        <v>45.11214844614604</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2078,10 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>150.2276640284749</v>
+        <v>150.2362217643862</v>
       </c>
       <c r="C150" t="n">
-        <v>45.10569360797985</v>
+        <v>45.11163411411884</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2089,10 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>150.226666973452</v>
+        <v>150.2352154096088</v>
       </c>
       <c r="C151" t="n">
-        <v>45.10516579828142</v>
+        <v>45.11109865042122</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2100,10 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>150.2256294780366</v>
+        <v>150.2341682946067</v>
       </c>
       <c r="C152" t="n">
-        <v>45.10461625385307</v>
+        <v>45.11054118776363</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2111,10 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>150.2245499035808</v>
+        <v>150.2330787701102</v>
       </c>
       <c r="C153" t="n">
-        <v>45.10404408064922</v>
+        <v>45.10996082333816</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2122,10 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>150.2234265451716</v>
+        <v>150.2319451202508</v>
       </c>
       <c r="C154" t="n">
-        <v>45.10344834792996</v>
+        <v>45.10935661737044</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2133,10 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>150.2222576289623</v>
+        <v>150.2307655598833</v>
       </c>
       <c r="C155" t="n">
-        <v>45.10282808676175</v>
+        <v>45.10872759161303</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2144,10 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>150.2210413093975</v>
+        <v>150.2295382318003</v>
       </c>
       <c r="C156" t="n">
-        <v>45.10218228845768</v>
+        <v>45.10807272777795</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2155,10 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>150.2197756663269</v>
+        <v>150.2282612038371</v>
       </c>
       <c r="C157" t="n">
-        <v>45.10150990295448</v>
+        <v>45.10739096590607</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2166,10 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>150.2184587020042</v>
+        <v>150.2269324658601</v>
       </c>
       <c r="C158" t="n">
-        <v>45.10080983712399</v>
+        <v>45.1066812026707</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2177,10 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>150.2170883379667</v>
+        <v>150.2255499266361</v>
       </c>
       <c r="C159" t="n">
-        <v>45.10008095301652</v>
+        <v>45.10594228961291</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2188,10 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>150.2156624117905</v>
+        <v>150.2241114105766</v>
       </c>
       <c r="C160" t="n">
-        <v>45.09932206603332</v>
+        <v>45.1051730313059</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2199,10 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>150.2141786737163</v>
+        <v>150.2226146543537</v>
       </c>
       <c r="C161" t="n">
-        <v>45.09853194302534</v>
+        <v>45.10437218344546</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2210,10 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>150.2126347831417</v>
+        <v>150.2210573033804</v>
       </c>
       <c r="C162" t="n">
-        <v>45.09770930031555</v>
+        <v>45.10353845086394</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2221,10 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>150.2110283049735</v>
+        <v>150.2194369081526</v>
       </c>
       <c r="C163" t="n">
-        <v>45.09685280164162</v>
+        <v>45.10267048546437</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2232,10 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>150.2093567058358</v>
+        <v>150.2177509204456</v>
       </c>
       <c r="C164" t="n">
-        <v>45.09596105601602</v>
+        <v>45.10176688407189</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2243,10 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>150.2076173501278</v>
+        <v>150.2159966893599</v>
       </c>
       <c r="C165" t="n">
-        <v>45.09503261550016</v>
+        <v>45.10082618619921</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2254,10 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>150.205807495925</v>
+        <v>150.2141714572112</v>
       </c>
       <c r="C166" t="n">
-        <v>45.0940659728893</v>
+        <v>45.09984687172262</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2265,10 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>150.2039242907186</v>
+        <v>150.2122723552574</v>
       </c>
       <c r="C167" t="n">
-        <v>45.09305955930486</v>
+        <v>45.09882735846529</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2276,10 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>150.2019647669868</v>
+        <v>150.2102963992581</v>
       </c>
       <c r="C168" t="n">
-        <v>45.09201174169025</v>
+        <v>45.09776599968415</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2287,10 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>150.1999258375907</v>
+        <v>150.2082404848578</v>
       </c>
       <c r="C169" t="n">
-        <v>45.09092082020687</v>
+        <v>45.09666108145662</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2298,10 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>150.1978042909892</v>
+        <v>150.2061013827883</v>
       </c>
       <c r="C170" t="n">
-        <v>45.08978502552611</v>
+        <v>45.09551081996348</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2309,10 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>150.1955967862648</v>
+        <v>150.2038757338825</v>
       </c>
       <c r="C171" t="n">
-        <v>45.08860251601351</v>
+        <v>45.09431335866374</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2320,10 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>150.1932998479549</v>
+        <v>150.2015600438916</v>
       </c>
       <c r="C172" t="n">
-        <v>45.08737137480096</v>
+        <v>45.09306676535746</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2331,10 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>150.1909098606793</v>
+        <v>150.1991506781003</v>
       </c>
       <c r="C173" t="n">
-        <v>45.08608960674255</v>
+        <v>45.09176902913232</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2342,10 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>150.1884230635565</v>
+        <v>150.1966438557304</v>
       </c>
       <c r="C174" t="n">
-        <v>45.08475513524984</v>
+        <v>45.09041805718933</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2353,10 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>150.1858355444031</v>
+        <v>150.1940356441254</v>
       </c>
       <c r="C175" t="n">
-        <v>45.08336579900164</v>
+        <v>45.08901167154341</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2364,10 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>150.1831432337042</v>
+        <v>150.1913219527093</v>
       </c>
       <c r="C176" t="n">
-        <v>45.08191934852406</v>
+        <v>45.08754760559385</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2375,10 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>150.18034189835</v>
+        <v>150.1884985267082</v>
       </c>
       <c r="C177" t="n">
-        <v>45.0804134426354</v>
+        <v>45.08602350055995</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2386,10 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>150.1774271351279</v>
+        <v>150.1855609406294</v>
       </c>
       <c r="C178" t="n">
-        <v>45.0788456447512</v>
+        <v>45.08443690177666</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2397,10 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>150.1743943639609</v>
+        <v>150.182504591486</v>
       </c>
       <c r="C179" t="n">
-        <v>45.07721341904418</v>
+        <v>45.08278525484528</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2408,10 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>150.1712388208836</v>
+        <v>150.1793246917593</v>
       </c>
       <c r="C180" t="n">
-        <v>45.07551412645339</v>
+        <v>45.08106590163345</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2419,10 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>150.1679555507464</v>
+        <v>150.1760162620889</v>
       </c>
       <c r="C181" t="n">
-        <v>45.07374502053747</v>
+        <v>45.07927607611933</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2430,10 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>150.1645393996371</v>
+        <v>150.1725741236805</v>
       </c>
       <c r="C182" t="n">
-        <v>45.0719032431659</v>
+        <v>45.0774129000739</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2441,10 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>150.1609850070093</v>
+        <v>150.168992890421</v>
       </c>
       <c r="C183" t="n">
-        <v>45.06998582004243</v>
+        <v>45.0754733785757</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2452,10 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>150.1572867975086</v>
+        <v>150.16526696069</v>
       </c>
       <c r="C184" t="n">
-        <v>45.06798965605472</v>
+        <v>45.07345439535189</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2463,10 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>150.1534389724839</v>
+        <v>150.1613905088585</v>
       </c>
       <c r="C185" t="n">
-        <v>45.06591153044371</v>
+        <v>45.0713527079393</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2474,10 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>150.1494355011733</v>
+        <v>150.1573574764601</v>
       </c>
       <c r="C186" t="n">
-        <v>45.06374809178639</v>
+        <v>45.06916494265916</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2485,10 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>150.1452701115529</v>
+        <v>150.1531615630272</v>
       </c>
       <c r="C187" t="n">
-        <v>45.06149585278515</v>
+        <v>45.06688758939877</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2496,10 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>150.1409362808361</v>
+        <v>150.1487962165766</v>
       </c>
       <c r="C188" t="n">
-        <v>45.05915118485714</v>
+        <v>45.06451699619345</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2507,10 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>150.1364272256117</v>
+        <v>150.1442546237347</v>
       </c>
       <c r="C189" t="n">
-        <v>45.05671031251623</v>
+        <v>45.06204936360155</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2518,10 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>150.1317358916076</v>
+        <v>150.1395296994881</v>
       </c>
       <c r="C190" t="n">
-        <v>45.05416930754068</v>
+        <v>45.0594807388656</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2529,10 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>150.1268549430671</v>
+        <v>150.1346140765476</v>
       </c>
       <c r="C191" t="n">
-        <v>45.05152408291885</v>
+        <v>45.05680700985196</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2540,10 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>150.1217767517246</v>
+        <v>150.1295000943114</v>
       </c>
       <c r="C192" t="n">
-        <v>45.04877038656549</v>
+        <v>45.05402389876173</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2551,10 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>150.1164933853663</v>
+        <v>150.1241797874144</v>
       </c>
       <c r="C193" t="n">
-        <v>45.04590379480069</v>
+        <v>45.05112695560481</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2562,10 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>150.1109965959631</v>
+        <v>150.1186448738496</v>
       </c>
       <c r="C194" t="n">
-        <v>45.04291970558368</v>
+        <v>45.04811155142954</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2573,10 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>150.105277807359</v>
+        <v>150.1128867426458</v>
       </c>
       <c r="C195" t="n">
-        <v>45.03981333149302</v>
+        <v>45.04497287129946</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2584,10 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>150.099328102503</v>
+        <v>150.106896441089</v>
       </c>
       <c r="C196" t="n">
-        <v>45.03657969244523</v>
+        <v>45.04170590700935</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2595,10 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>150.0931382102067</v>
+        <v>150.1006646614707</v>
       </c>
       <c r="C197" t="n">
-        <v>45.03321360814286</v>
+        <v>45.03830544953163</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2606,10 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>150.0866984914133</v>
+        <v>150.0941817273479</v>
       </c>
       <c r="C198" t="n">
-        <v>45.02970969024378</v>
+        <v>45.03476608118488</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2617,10 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>150.079998924962</v>
+        <v>150.0874375792997</v>
       </c>
       <c r="C199" t="n">
-        <v>45.02606233424251</v>
+        <v>45.0310821675155</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2628,10 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>150.0730290928318</v>
+        <v>150.080421760164</v>
       </c>
       <c r="C200" t="n">
-        <v>45.02226571105469</v>
+        <v>45.02724784888375</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2639,10 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>150.0657781648472</v>
+        <v>150.0731233997367</v>
       </c>
       <c r="C201" t="n">
-        <v>45.01831375829563</v>
+        <v>45.02325703174499</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2650,10 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>150</v>
+        <v>150.0655311989196</v>
       </c>
       <c r="C202" t="n">
-        <v>45</v>
+        <v>45.01910337961706</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2661,10 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>150</v>
+        <v>150.0655311989196</v>
       </c>
       <c r="C203" t="n">
-        <v>45</v>
+        <v>45.01910337961706</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2672,10 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>150</v>
+        <v>150.0576334132959</v>
       </c>
       <c r="C204" t="n">
-        <v>45</v>
+        <v>45.01478030372451</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2683,10 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>150</v>
+        <v>150.0494178361205</v>
       </c>
       <c r="C205" t="n">
-        <v>45</v>
+        <v>45.01028095331028</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2694,10 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>150</v>
+        <v>150.040871780703</v>
       </c>
       <c r="C206" t="n">
-        <v>45</v>
+        <v>45.00559820560546</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2705,10 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>150</v>
+        <v>150.0319820621705</v>
       </c>
       <c r="C207" t="n">
-        <v>45</v>
+        <v>45.00072465544759</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2716,10 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>150</v>
+        <v>150.0227349785874</v>
       </c>
       <c r="C208" t="n">
-        <v>45</v>
+        <v>44.99565260453811</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2727,10 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>150</v>
+        <v>150.0131162914183</v>
       </c>
       <c r="C209" t="n">
-        <v>45</v>
+        <v>44.99037405032928</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2738,10 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>150</v>
+        <v>150.0031112053132</v>
       </c>
       <c r="C210" t="n">
-        <v>45</v>
+        <v>44.98488067453133</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2749,10 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>150</v>
+        <v>149.9927043471982</v>
       </c>
       <c r="C211" t="n">
-        <v>45</v>
+        <v>44.97916383123024</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2760,10 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>150</v>
+        <v>149.981879744652</v>
       </c>
       <c r="C212" t="n">
-        <v>45</v>
+        <v>44.97321453460695</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2771,10 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>150</v>
+        <v>149.9706208035524</v>
       </c>
       <c r="C213" t="n">
-        <v>45</v>
+        <v>44.96702344624891</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2782,10 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>150</v>
+        <v>149.9589102849714</v>
       </c>
       <c r="C214" t="n">
-        <v>45</v>
+        <v>44.96058086204489</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2793,10 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>150</v>
+        <v>149.9467302813047</v>
       </c>
       <c r="C215" t="n">
-        <v>45</v>
+        <v>44.95387669865438</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2804,10 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>150</v>
+        <v>149.9340621916143</v>
       </c>
       <c r="C216" t="n">
-        <v>45</v>
+        <v>44.94690047954326</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2815,10 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>150</v>
+        <v>149.9208866961694</v>
       </c>
       <c r="C217" t="n">
-        <v>45</v>
+        <v>44.93964132057754</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2826,10 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>150</v>
+        <v>149.9071837301675</v>
       </c>
       <c r="C218" t="n">
-        <v>45</v>
+        <v>44.93208791516761</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2837,10 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>150</v>
+        <v>149.8929324566197</v>
       </c>
       <c r="C219" t="n">
-        <v>45</v>
+        <v>44.92422851895594</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2848,10 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>150</v>
+        <v>149.8781112383831</v>
       </c>
       <c r="C220" t="n">
-        <v>45</v>
+        <v>44.91605093404151</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2859,10 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>150</v>
+        <v>149.8626976093278</v>
       </c>
       <c r="C221" t="n">
-        <v>45</v>
+        <v>44.90754249273525</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2870,10 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>150</v>
+        <v>149.8466682446212</v>
       </c>
       <c r="C222" t="n">
-        <v>45</v>
+        <v>44.8986900408413</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2881,10 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>150</v>
+        <v>149.8299989301188</v>
       </c>
       <c r="C223" t="n">
-        <v>45</v>
+        <v>44.88947992045988</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2892,10 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>150</v>
+        <v>149.8126645308478</v>
       </c>
       <c r="C224" t="n">
-        <v>45</v>
+        <v>44.87989795230834</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2903,10 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>150</v>
+        <v>149.794638958574</v>
       </c>
       <c r="C225" t="n">
-        <v>45</v>
+        <v>44.8699294175584</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2914,10 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>150</v>
+        <v>149.7758951384419</v>
       </c>
       <c r="C226" t="n">
-        <v>45</v>
+        <v>44.85955903918861</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2925,10 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>150</v>
+        <v>149.7564049746805</v>
       </c>
       <c r="C227" t="n">
-        <v>45</v>
+        <v>44.84877096285221</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2936,10 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>149</v>
+        <v>149.7361393153707</v>
       </c>
       <c r="C228" t="n">
-        <v>44.4290909090909</v>
+        <v>44.83754873726274</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2947,10 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>149</v>
+        <v>149.7150679162682</v>
       </c>
       <c r="C229" t="n">
-        <v>44.4290909090909</v>
+        <v>44.82587529410056</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2958,10 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>149</v>
+        <v>149.6931594036837</v>
       </c>
       <c r="C230" t="n">
-        <v>44.4290909090909</v>
+        <v>44.8137329274462</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2969,10 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>149</v>
+        <v>149.6703812364203</v>
       </c>
       <c r="C231" t="n">
-        <v>44.4290909090909</v>
+        <v>44.80110327274784</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2980,10 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>149</v>
+        <v>149.6466996667733</v>
       </c>
       <c r="C232" t="n">
-        <v>44.4290909090909</v>
+        <v>44.78796728533278</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2991,10 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>149</v>
+        <v>149.6220797006008</v>
       </c>
       <c r="C233" t="n">
-        <v>44.4290909090909</v>
+        <v>44.77430521847521</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3002,10 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>149</v>
+        <v>149.5964850564755</v>
       </c>
       <c r="C234" t="n">
-        <v>44.4290909090909</v>
+        <v>44.76009660103529</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3013,10 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>149</v>
+        <v>149.5698781239352</v>
       </c>
       <c r="C235" t="n">
-        <v>44.4290909090909</v>
+        <v>44.74532021468745</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3024,10 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>149</v>
+        <v>149.5422199208494</v>
       </c>
       <c r="C236" t="n">
-        <v>44.4290909090909</v>
+        <v>44.72995407075914</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3035,10 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>149</v>
+        <v>149.5134700499296</v>
       </c>
       <c r="C237" t="n">
-        <v>44.4290909090909</v>
+        <v>44.71397538670469</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3046,10 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>149</v>
+        <v>149.483586654411</v>
       </c>
       <c r="C238" t="n">
-        <v>44.4290909090909</v>
+        <v>44.69736056224274</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3057,10 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>149</v>
+        <v>149.4525263729421</v>
       </c>
       <c r="C239" t="n">
-        <v>44.4290909090909</v>
+        <v>44.68008515518995</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3068,10 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>149</v>
+        <v>149.4202442937248</v>
       </c>
       <c r="C240" t="n">
-        <v>44.4290909090909</v>
+        <v>44.66212385702802</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3079,10 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>149</v>
+        <v>149.3866939079521</v>
       </c>
       <c r="C241" t="n">
-        <v>44.4290909090909</v>
+        <v>44.64345046824582</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3090,10 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>149</v>
+        <v>149.3518270626012</v>
       </c>
       <c r="C242" t="n">
-        <v>44.4290909090909</v>
+        <v>44.62403787350388</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3101,10 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>149</v>
+        <v>149.3155939126441</v>
       </c>
       <c r="C243" t="n">
-        <v>44.4290909090909</v>
+        <v>44.60385801667375</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3112,10 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>149</v>
+        <v>149.2779428727492</v>
       </c>
       <c r="C244" t="n">
-        <v>44.4290909090909</v>
+        <v>44.582881875811</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3123,10 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>149</v>
+        <v>149.2388205685545</v>
       </c>
       <c r="C245" t="n">
-        <v>44.4290909090909</v>
+        <v>44.56107943812674</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3134,10 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>149</v>
+        <v>149.1981717876059</v>
       </c>
       <c r="C246" t="n">
-        <v>44.4290909090909</v>
+        <v>44.5384196750298</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3145,10 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>149</v>
+        <v>149.1559394300597</v>
       </c>
       <c r="C247" t="n">
-        <v>44.4290909090909</v>
+        <v>44.51487051731872</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3156,10 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>149</v>
+        <v>149.112064459265</v>
       </c>
       <c r="C248" t="n">
-        <v>44.4290909090909</v>
+        <v>44.49039883061058</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3167,10 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>149</v>
+        <v>149.0664858523518</v>
       </c>
       <c r="C249" t="n">
-        <v>44.4290909090909</v>
+        <v>44.46497039110218</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3178,10 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>149</v>
+        <v>149.0191405509616</v>
       </c>
       <c r="C250" t="n">
-        <v>44.4290909090909</v>
+        <v>44.43854986176763</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3189,10 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>149</v>
+        <v>148.9699634122753</v>
       </c>
       <c r="C251" t="n">
-        <v>44.4290909090909</v>
+        <v>44.41110076910597</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3200,10 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>149</v>
+        <v>148.9188871605052</v>
       </c>
       <c r="C252" t="n">
-        <v>44.4290909090909</v>
+        <v>44.38258548056228</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3211,10 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>149</v>
+        <v>148.8658423390335</v>
       </c>
       <c r="C253" t="n">
-        <v>44.4290909090909</v>
+        <v>44.3529651827559</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3222,10 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>149</v>
+        <v>148.8107572633984</v>
       </c>
       <c r="C254" t="n">
-        <v>44.4290909090909</v>
+        <v>44.32219986066083</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3233,10 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>149</v>
+        <v>148.7535579753448</v>
       </c>
       <c r="C255" t="n">
-        <v>44.4290909090909</v>
+        <v>44.29024827789422</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3244,10 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>149</v>
+        <v>148.694168198176</v>
       </c>
       <c r="C256" t="n">
-        <v>44.4290909090909</v>
+        <v>44.25706795828155</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3255,10 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>149</v>
+        <v>148.6325092936624</v>
       </c>
       <c r="C257" t="n">
-        <v>44.4290909090909</v>
+        <v>44.22261516887905</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3266,10 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>149</v>
+        <v>148.5685002207832</v>
       </c>
       <c r="C258" t="n">
-        <v>44.4290909090909</v>
+        <v>44.18684490464734</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3277,10 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>149</v>
+        <v>148.5020574966004</v>
       </c>
       <c r="C259" t="n">
-        <v>44.4290909090909</v>
+        <v>44.14971087498375</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3288,10 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>148</v>
+        <v>148.4330951595853</v>
       </c>
       <c r="C260" t="n">
-        <v>43.86181818181819</v>
+        <v>44.11116549233436</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3299,10 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>148</v>
+        <v>148.3615247357417</v>
       </c>
       <c r="C261" t="n">
-        <v>43.86181818181819</v>
+        <v>44.0711598631219</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3310,10 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>148</v>
+        <v>148.2872552078963</v>
       </c>
       <c r="C262" t="n">
-        <v>43.86181818181819</v>
+        <v>44.02964378123951</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3321,10 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>148</v>
+        <v>148.2101929885494</v>
       </c>
       <c r="C263" t="n">
-        <v>43.86181818181819</v>
+        <v>43.98656572437621</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3332,10 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>148</v>
+        <v>148.130241896708</v>
       </c>
       <c r="C264" t="n">
-        <v>43.86181818181819</v>
+        <v>43.94187285345433</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3343,10 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>148</v>
+        <v>148.0473031391483</v>
       </c>
       <c r="C265" t="n">
-        <v>43.86181818181819</v>
+        <v>43.89551101547541</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3354,10 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>148</v>
+        <v>147.9612752965849</v>
       </c>
       <c r="C266" t="n">
-        <v>43.86181818181819</v>
+        <v>43.84742475008555</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3365,10 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>148</v>
+        <v>147.8720543152491</v>
       </c>
       <c r="C267" t="n">
-        <v>43.86181818181819</v>
+        <v>43.79755730018709</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3376,10 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>148</v>
+        <v>147.7795335044105</v>
       </c>
       <c r="C268" t="n">
-        <v>43.86181818181819</v>
+        <v>43.74585062693844</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3387,10 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>148</v>
+        <v>147.6836035404033</v>
       </c>
       <c r="C269" t="n">
-        <v>43.86181818181819</v>
+        <v>43.69224542949821</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3398,10 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>148</v>
+        <v>147.5841524777484</v>
       </c>
       <c r="C270" t="n">
-        <v>43.86181818181819</v>
+        <v>43.63668116988443</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3409,10 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>148</v>
+        <v>147.4810657679914</v>
       </c>
       <c r="C271" t="n">
-        <v>43.86181818181819</v>
+        <v>43.57909610333256</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3420,10 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>148</v>
+        <v>147.3742262869046</v>
       </c>
       <c r="C272" t="n">
-        <v>43.86181818181819</v>
+        <v>43.51942731454857</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3431,10 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>147</v>
+        <v>147.2635143707314</v>
       </c>
       <c r="C273" t="n">
-        <v>43.29818181818182</v>
+        <v>43.45761076026459</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3442,10 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>147</v>
+        <v>147.1488078621739</v>
       </c>
       <c r="C274" t="n">
-        <v>43.29818181818182</v>
+        <v>43.39358131851427</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3453,10 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>147</v>
+        <v>147.0299821668561</v>
       </c>
       <c r="C275" t="n">
-        <v>43.29818181818182</v>
+        <v>43.32727284505292</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3464,10 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>147</v>
+        <v>146.906910321014</v>
       </c>
       <c r="C276" t="n">
-        <v>43.29818181818182</v>
+        <v>43.25861823735358</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3475,10 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>147</v>
+        <v>146.7794630711894</v>
       </c>
       <c r="C277" t="n">
-        <v>43.29818181818182</v>
+        <v>43.18754950661357</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3486,10 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>147</v>
+        <v>146.6475089667209</v>
       </c>
       <c r="C278" t="n">
-        <v>43.29818181818182</v>
+        <v>43.11399785820674</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3497,10 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>147</v>
+        <v>146.5109144658452</v>
       </c>
       <c r="C279" t="n">
-        <v>43.29818181818182</v>
+        <v>43.03789378101456</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3508,10 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>146</v>
+        <v>146.3695440562299</v>
       </c>
       <c r="C280" t="n">
-        <v>42.73818181818181</v>
+        <v>42.95916714606321</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3519,10 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>146</v>
+        <v>146.2232603907723</v>
       </c>
       <c r="C281" t="n">
-        <v>42.73818181818181</v>
+        <v>42.87774731488383</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3530,10 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>146</v>
+        <v>146.071924439499</v>
       </c>
       <c r="C282" t="n">
-        <v>42.73818181818181</v>
+        <v>42.79356325799933</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3541,10 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>146</v>
+        <v>145.9153956583999</v>
       </c>
       <c r="C283" t="n">
-        <v>42.73818181818181</v>
+        <v>42.70654368392191</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3552,10 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>145</v>
+        <v>145.7535321760232</v>
       </c>
       <c r="C284" t="n">
-        <v>42.18181818181818</v>
+        <v>42.61661717902123</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3563,10 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>145</v>
+        <v>145.5861909986403</v>
       </c>
       <c r="C285" t="n">
-        <v>42.18181818181818</v>
+        <v>42.52371235859337</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3574,10 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>145</v>
+        <v>145.4132282347699</v>
       </c>
       <c r="C286" t="n">
-        <v>42.18181818181818</v>
+        <v>42.42775802942467</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3585,10 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>145</v>
+        <v>145.2344993398157</v>
       </c>
       <c r="C287" t="n">
-        <v>42.18181818181818</v>
+        <v>42.32868336410153</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3596,10 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>145</v>
+        <v>145.0498593815325</v>
       </c>
       <c r="C288" t="n">
-        <v>42.18181818181818</v>
+        <v>42.22641808726814</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3607,10 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>145</v>
+        <v>144.8591633269853</v>
       </c>
       <c r="C289" t="n">
-        <v>42.18181818181818</v>
+        <v>42.1208926739764</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3618,10 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>145</v>
+        <v>144.6622663516011</v>
       </c>
       <c r="C290" t="n">
-        <v>42.18181818181818</v>
+        <v>42.01203856020804</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3629,10 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>145</v>
+        <v>144.4590241708417</v>
       </c>
       <c r="C291" t="n">
-        <v>42.18181818181818</v>
+        <v>41.89978836557579</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3640,10 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>144</v>
+        <v>144.2492933949361</v>
       </c>
       <c r="C292" t="n">
-        <v>41.62909090909091</v>
+        <v>41.78407612812948</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3651,10 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>144</v>
+        <v>144.0329319070132</v>
       </c>
       <c r="C293" t="n">
-        <v>41.62909090909091</v>
+        <v>41.66483755110333</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3662,10 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>144</v>
+        <v>143.8097992648601</v>
       </c>
       <c r="C294" t="n">
-        <v>41.62909090909091</v>
+        <v>41.54201026134297</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3673,10 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>144</v>
+        <v>143.5797571264004</v>
       </c>
       <c r="C295" t="n">
-        <v>41.62909090909091</v>
+        <v>41.41553407904419</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3684,10 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>144</v>
+        <v>143.3426696988471</v>
       </c>
       <c r="C296" t="n">
-        <v>41.62909090909091</v>
+        <v>41.28535129832056</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3695,10 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>143</v>
+        <v>143.0984042113195</v>
       </c>
       <c r="C297" t="n">
-        <v>41.07999999999999</v>
+        <v>41.15140697799515</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3706,10 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>143</v>
+        <v>142.8468314105417</v>
       </c>
       <c r="C298" t="n">
-        <v>41.07999999999999</v>
+        <v>41.01364924188089</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3717,10 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>143</v>
+        <v>142.5878260790473</v>
       </c>
       <c r="C299" t="n">
-        <v>41.07999999999999</v>
+        <v>40.87202958767759</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3728,10 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>142</v>
+        <v>142.3212675751091</v>
       </c>
       <c r="C300" t="n">
-        <v>40.53454545454546</v>
+        <v>40.72650320347069</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3739,10 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>142</v>
+        <v>142.0470403933871</v>
       </c>
       <c r="C301" t="n">
-        <v>40.53454545454546</v>
+        <v>40.57702929066904</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3750,10 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>142</v>
+        <v>141.7650347450573</v>
       </c>
       <c r="C302" t="n">
-        <v>40.53454545454546</v>
+        <v>40.42357139206681</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3761,10 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>141</v>
+        <v>141.4751471559264</v>
       </c>
       <c r="C303" t="n">
-        <v>39.99272727272727</v>
+        <v>40.26609772356117</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3772,10 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>141</v>
+        <v>141.17728108078</v>
       </c>
       <c r="C304" t="n">
-        <v>39.99272727272727</v>
+        <v>40.10458150790185</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3783,10 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>140</v>
+        <v>140.8713475319377</v>
       </c>
       <c r="C305" t="n">
-        <v>39.45454545454545</v>
+        <v>39.93900130869509</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3794,10 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>140</v>
+        <v>140.5572657197022</v>
       </c>
       <c r="C306" t="n">
-        <v>39.45454545454545</v>
+        <v>39.76934136273367</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3805,10 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>140</v>
+        <v>140.2349637021069</v>
       </c>
       <c r="C307" t="n">
-        <v>39.45454545454545</v>
+        <v>39.59559190857901</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3816,10 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>140</v>
+        <v>139.9043790410696</v>
       </c>
       <c r="C308" t="n">
-        <v>39.45454545454545</v>
+        <v>39.41774950918369</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3827,10 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>139</v>
+        <v>139.5654594617685</v>
       </c>
       <c r="C309" t="n">
-        <v>38.92</v>
+        <v>39.23581736621503</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3838,10 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>139</v>
+        <v>139.2181635117657</v>
       </c>
       <c r="C310" t="n">
-        <v>38.92</v>
+        <v>39.04980562362573</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3849,10 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>139</v>
+        <v>138.8624612161202</v>
       </c>
       <c r="C311" t="n">
-        <v>38.92</v>
+        <v>38.85973165791858</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3860,10 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>138</v>
+        <v>138.4983347244594</v>
       </c>
       <c r="C312" t="n">
-        <v>38.38909090909091</v>
+        <v>38.66562035247174</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3871,10 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>138</v>
+        <v>138.1257789457184</v>
       </c>
       <c r="C313" t="n">
-        <v>38.38909090909091</v>
+        <v>38.46750435323182</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3882,10 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>137</v>
+        <v>137.7448021660222</v>
       </c>
       <c r="C314" t="n">
-        <v>37.86181818181818</v>
+        <v>38.26542430304671</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3893,10 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>137</v>
+        <v>137.3554266449687</v>
       </c>
       <c r="C315" t="n">
-        <v>37.86181818181818</v>
+        <v>38.05942905190165</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3904,10 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>136</v>
+        <v>136.9576891853904</v>
       </c>
       <c r="C316" t="n">
-        <v>37.33818181818182</v>
+        <v>37.84957584034199</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3915,10 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>136</v>
+        <v>136.5516416715245</v>
       </c>
       <c r="C317" t="n">
-        <v>37.33818181818182</v>
+        <v>37.63593045341833</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3926,10 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>135</v>
+        <v>136.1373515704108</v>
       </c>
       <c r="C318" t="n">
-        <v>36.81818181818181</v>
+        <v>37.41856734257354</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3937,10 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>135</v>
+        <v>135.7149023912804</v>
       </c>
       <c r="C319" t="n">
-        <v>36.81818181818181</v>
+        <v>37.19756971301096</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3948,10 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>134</v>
+        <v>135.284394097678</v>
       </c>
       <c r="C320" t="n">
-        <v>36.30181818181818</v>
+        <v>36.97302957423703</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3959,10 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>134</v>
+        <v>134.8459434671117</v>
       </c>
       <c r="C321" t="n">
-        <v>36.30181818181818</v>
+        <v>36.74504775166228</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3970,10 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>134</v>
+        <v>134.399684393117</v>
       </c>
       <c r="C322" t="n">
-        <v>36.30181818181818</v>
+        <v>36.51373385737076</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3981,10 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>133</v>
+        <v>133.9457681247904</v>
       </c>
       <c r="C323" t="n">
-        <v>35.78909090909091</v>
+        <v>36.27920621842895</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3992,10 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>133</v>
+        <v>133.4843634390715</v>
       </c>
       <c r="C324" t="n">
-        <v>35.78909090909091</v>
+        <v>36.04159176140021</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4003,10 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>133</v>
+        <v>133.0156567413459</v>
       </c>
       <c r="C325" t="n">
-        <v>35.78909090909091</v>
+        <v>35.80102585205677</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4014,10 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>132</v>
+        <v>132.5398520903035</v>
       </c>
       <c r="C326" t="n">
-        <v>35.28</v>
+        <v>35.55765208963627</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4025,10 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>132</v>
+        <v>132.0571711434111</v>
       </c>
       <c r="C327" t="n">
-        <v>35.28</v>
+        <v>35.31162205536981</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4036,10 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>131</v>
+        <v>131.5678530198521</v>
       </c>
       <c r="C328" t="n">
-        <v>34.77454545454545</v>
+        <v>35.06309501540956</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4047,10 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>131</v>
+        <v>131.0721540783399</v>
       </c>
       <c r="C329" t="n">
-        <v>34.77454545454545</v>
+        <v>34.81223757870121</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4058,10 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>130</v>
+        <v>130.5703476078282</v>
       </c>
       <c r="C330" t="n">
-        <v>34.27272727272727</v>
+        <v>34.55922331077471</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4069,10 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>129</v>
+        <v>130.0627234298049</v>
       </c>
       <c r="C331" t="n">
-        <v>33.77454545454546</v>
+        <v>34.30423230486027</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4080,10 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>129</v>
+        <v>129.5495874115781</v>
       </c>
       <c r="C332" t="n">
-        <v>33.77454545454546</v>
+        <v>34.0474507121688</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4091,10 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>128</v>
+        <v>129.0312608907101</v>
       </c>
       <c r="C333" t="n">
-        <v>33.28</v>
+        <v>33.78907023360107</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4102,10 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>128</v>
+        <v>128.5080800115515</v>
       </c>
       <c r="C334" t="n">
-        <v>33.28</v>
+        <v>33.52928757556104</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4113,10 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>127</v>
+        <v>127.9803949756267</v>
       </c>
       <c r="C335" t="n">
-        <v>32.78909090909091</v>
+        <v>33.26830387293926</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4124,10 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>127</v>
+        <v>127.4485692084497</v>
       </c>
       <c r="C336" t="n">
-        <v>32.78909090909091</v>
+        <v>33.00632408269647</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4135,10 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>126</v>
+        <v>126.9129784461634</v>
       </c>
       <c r="C337" t="n">
-        <v>32.30181818181818</v>
+        <v>32.74355635180835</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4146,10 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>126</v>
+        <v>126.3740097462056</v>
       </c>
       <c r="C338" t="n">
-        <v>32.30181818181818</v>
+        <v>32.48021136362518</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4157,10 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>126</v>
+        <v>125.8320604269889</v>
       </c>
       <c r="C339" t="n">
-        <v>32.30181818181818</v>
+        <v>32.21650166694926</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4168,10 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>125</v>
+        <v>125.2875369423297</v>
       </c>
       <c r="C340" t="n">
-        <v>31.81818181818182</v>
+        <v>31.95264099233399</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4179,10 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>124</v>
+        <v>124.7408536970617</v>
       </c>
       <c r="C341" t="n">
-        <v>31.33818181818182</v>
+        <v>31.6888435602587</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4190,10 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>124</v>
+        <v>124.1924318109124</v>
       </c>
       <c r="C342" t="n">
-        <v>31.33818181818182</v>
+        <v>31.42532338592843</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4201,10 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>123</v>
+        <v>123.6426978382919</v>
       </c>
       <c r="C343" t="n">
-        <v>30.86181818181818</v>
+        <v>31.16229358548844</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4212,10 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>122</v>
+        <v>123.0920824521386</v>
       </c>
       <c r="C344" t="n">
-        <v>30.38909090909091</v>
+        <v>30.89996568842571</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4223,10 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>121</v>
+        <v>122.5410191003703</v>
       </c>
       <c r="C345" t="n">
-        <v>29.92</v>
+        <v>30.63854896085742</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4234,10 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>121</v>
+        <v>121.9899426438042</v>
       </c>
       <c r="C346" t="n">
-        <v>29.92</v>
+        <v>30.37824974427812</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4245,10 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>120</v>
+        <v>121.439287984616</v>
       </c>
       <c r="C347" t="n">
-        <v>29.45454545454545</v>
+        <v>30.11927081415682</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4256,10 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>120</v>
+        <v>120.8894886945233</v>
       </c>
       <c r="C348" t="n">
-        <v>29.45454545454545</v>
+        <v>29.86181076254529</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4267,10 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>119</v>
+        <v>120.3409756518766</v>
       </c>
       <c r="C349" t="n">
-        <v>28.99272727272728</v>
+        <v>29.60606340858358</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4278,10 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>119</v>
+        <v>119.794175696741</v>
       </c>
       <c r="C350" t="n">
-        <v>28.99272727272728</v>
+        <v>29.35221724047246</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4289,10 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>118</v>
+        <v>119.2495103128457</v>
       </c>
       <c r="C351" t="n">
-        <v>28.53454545454546</v>
+        <v>29.10045489213167</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4300,10 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>118</v>
+        <v>118.7073943449734</v>
       </c>
       <c r="C352" t="n">
-        <v>28.53454545454546</v>
+        <v>28.85095265738215</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4311,10 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>117</v>
+        <v>118.1682347599587</v>
       </c>
       <c r="C353" t="n">
-        <v>28.08</v>
+        <v>28.60388004408704</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4322,10 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>117</v>
+        <v>117.632429458979</v>
       </c>
       <c r="C354" t="n">
-        <v>28.08</v>
+        <v>28.35939937026595</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4333,10 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>117</v>
+        <v>117.1003661482517</v>
       </c>
       <c r="C355" t="n">
-        <v>28.08</v>
+        <v>28.11766540376715</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4344,10 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>116</v>
+        <v>116.5724212746139</v>
       </c>
       <c r="C356" t="n">
-        <v>27.62909090909091</v>
+        <v>27.87882504664826</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4355,10 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>116</v>
+        <v>116.0489590317638</v>
       </c>
       <c r="C357" t="n">
-        <v>27.62909090909091</v>
+        <v>27.64301706498527</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4366,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>115</v>
+        <v>115.5303304421966</v>
       </c>
       <c r="C358" t="n">
-        <v>27.18181818181818</v>
+        <v>27.41037186440714</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4377,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>115</v>
+        <v>115.0168725190863</v>
       </c>
       <c r="C359" t="n">
-        <v>27.18181818181818</v>
+        <v>27.18101131124489</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4388,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>115</v>
+        <v>114.5089075115567</v>
       </c>
       <c r="C360" t="n">
-        <v>27.18181818181818</v>
+        <v>26.95504859879511</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4399,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>114</v>
+        <v>114.0067422359673</v>
       </c>
       <c r="C361" t="n">
-        <v>26.73818181818182</v>
+        <v>26.73258815783198</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4410,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>113</v>
+        <v>113.510667495019</v>
       </c>
       <c r="C362" t="n">
-        <v>26.29818181818182</v>
+        <v>26.51372561016374</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4421,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>113</v>
+        <v>113.0209575856747</v>
       </c>
       <c r="C363" t="n">
-        <v>26.29818181818182</v>
+        <v>26.29854776372157</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4432,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>112</v>
+        <v>112.5378698961014</v>
       </c>
       <c r="C364" t="n">
-        <v>25.86181818181818</v>
+        <v>26.08713264739363</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4443,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>112</v>
+        <v>112.0616445910849</v>
       </c>
       <c r="C365" t="n">
-        <v>25.86181818181818</v>
+        <v>25.87954958357665</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4454,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>111</v>
+        <v>111.5925043846458</v>
       </c>
       <c r="C366" t="n">
-        <v>25.42909090909091</v>
+        <v>25.67585929621195</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4465,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>111</v>
+        <v>111.1306543979193</v>
       </c>
       <c r="C367" t="n">
-        <v>25.42909090909091</v>
+        <v>25.47611405190397</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4476,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>110</v>
+        <v>110.6762820997397</v>
       </c>
       <c r="C368" t="n">
-        <v>25</v>
+        <v>25.28035783158581</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4487,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>110</v>
+        <v>110.2295573268154</v>
       </c>
       <c r="C369" t="n">
-        <v>25</v>
+        <v>25.08862653009743</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4498,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>109</v>
+        <v>109.7906323798804</v>
       </c>
       <c r="C370" t="n">
-        <v>24.57454545454545</v>
+        <v>24.90094818097773</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4509,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>109</v>
+        <v>109.3596421917808</v>
       </c>
       <c r="C371" t="n">
-        <v>24.57454545454545</v>
+        <v>24.71734320373846</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4520,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>109</v>
+        <v>108.9367045630881</v>
       </c>
       <c r="C372" t="n">
-        <v>24.57454545454545</v>
+        <v>24.53782467088492</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4531,10 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>108</v>
+        <v>108.521920460535</v>
       </c>
       <c r="C373" t="n">
-        <v>24.15272727272727</v>
+        <v>24.36239859197353</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4542,10 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>108</v>
+        <v>108.1153743733392</v>
       </c>
       <c r="C374" t="n">
-        <v>24.15272727272727</v>
+        <v>24.19106421204534</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4553,10 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>108</v>
+        <v>107.7171347223127</v>
       </c>
       <c r="C375" t="n">
-        <v>24.15272727272727</v>
+        <v>24.02381432184751</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4564,10 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>107</v>
+        <v>107.3272543165505</v>
       </c>
       <c r="C376" t="n">
-        <v>23.73454545454545</v>
+        <v>23.86063557734582</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4575,10 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>107</v>
+        <v>106.9457708524479</v>
       </c>
       <c r="C377" t="n">
-        <v>23.73454545454545</v>
+        <v>23.70150882614039</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4586,10 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>106</v>
+        <v>106.5727074498022</v>
       </c>
       <c r="C378" t="n">
-        <v>23.32</v>
+        <v>23.54640943851922</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4597,10 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>106</v>
+        <v>106.2080732198168</v>
       </c>
       <c r="C379" t="n">
-        <v>23.32</v>
+        <v>23.39530764101798</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4608,10 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>106</v>
+        <v>105.8518638599273</v>
       </c>
       <c r="C380" t="n">
-        <v>23.32</v>
+        <v>23.24816885049737</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4619,10 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>105</v>
+        <v>105.5040622705188</v>
       </c>
       <c r="C381" t="n">
-        <v>22.90909090909091</v>
+        <v>23.10495400689831</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4630,10 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>105</v>
+        <v>105.1646391887803</v>
       </c>
       <c r="C382" t="n">
-        <v>22.90909090909091</v>
+        <v>22.9656199029878</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4641,10 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>105</v>
+        <v>104.8335538351575</v>
       </c>
       <c r="C383" t="n">
-        <v>22.90909090909091</v>
+        <v>22.83011950956351</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4652,10 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>104</v>
+        <v>104.5107545680973</v>
       </c>
       <c r="C384" t="n">
-        <v>22.50181818181818</v>
+        <v>22.69840229473936</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4663,10 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>104</v>
+        <v>104.1961795430399</v>
       </c>
       <c r="C385" t="n">
-        <v>22.50181818181818</v>
+        <v>22.57041453608768</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4674,10 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>104</v>
+        <v>103.8897573718804</v>
       </c>
       <c r="C386" t="n">
-        <v>22.50181818181818</v>
+        <v>22.44609962456278</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4685,10 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>103</v>
+        <v>103.5914077794094</v>
       </c>
       <c r="C387" t="n">
-        <v>22.09818181818182</v>
+        <v>22.32539835927619</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4696,10 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>103</v>
+        <v>103.3010422535314</v>
       </c>
       <c r="C388" t="n">
-        <v>22.09818181818182</v>
+        <v>22.208249232333</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4707,10 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>103</v>
+        <v>103.018564686351</v>
       </c>
       <c r="C389" t="n">
-        <v>22.09818181818182</v>
+        <v>22.09458870307178</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4718,10 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>102</v>
+        <v>102.7438720035119</v>
       </c>
       <c r="C390" t="n">
-        <v>21.69818181818182</v>
+        <v>21.98435146117626</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4729,10 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>102</v>
+        <v>102.4768547794612</v>
       </c>
       <c r="C391" t="n">
-        <v>21.69818181818182</v>
+        <v>21.87747067824467</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4740,10 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>102</v>
+        <v>102.217397836595</v>
       </c>
       <c r="C392" t="n">
-        <v>21.69818181818182</v>
+        <v>21.77387824751275</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4751,10 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>102</v>
+        <v>101.9653808265144</v>
       </c>
       <c r="C393" t="n">
-        <v>21.69818181818182</v>
+        <v>21.67350501152752</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4762,10 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>102</v>
+        <v>101.7206787918853</v>
       </c>
       <c r="C394" t="n">
-        <v>21.69818181818182</v>
+        <v>21.5762809776621</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4773,10 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>102</v>
+        <v>101.4831627076463</v>
       </c>
       <c r="C395" t="n">
-        <v>21.69818181818182</v>
+        <v>21.48213552144629</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4784,10 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>101</v>
+        <v>101.2527000005467</v>
       </c>
       <c r="C396" t="n">
-        <v>21.30181818181818</v>
+        <v>21.39099757776385</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4795,10 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>101</v>
+        <v>101.0291550462186</v>
       </c>
       <c r="C397" t="n">
-        <v>21.30181818181818</v>
+        <v>21.30279582003547</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4806,10 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>101</v>
+        <v>100.8123896431975</v>
       </c>
       <c r="C398" t="n">
-        <v>21.30181818181818</v>
+        <v>21.2174588275666</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4817,10 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>101</v>
+        <v>100.6022634634952</v>
       </c>
       <c r="C399" t="n">
-        <v>21.30181818181818</v>
+        <v>21.13491524129192</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4828,10 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>100</v>
+        <v>100.3986344795079</v>
       </c>
       <c r="C400" t="n">
-        <v>20.90909090909091</v>
+        <v>21.055093908194</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4839,10 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>100</v>
+        <v>100.2013593672017</v>
       </c>
       <c r="C401" t="n">
-        <v>20.90909090909091</v>
+        <v>20.97792401471197</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4850,10 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>100</v>
+        <v>100.0102938856629</v>
       </c>
       <c r="C402" t="n">
-        <v>20.90909090909091</v>
+        <v>20.90333520948876</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4861,10 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>100</v>
+        <v>99.82529323323209</v>
       </c>
       <c r="C403" t="n">
-        <v>20.90909090909091</v>
+        <v>20.83125771583199</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4872,10 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>99</v>
+        <v>99.64621238055392</v>
       </c>
       <c r="C404" t="n">
-        <v>20.52</v>
+        <v>20.76162243428431</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4883,10 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>99</v>
+        <v>99.47290638097776</v>
       </c>
       <c r="C405" t="n">
-        <v>20.52</v>
+        <v>20.69436103571552</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4894,10 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>99</v>
+        <v>99.30523065883088</v>
       </c>
       <c r="C406" t="n">
-        <v>20.52</v>
+        <v>20.62940604535989</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4905,10 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>99</v>
+        <v>99.14304127616138</v>
       </c>
       <c r="C407" t="n">
-        <v>20.52</v>
+        <v>20.56669091822998</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4916,10 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>99</v>
+        <v>98.98619517861064</v>
       </c>
       <c r="C408" t="n">
-        <v>20.52</v>
+        <v>20.50615010634143</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4927,10 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>99</v>
+        <v>98.83455042112769</v>
       </c>
       <c r="C409" t="n">
-        <v>20.52</v>
+        <v>20.44771911818424</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4938,10 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>98</v>
+        <v>98.68796637427863</v>
       </c>
       <c r="C410" t="n">
-        <v>20.13454545454546</v>
+        <v>20.39133457087321</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4949,10 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>98</v>
+        <v>98.54630391193726</v>
       </c>
       <c r="C411" t="n">
-        <v>20.13454545454546</v>
+        <v>20.33693423540535</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4960,10 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>98</v>
+        <v>98.40942558116578</v>
       </c>
       <c r="C412" t="n">
-        <v>20.13454545454546</v>
+        <v>20.28445707544493</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4971,10 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>98</v>
+        <v>98.2771957551109</v>
       </c>
       <c r="C413" t="n">
-        <v>20.13454545454546</v>
+        <v>20.23384328004784</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4982,10 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>98</v>
+        <v>98.14948076974852</v>
       </c>
       <c r="C414" t="n">
-        <v>20.13454545454546</v>
+        <v>20.18503429072625</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4993,10 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>98</v>
+        <v>98.0261490453131</v>
       </c>
       <c r="C415" t="n">
-        <v>20.13454545454546</v>
+        <v>20.13797282324249</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5004,10 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>98</v>
+        <v>97.90707119324428</v>
       </c>
       <c r="C416" t="n">
-        <v>20.13454545454546</v>
+        <v>20.09260288450855</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5015,10 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>97</v>
+        <v>97.79212010947489</v>
       </c>
       <c r="C417" t="n">
-        <v>19.75272727272727</v>
+        <v>20.04886978495312</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5026,10 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>97</v>
+        <v>97.68117105487285</v>
       </c>
       <c r="C418" t="n">
-        <v>19.75272727272727</v>
+        <v>20.00672014670421</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5037,10 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>97</v>
+        <v>97.57410172363234</v>
       </c>
       <c r="C419" t="n">
-        <v>19.75272727272727</v>
+        <v>19.96610190792013</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5048,10 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>97</v>
+        <v>97.4707923003913</v>
       </c>
       <c r="C420" t="n">
-        <v>19.75272727272727</v>
+        <v>19.92696432358659</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5059,10 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>97</v>
+        <v>97.37112550682977</v>
       </c>
       <c r="C421" t="n">
-        <v>19.75272727272727</v>
+        <v>19.88925796308211</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5070,10 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>97</v>
+        <v>97.27498663848046</v>
       </c>
       <c r="C422" t="n">
-        <v>19.75272727272727</v>
+        <v>19.85293470479889</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5081,10 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>97</v>
+        <v>97.18226359245617</v>
       </c>
       <c r="C423" t="n">
-        <v>19.75272727272727</v>
+        <v>19.81794772809062</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5092,10 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>97</v>
+        <v>97.09284688677309</v>
       </c>
       <c r="C424" t="n">
-        <v>19.75272727272727</v>
+        <v>19.78425150280392</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5103,10 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>97</v>
+        <v>97.00662967191975</v>
       </c>
       <c r="C425" t="n">
-        <v>19.75272727272727</v>
+        <v>19.75180177663506</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5114,10 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>97</v>
+        <v>96.92350773529377</v>
       </c>
       <c r="C426" t="n">
-        <v>19.75272727272727</v>
+        <v>19.72055556053906</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5125,10 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>97</v>
+        <v>96.84337949909889</v>
       </c>
       <c r="C427" t="n">
-        <v>19.75272727272727</v>
+        <v>19.69047111240445</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5136,10 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>96</v>
+        <v>96.76614601226628</v>
       </c>
       <c r="C428" t="n">
-        <v>19.37454545454545</v>
+        <v>19.66150791919271</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5147,10 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>96</v>
+        <v>96.6917109369346</v>
       </c>
       <c r="C429" t="n">
-        <v>19.37454545454545</v>
+        <v>19.63362667772876</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5158,10 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>96</v>
+        <v>96.61998052999459</v>
       </c>
       <c r="C430" t="n">
-        <v>19.37454545454545</v>
+        <v>19.60678927431572</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5169,10 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>96</v>
+        <v>96.55086362017587</v>
       </c>
       <c r="C431" t="n">
-        <v>19.37454545454545</v>
+        <v>19.58095876333504</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5180,10 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>96</v>
+        <v>96.48427158112561</v>
       </c>
       <c r="C432" t="n">
-        <v>19.37454545454545</v>
+        <v>19.55609934498144</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5191,10 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>96</v>
+        <v>96.42011830090151</v>
       </c>
       <c r="C433" t="n">
-        <v>19.37454545454545</v>
+        <v>19.53217634227093</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5202,10 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>96</v>
+        <v>96.35832014827547</v>
       </c>
       <c r="C434" t="n">
-        <v>19.37454545454545</v>
+        <v>19.50915617744943</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5213,10 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>96</v>
+        <v>96.29879593621848</v>
       </c>
       <c r="C435" t="n">
-        <v>19.37454545454545</v>
+        <v>19.48700634791963</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5224,10 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>96</v>
+        <v>96.24146688291283</v>
       </c>
       <c r="C436" t="n">
-        <v>19.37454545454545</v>
+        <v>19.46569540179395</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5235,10 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>96</v>
+        <v>96.18625657061382</v>
       </c>
       <c r="C437" t="n">
-        <v>19.37454545454545</v>
+        <v>19.44519291317251</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5246,10 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>96</v>
+        <v>96.13309090266081</v>
       </c>
       <c r="C438" t="n">
-        <v>19.37454545454545</v>
+        <v>19.42546945723672</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5257,10 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>96</v>
+        <v>96.08189805891513</v>
       </c>
       <c r="C439" t="n">
-        <v>19.37454545454545</v>
+        <v>19.4064965852406</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5268,10 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>96</v>
+        <v>96.0326084498824</v>
       </c>
       <c r="C440" t="n">
-        <v>19.37454545454545</v>
+        <v>19.38824679947495</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5279,10 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>96</v>
+        <v>95.98515466975621</v>
       </c>
       <c r="C441" t="n">
-        <v>19.37454545454545</v>
+        <v>19.37069352827209</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5290,10 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>96</v>
+        <v>95.93947144860226</v>
       </c>
       <c r="C442" t="n">
-        <v>19.37454545454545</v>
+        <v>19.35381110111237</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5301,10 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>96</v>
+        <v>95.89549560388357</v>
       </c>
       <c r="C443" t="n">
-        <v>19.37454545454545</v>
+        <v>19.33757472388751</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5312,10 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>96</v>
+        <v>95.85316599151139</v>
       </c>
       <c r="C444" t="n">
-        <v>19.37454545454545</v>
+        <v>19.32196045437022</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5323,10 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>96</v>
+        <v>95.81242345658971</v>
       </c>
       <c r="C445" t="n">
-        <v>19.37454545454545</v>
+        <v>19.30694517793383</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5334,10 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>96</v>
+        <v>95.77321078400746</v>
       </c>
       <c r="C446" t="n">
-        <v>19.37454545454545</v>
+        <v>19.29250658356116</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5345,10 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>96</v>
+        <v>95.73547264901748</v>
       </c>
       <c r="C447" t="n">
-        <v>19.37454545454545</v>
+        <v>19.27862314017684</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5356,10 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>96</v>
+        <v>95.6991555679292</v>
       </c>
       <c r="C448" t="n">
-        <v>19.37454545454545</v>
+        <v>19.26527407333348</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5367,10 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>96</v>
+        <v>95.66420784902877</v>
       </c>
       <c r="C449" t="n">
-        <v>19.37454545454545</v>
+        <v>19.25243934227752</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5378,10 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>96</v>
+        <v>95.63057954382995</v>
       </c>
       <c r="C450" t="n">
-        <v>19.37454545454545</v>
+        <v>19.24009961741778</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5389,10 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>96</v>
+        <v>95.59822239874731</v>
       </c>
       <c r="C451" t="n">
-        <v>19.37454545454545</v>
+        <v>19.22823625821561</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5400,10 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>96</v>
+        <v>95.56708980727436</v>
       </c>
       <c r="C452" t="n">
-        <v>19.37454545454545</v>
+        <v>19.21683129151293</v>
       </c>
     </row>
   </sheetData>

--- a/Data/regression_data/Dwelling_Lifetime/lifetime_regression.xlsx
+++ b/Data/regression_data/Dwelling_Lifetime/lifetime_regression.xlsx
@@ -450,10 +450,10 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>150.2609869198162</v>
+        <v>150.2609869156692</v>
       </c>
       <c r="C2" t="n">
-        <v>45.12462703419202</v>
+        <v>45.12462703604107</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>150.2609841094522</v>
+        <v>150.2609841053052</v>
       </c>
       <c r="C3" t="n">
-        <v>45.12462565826509</v>
+        <v>45.12462566011413</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>150.2609811851524</v>
+        <v>150.2609811810055</v>
       </c>
       <c r="C4" t="n">
-        <v>45.12462422574999</v>
+        <v>45.12462422759902</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>150.2609781422979</v>
+        <v>150.260978138151</v>
       </c>
       <c r="C5" t="n">
-        <v>45.12462273431942</v>
+        <v>45.12462273616844</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>150.2609749760822</v>
+        <v>150.2609749719354</v>
       </c>
       <c r="C6" t="n">
-        <v>45.12462118155035</v>
+        <v>45.12462118339936</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>150.2609716815042</v>
+        <v>150.2609716773574</v>
       </c>
       <c r="C7" t="n">
-        <v>45.12461956492009</v>
+        <v>45.12461956676909</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>150.2609682533598</v>
+        <v>150.2609682492131</v>
       </c>
       <c r="C8" t="n">
-        <v>45.12461788180222</v>
+        <v>45.12461788365121</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>150.2609646862343</v>
+        <v>150.2609646820875</v>
       </c>
       <c r="C9" t="n">
-        <v>45.1246161294623</v>
+        <v>45.12461613131129</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>150.2609609744931</v>
+        <v>150.2609609703463</v>
       </c>
       <c r="C10" t="n">
-        <v>45.12461430505341</v>
+        <v>45.12461430690239</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>150.2609571122732</v>
+        <v>150.2609571081265</v>
       </c>
       <c r="C11" t="n">
-        <v>45.12461240561158</v>
+        <v>45.12461240746055</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>150.2609530934743</v>
+        <v>150.2609530893276</v>
       </c>
       <c r="C12" t="n">
-        <v>45.12461042805091</v>
+        <v>45.12461042989986</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>150.2609489117484</v>
+        <v>150.2609489076017</v>
       </c>
       <c r="C13" t="n">
-        <v>45.12460836915859</v>
+        <v>45.12460837100754</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>150.2609445604902</v>
+        <v>150.2609445563436</v>
       </c>
       <c r="C14" t="n">
-        <v>45.12460622558971</v>
+        <v>45.12460622743864</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>150.2609400328268</v>
+        <v>150.2609400286802</v>
       </c>
       <c r="C15" t="n">
-        <v>45.12460399386175</v>
+        <v>45.12460399571067</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>150.2609353216064</v>
+        <v>150.2609353174599</v>
       </c>
       <c r="C16" t="n">
-        <v>45.124601670349</v>
+        <v>45.1246016721979</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>150.2609304193876</v>
+        <v>150.2609304152411</v>
       </c>
       <c r="C17" t="n">
-        <v>45.12459925127661</v>
+        <v>45.1245992531255</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>150.260925318427</v>
+        <v>150.2609253142805</v>
       </c>
       <c r="C18" t="n">
-        <v>45.12459673271451</v>
+        <v>45.12459673456338</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>150.2609200106674</v>
+        <v>150.260920006521</v>
       </c>
       <c r="C19" t="n">
-        <v>45.12459411057097</v>
+        <v>45.12459411241983</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>150.2609144877251</v>
+        <v>150.2609144835787</v>
       </c>
       <c r="C20" t="n">
-        <v>45.124591380586</v>
+        <v>45.12459138243485</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>150.2609087408763</v>
+        <v>150.2609087367299</v>
       </c>
       <c r="C21" t="n">
-        <v>45.12458853832442</v>
+        <v>45.12458854017326</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>150.2609027610436</v>
+        <v>150.2609027568972</v>
       </c>
       <c r="C22" t="n">
-        <v>45.12458557916862</v>
+        <v>45.12458558101744</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>150.2608965387816</v>
+        <v>150.2608965346353</v>
       </c>
       <c r="C23" t="n">
-        <v>45.12458249831111</v>
+        <v>45.12458250015992</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>150.260890064262</v>
+        <v>150.2608900601158</v>
       </c>
       <c r="C24" t="n">
-        <v>45.12457929074667</v>
+        <v>45.12457929259546</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>150.2608833272582</v>
+        <v>150.260883323112</v>
       </c>
       <c r="C25" t="n">
-        <v>45.12457595126423</v>
+        <v>45.12457595311299</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>150.2608763171287</v>
+        <v>150.2608763129825</v>
       </c>
       <c r="C26" t="n">
-        <v>45.12457247443841</v>
+        <v>45.12457247628716</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>150.2608690228008</v>
+        <v>150.2608690186546</v>
       </c>
       <c r="C27" t="n">
-        <v>45.12456885462072</v>
+        <v>45.12456885646945</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>150.2608614327528</v>
+        <v>150.2608614286067</v>
       </c>
       <c r="C28" t="n">
-        <v>45.12456508593035</v>
+        <v>45.12456508777906</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>150.2608535349961</v>
+        <v>150.2608535308501</v>
       </c>
       <c r="C29" t="n">
-        <v>45.12456116224465</v>
+        <v>45.12456116409333</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>150.2608453170559</v>
+        <v>150.2608453129099</v>
       </c>
       <c r="C30" t="n">
-        <v>45.12455707718914</v>
+        <v>45.12455707903781</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>150.2608367659517</v>
+        <v>150.2608367618058</v>
       </c>
       <c r="C31" t="n">
-        <v>45.12455282412721</v>
+        <v>45.12455282597586</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>150.2608278681768</v>
+        <v>150.2608278640309</v>
       </c>
       <c r="C32" t="n">
-        <v>45.12454839614932</v>
+        <v>45.12454839799794</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>150.2608186096768</v>
+        <v>150.2608186055311</v>
       </c>
       <c r="C33" t="n">
-        <v>45.12454378606174</v>
+        <v>45.12454378791033</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>150.2608089758279</v>
+        <v>150.2608089716822</v>
       </c>
       <c r="C34" t="n">
-        <v>45.12453898637489</v>
+        <v>45.12453898822346</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>150.2607989514131</v>
+        <v>150.2607989472674</v>
       </c>
       <c r="C35" t="n">
-        <v>45.12453398929121</v>
+        <v>45.12453399113976</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>150.2607885205985</v>
+        <v>150.2607885164529</v>
       </c>
       <c r="C36" t="n">
-        <v>45.12452878669242</v>
+        <v>45.12452878854094</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>150.2607776669086</v>
+        <v>150.2607776627631</v>
       </c>
       <c r="C37" t="n">
-        <v>45.1245233701264</v>
+        <v>45.12452337197489</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>150.2607663731997</v>
+        <v>150.2607663690542</v>
       </c>
       <c r="C38" t="n">
-        <v>45.12451773079339</v>
+        <v>45.12451773264186</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>150.2607546216332</v>
+        <v>150.2607546174878</v>
       </c>
       <c r="C39" t="n">
-        <v>45.12451185953179</v>
+        <v>45.12451186138022</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>150.2607423936473</v>
+        <v>150.260742389502</v>
       </c>
       <c r="C40" t="n">
-        <v>45.12450574680317</v>
+        <v>45.12450574865157</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>150.2607296699279</v>
+        <v>150.2607296657826</v>
       </c>
       <c r="C41" t="n">
-        <v>45.12449938267686</v>
+        <v>45.12449938452524</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>150.2607164303775</v>
+        <v>150.2607164262324</v>
       </c>
       <c r="C42" t="n">
-        <v>45.12449275681378</v>
+        <v>45.12449275866212</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>150.2607026540843</v>
+        <v>150.2607026499393</v>
       </c>
       <c r="C43" t="n">
-        <v>45.12448585844965</v>
+        <v>45.12448586029795</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>150.2606883192885</v>
+        <v>150.2606883151436</v>
       </c>
       <c r="C44" t="n">
-        <v>45.12447867637749</v>
+        <v>45.12447867822576</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>150.2606734033483</v>
+        <v>150.2606733992035</v>
       </c>
       <c r="C45" t="n">
-        <v>45.12447119892946</v>
+        <v>45.1244712007777</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>150.2606578827039</v>
+        <v>150.2606578785592</v>
       </c>
       <c r="C46" t="n">
-        <v>45.12446341395788</v>
+        <v>45.12446341580607</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>150.2606417328405</v>
+        <v>150.2606417286958</v>
       </c>
       <c r="C47" t="n">
-        <v>45.12445530881545</v>
+        <v>45.1244553106636</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>150.2606249282494</v>
+        <v>150.2606249241049</v>
       </c>
       <c r="C48" t="n">
-        <v>45.1244468703348</v>
+        <v>45.12444687218292</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>150.260607442388</v>
+        <v>150.2606074382435</v>
       </c>
       <c r="C49" t="n">
-        <v>45.12443808480704</v>
+        <v>45.12443808665511</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>150.2605892476373</v>
+        <v>150.260589243493</v>
       </c>
       <c r="C50" t="n">
-        <v>45.12442893795951</v>
+        <v>45.12442893980754</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>150.2605703152592</v>
+        <v>150.260570311115</v>
       </c>
       <c r="C51" t="n">
-        <v>45.12441941493258</v>
+        <v>45.12441941678055</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>150.2605506153502</v>
+        <v>150.2605506112061</v>
       </c>
       <c r="C52" t="n">
-        <v>45.12440950025552</v>
+        <v>45.12440950210345</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>150.2605301167947</v>
+        <v>150.2605301126507</v>
       </c>
       <c r="C53" t="n">
-        <v>45.12439917782142</v>
+        <v>45.1243991796693</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>150.2605087872157</v>
+        <v>150.2605087830718</v>
       </c>
       <c r="C54" t="n">
-        <v>45.12438843086094</v>
+        <v>45.12438843270877</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>150.2604865929236</v>
+        <v>150.2604865887799</v>
       </c>
       <c r="C55" t="n">
-        <v>45.12437724191513</v>
+        <v>45.12437724376291</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>150.2604634988633</v>
+        <v>150.2604634947198</v>
       </c>
       <c r="C56" t="n">
-        <v>45.12436559280707</v>
+        <v>45.12436559465479</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>150.2604394685586</v>
+        <v>150.2604394644152</v>
       </c>
       <c r="C57" t="n">
-        <v>45.12435346461233</v>
+        <v>45.12435346645999</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>150.2604144640543</v>
+        <v>150.2604144599111</v>
       </c>
       <c r="C58" t="n">
-        <v>45.12434083762824</v>
+        <v>45.12434083947584</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>150.2603884458571</v>
+        <v>150.260388441714</v>
       </c>
       <c r="C59" t="n">
-        <v>45.12432769134188</v>
+        <v>45.12432769318941</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>150.2603613728723</v>
+        <v>150.2603613687293</v>
       </c>
       <c r="C60" t="n">
-        <v>45.12431400439677</v>
+        <v>45.12431400624425</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>150.2603332023396</v>
+        <v>150.2603331981968</v>
       </c>
       <c r="C61" t="n">
-        <v>45.1242997545582</v>
+        <v>45.12429975640561</v>
       </c>
     </row>
     <row r="62">
@@ -1110,10 +1110,10 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>150.2603038897652</v>
+        <v>150.2603038856226</v>
       </c>
       <c r="C62" t="n">
-        <v>45.1242849186771</v>
+        <v>45.12428492052444</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>150.2602733888516</v>
+        <v>150.2602733847092</v>
       </c>
       <c r="C63" t="n">
-        <v>45.12426947265242</v>
+        <v>45.1242694744997</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>150.2602416514247</v>
+        <v>150.2602416472825</v>
       </c>
       <c r="C64" t="n">
-        <v>45.12425339139205</v>
+        <v>45.12425339323925</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>150.2602086273575</v>
+        <v>150.2602086232155</v>
       </c>
       <c r="C65" t="n">
-        <v>45.12423664877201</v>
+        <v>45.12423665061913</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>150.260174264491</v>
+        <v>150.2601742603492</v>
       </c>
       <c r="C66" t="n">
-        <v>45.12421921759404</v>
+        <v>45.12421921944108</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>150.260138508552</v>
+        <v>150.2601385044103</v>
       </c>
       <c r="C67" t="n">
-        <v>45.12420106954145</v>
+        <v>45.12420107138841</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>150.2601013030669</v>
+        <v>150.2601012989255</v>
       </c>
       <c r="C68" t="n">
-        <v>45.12418217513311</v>
+        <v>45.12418217697998</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>150.2600625892734</v>
+        <v>150.2600625851321</v>
       </c>
       <c r="C69" t="n">
-        <v>45.12416250367557</v>
+        <v>45.12416250552236</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>150.2600223060269</v>
+        <v>150.2600223018859</v>
       </c>
       <c r="C70" t="n">
-        <v>45.12414202321326</v>
+        <v>45.12414202505995</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>150.2599803897043</v>
+        <v>150.2599803855636</v>
       </c>
       <c r="C71" t="n">
-        <v>45.12412070047652</v>
+        <v>45.12412070232311</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>150.2599367741038</v>
+        <v>150.2599367699633</v>
       </c>
       <c r="C72" t="n">
-        <v>45.12409850082764</v>
+        <v>45.12409850267414</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>150.2598913903397</v>
+        <v>150.2598913861994</v>
       </c>
       <c r="C73" t="n">
-        <v>45.1240753882046</v>
+        <v>45.12407539005099</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>150.2598441667343</v>
+        <v>150.2598441625943</v>
       </c>
       <c r="C74" t="n">
-        <v>45.12405132506248</v>
+        <v>45.12405132690877</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>150.2597950287044</v>
+        <v>150.2597950245647</v>
       </c>
       <c r="C75" t="n">
-        <v>45.12402627231253</v>
+        <v>45.12402627415871</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>150.2597438986438</v>
+        <v>150.2597438945043</v>
       </c>
       <c r="C76" t="n">
-        <v>45.12400018925869</v>
+        <v>45.12400019110476</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>150.2596906958003</v>
+        <v>150.2596906916612</v>
       </c>
       <c r="C77" t="n">
-        <v>45.1239730335315</v>
+        <v>45.12397303537744</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>150.2596353361489</v>
+        <v>150.25963533201</v>
       </c>
       <c r="C78" t="n">
-        <v>45.1239447610193</v>
+        <v>45.12394476286511</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>150.2595777322584</v>
+        <v>150.2595777281199</v>
       </c>
       <c r="C79" t="n">
-        <v>45.12391532579664</v>
+        <v>45.12391532764232</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>150.2595177931541</v>
+        <v>150.2595177890159</v>
       </c>
       <c r="C80" t="n">
-        <v>45.12388468004968</v>
+        <v>45.12388468189524</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>150.2594554241738</v>
+        <v>150.2594554200359</v>
       </c>
       <c r="C81" t="n">
-        <v>45.12385277399861</v>
+        <v>45.12385277584404</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>150.2593905268182</v>
+        <v>150.2593905226806</v>
       </c>
       <c r="C82" t="n">
-        <v>45.12381955581677</v>
+        <v>45.12381955766205</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>150.2593229985958</v>
+        <v>150.2593229944587</v>
       </c>
       <c r="C83" t="n">
-        <v>45.12378497154653</v>
+        <v>45.12378497339166</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>150.2592527328612</v>
+        <v>150.2592527287244</v>
       </c>
       <c r="C84" t="n">
-        <v>45.12374896501176</v>
+        <v>45.12374896685673</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>150.2591796186461</v>
+        <v>150.2591796145097</v>
       </c>
       <c r="C85" t="n">
-        <v>45.1237114777265</v>
+        <v>45.12371147957132</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>150.259103540485</v>
+        <v>150.259103536349</v>
       </c>
       <c r="C86" t="n">
-        <v>45.12367244880017</v>
+        <v>45.12367245064483</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>150.2590243782323</v>
+        <v>150.2590243740967</v>
       </c>
       <c r="C87" t="n">
-        <v>45.12363181483863</v>
+        <v>45.12363181668312</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>150.258942006873</v>
+        <v>150.2589420027379</v>
       </c>
       <c r="C88" t="n">
-        <v>45.1235895098413</v>
+        <v>45.12358951168561</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>150.2588562963253</v>
+        <v>150.2588562921907</v>
       </c>
       <c r="C89" t="n">
-        <v>45.12354546509405</v>
+        <v>45.12354546693818</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>150.2587671112356</v>
+        <v>150.2587671071014</v>
       </c>
       <c r="C90" t="n">
-        <v>45.12349960905766</v>
+        <v>45.12349961090159</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>150.2586743107643</v>
+        <v>150.2586743066306</v>
       </c>
       <c r="C91" t="n">
-        <v>45.1234518672517</v>
+        <v>45.12345186909543</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>150.258577748364</v>
+        <v>150.2585777442308</v>
       </c>
       <c r="C92" t="n">
-        <v>45.12340216213366</v>
+        <v>45.12340216397719</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>150.2584772715483</v>
+        <v>150.2584772674157</v>
       </c>
       <c r="C93" t="n">
-        <v>45.12335041297312</v>
+        <v>45.12335041481644</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>150.258372721651</v>
+        <v>150.2583727175189</v>
       </c>
       <c r="C94" t="n">
-        <v>45.12329653572074</v>
+        <v>45.12329653756384</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>150.2582639335757</v>
+        <v>150.2582639294441</v>
       </c>
       <c r="C95" t="n">
-        <v>45.12324044287183</v>
+        <v>45.1232404447147</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>150.2581507355353</v>
+        <v>150.2581507314044</v>
       </c>
       <c r="C96" t="n">
-        <v>45.12318204332442</v>
+        <v>45.12318204516705</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>150.2580329487814</v>
+        <v>150.2580329446511</v>
       </c>
       <c r="C97" t="n">
-        <v>45.12312124223138</v>
+        <v>45.12312124407377</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>150.2579103873219</v>
+        <v>150.2579103831921</v>
       </c>
       <c r="C98" t="n">
-        <v>45.12305794084659</v>
+        <v>45.12305794268872</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>150.2577828576273</v>
+        <v>150.2577828534982</v>
       </c>
       <c r="C99" t="n">
-        <v>45.12299203636469</v>
+        <v>45.12299203820656</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>150.2576501583264</v>
+        <v>150.257650154198</v>
       </c>
       <c r="C100" t="n">
-        <v>45.12292342175434</v>
+        <v>45.12292342359594</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>150.2575120798876</v>
+        <v>150.2575120757598</v>
       </c>
       <c r="C101" t="n">
-        <v>45.12285198558452</v>
+        <v>45.12285198742584</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>150.257368404289</v>
+        <v>150.257368400162</v>
       </c>
       <c r="C102" t="n">
-        <v>45.12277761184388</v>
+        <v>45.1227776136849</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>150.2572189046745</v>
+        <v>150.2572189005482</v>
       </c>
       <c r="C103" t="n">
-        <v>45.12270017975247</v>
+        <v>45.12270018159319</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>150.2570633449959</v>
+        <v>150.2570633408703</v>
       </c>
       <c r="C104" t="n">
-        <v>45.12261956356592</v>
+        <v>45.12261956540632</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>150.2569014796404</v>
+        <v>150.2569014755157</v>
       </c>
       <c r="C105" t="n">
-        <v>45.12253563237147</v>
+        <v>45.12253563421154</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>150.2567330530441</v>
+        <v>150.2567330489202</v>
       </c>
       <c r="C106" t="n">
-        <v>45.12244824987567</v>
+        <v>45.12244825171541</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>150.2565577992881</v>
+        <v>150.2565577951651</v>
       </c>
       <c r="C107" t="n">
-        <v>45.12235727418342</v>
+        <v>45.12235727602281</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>150.2563754416799</v>
+        <v>150.2563754375577</v>
       </c>
       <c r="C108" t="n">
-        <v>45.12226255756784</v>
+        <v>45.12226255940687</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>150.2561856923166</v>
+        <v>150.2561856881954</v>
       </c>
       <c r="C109" t="n">
-        <v>45.12216394623081</v>
+        <v>45.12216394806946</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>150.2559882516318</v>
+        <v>150.2559882475115</v>
       </c>
       <c r="C110" t="n">
-        <v>45.12206128005361</v>
+        <v>45.12206128189187</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>150.2557828079227</v>
+        <v>150.2557828038034</v>
       </c>
       <c r="C111" t="n">
-        <v>45.12195439233739</v>
+        <v>45.12195439417525</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>150.2555690368591</v>
+        <v>150.2555690327408</v>
       </c>
       <c r="C112" t="n">
-        <v>45.12184310953296</v>
+        <v>45.1218431113704</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>150.2553466009723</v>
+        <v>150.255346596855</v>
       </c>
       <c r="C113" t="n">
-        <v>45.12172725095952</v>
+        <v>45.12172725279652</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>150.2551151491231</v>
+        <v>150.2551151450069</v>
       </c>
       <c r="C114" t="n">
-        <v>45.12160662851187</v>
+        <v>45.12160663034842</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>150.2548743159486</v>
+        <v>150.2548743118336</v>
       </c>
       <c r="C115" t="n">
-        <v>45.12148104635563</v>
+        <v>45.12148104819171</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>150.2546237212868</v>
+        <v>150.2546237171729</v>
       </c>
       <c r="C116" t="n">
-        <v>45.12135030060989</v>
+        <v>45.12135030244549</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>150.254362969577</v>
+        <v>150.2543629654644</v>
       </c>
       <c r="C117" t="n">
-        <v>45.121214179017</v>
+        <v>45.12121418085211</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>150.2540916492376</v>
+        <v>150.2540916451262</v>
       </c>
       <c r="C118" t="n">
-        <v>45.1210724605987</v>
+        <v>45.12107246243329</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>150.2538093320169</v>
+        <v>150.2538093279068</v>
       </c>
       <c r="C119" t="n">
-        <v>45.12092491529825</v>
+        <v>45.1209249171323</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>150.2535155723193</v>
+        <v>150.2535155682106</v>
       </c>
       <c r="C120" t="n">
-        <v>45.12077130360784</v>
+        <v>45.12077130544133</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>150.2532099065037</v>
+        <v>150.2532099023963</v>
       </c>
       <c r="C121" t="n">
-        <v>45.12061137618082</v>
+        <v>45.12061137801373</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>150.2528918521526</v>
+        <v>150.2528918480467</v>
       </c>
       <c r="C122" t="n">
-        <v>45.12044487342799</v>
+        <v>45.1204448752603</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>150.2525609073137</v>
+        <v>150.2525609032093</v>
       </c>
       <c r="C123" t="n">
-        <v>45.12027152509741</v>
+        <v>45.12027152692911</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>150.2522165497093</v>
+        <v>150.2522165456064</v>
       </c>
       <c r="C124" t="n">
-        <v>45.12009104983699</v>
+        <v>45.12009105166806</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>150.2518582359141</v>
+        <v>150.2518582318129</v>
       </c>
       <c r="C125" t="n">
-        <v>45.11990315473923</v>
+        <v>45.11990315656962</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>150.2514854005004</v>
+        <v>150.2514853964009</v>
       </c>
       <c r="C126" t="n">
-        <v>45.11970753486722</v>
+        <v>45.11970753669693</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>150.2510974551484</v>
+        <v>150.2510974510506</v>
       </c>
       <c r="C127" t="n">
-        <v>45.11950387276145</v>
+        <v>45.11950387459044</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>150.2506937877205</v>
+        <v>150.2506937836244</v>
       </c>
       <c r="C128" t="n">
-        <v>45.11929183792628</v>
+        <v>45.11929183975453</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>150.2502737612986</v>
+        <v>150.2502737572044</v>
       </c>
       <c r="C129" t="n">
-        <v>45.11907108629549</v>
+        <v>45.11907108812299</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>150.2498367131826</v>
+        <v>150.2498367090903</v>
       </c>
       <c r="C130" t="n">
-        <v>45.11884125967605</v>
+        <v>45.11884126150274</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>150.2493819538482</v>
+        <v>150.2493819497579</v>
       </c>
       <c r="C131" t="n">
-        <v>45.11860198516902</v>
+        <v>45.1186019869949</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>150.2489087658629</v>
+        <v>150.2489087617746</v>
       </c>
       <c r="C132" t="n">
-        <v>45.11835287456699</v>
+        <v>45.11835287639202</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>150.2484164027587</v>
+        <v>150.2484163986725</v>
       </c>
       <c r="C133" t="n">
-        <v>45.11809352372673</v>
+        <v>45.11809352555089</v>
       </c>
     </row>
     <row r="134">
@@ -1902,10 +1902,10 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>150.2479040878588</v>
+        <v>150.2479040837748</v>
       </c>
       <c r="C134" t="n">
-        <v>45.11782351191638</v>
+        <v>45.11782351373963</v>
       </c>
     </row>
     <row r="135">
@@ -1913,10 +1913,10 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>150.2473710130575</v>
+        <v>150.2473710089757</v>
       </c>
       <c r="C135" t="n">
-        <v>45.11754240113591</v>
+        <v>45.11754240295821</v>
       </c>
     </row>
     <row r="136">
@@ -1924,10 +1924,10 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>150.2468163375507</v>
+        <v>150.2468163334713</v>
       </c>
       <c r="C136" t="n">
-        <v>45.11724973540992</v>
+        <v>45.11724973723124</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>150.246239186516</v>
+        <v>150.246239182439</v>
       </c>
       <c r="C137" t="n">
-        <v>45.11694504005158</v>
+        <v>45.11694504187189</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>150.2456386497385</v>
+        <v>150.2456386456641</v>
       </c>
       <c r="C138" t="n">
-        <v>45.11662782089657</v>
+        <v>45.11662782271583</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>150.2450137801826</v>
+        <v>150.2450137761108</v>
       </c>
       <c r="C139" t="n">
-        <v>45.11629756350579</v>
+        <v>45.11629756532397</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>150.2443635925059</v>
+        <v>150.2443635884368</v>
       </c>
       <c r="C140" t="n">
-        <v>45.11595373233565</v>
+        <v>45.11595373415271</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>150.243687061513</v>
+        <v>150.2436870574467</v>
       </c>
       <c r="C141" t="n">
-        <v>45.11559576987452</v>
+        <v>45.11559577169042</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>150.2429831205481</v>
+        <v>150.2429831164846</v>
       </c>
       <c r="C142" t="n">
-        <v>45.11522309574406</v>
+        <v>45.11522309755875</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>150.2422506598221</v>
+        <v>150.2422506557616</v>
       </c>
       <c r="C143" t="n">
-        <v>45.11483510576401</v>
+        <v>45.11483510757746</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>150.2414885246735</v>
+        <v>150.2414885206161</v>
       </c>
       <c r="C144" t="n">
-        <v>45.11443117097892</v>
+        <v>45.11443117279106</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>150.2406955137588</v>
+        <v>150.2406955097046</v>
       </c>
       <c r="C145" t="n">
-        <v>45.11401063664535</v>
+        <v>45.11401063845617</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>150.2398703771708</v>
+        <v>150.2398703731199</v>
       </c>
       <c r="C146" t="n">
-        <v>45.11357282117798</v>
+        <v>45.11357282298741</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>150.2390118144814</v>
+        <v>150.2390118104339</v>
       </c>
       <c r="C147" t="n">
-        <v>45.1131170150528</v>
+        <v>45.1131170168608</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>150.2381184727057</v>
+        <v>150.2381184686618</v>
       </c>
       <c r="C148" t="n">
-        <v>45.11264247966592</v>
+        <v>45.11264248147243</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>150.2371889441854</v>
+        <v>150.2371889401451</v>
       </c>
       <c r="C149" t="n">
-        <v>45.11214844614604</v>
+        <v>45.11214844795102</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>150.2362217643862</v>
+        <v>150.2362217603498</v>
       </c>
       <c r="C150" t="n">
-        <v>45.11163411411884</v>
+        <v>45.11163411592223</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>150.2352154096088</v>
+        <v>150.2352154055762</v>
       </c>
       <c r="C151" t="n">
-        <v>45.11109865042122</v>
+        <v>45.11109865222297</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>150.2341682946067</v>
+        <v>150.2341682905782</v>
       </c>
       <c r="C152" t="n">
-        <v>45.11054118776363</v>
+        <v>45.11054118956368</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>150.2330787701102</v>
+        <v>150.2330787660859</v>
       </c>
       <c r="C153" t="n">
-        <v>45.10996082333816</v>
+        <v>45.10996082513645</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>150.2319451202508</v>
+        <v>150.2319451162309</v>
       </c>
       <c r="C154" t="n">
-        <v>45.10935661737044</v>
+        <v>45.10935661916691</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>150.2307655598833</v>
+        <v>150.2307655558678</v>
       </c>
       <c r="C155" t="n">
-        <v>45.10872759161303</v>
+        <v>45.10872759340761</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>150.2295382318003</v>
+        <v>150.2295382277895</v>
       </c>
       <c r="C156" t="n">
-        <v>45.10807272777795</v>
+        <v>45.10807272957058</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>150.2282612038371</v>
+        <v>150.2282611998311</v>
       </c>
       <c r="C157" t="n">
-        <v>45.10739096590607</v>
+        <v>45.10739096769668</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>150.2269324658601</v>
+        <v>150.2269324618591</v>
       </c>
       <c r="C158" t="n">
-        <v>45.1066812026707</v>
+        <v>45.10668120445921</v>
       </c>
     </row>
     <row r="159">
@@ -2177,10 +2177,10 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>150.2255499266361</v>
+        <v>150.2255499226402</v>
       </c>
       <c r="C159" t="n">
-        <v>45.10594228961291</v>
+        <v>45.10594229139927</v>
       </c>
     </row>
     <row r="160">
@@ -2188,10 +2188,10 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>150.2241114105766</v>
+        <v>150.2241114065861</v>
       </c>
       <c r="C160" t="n">
-        <v>45.1051730313059</v>
+        <v>45.10517303309001</v>
       </c>
     </row>
     <row r="161">
@@ -2199,10 +2199,10 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>150.2226146543537</v>
+        <v>150.2226146503686</v>
       </c>
       <c r="C161" t="n">
-        <v>45.10437218344546</v>
+        <v>45.10437218522726</v>
       </c>
     </row>
     <row r="162">
@@ -2210,10 +2210,10 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>150.2210573033804</v>
+        <v>150.221057299401</v>
       </c>
       <c r="C162" t="n">
-        <v>45.10353845086394</v>
+        <v>45.10353845264334</v>
       </c>
     </row>
     <row r="163">
@@ -2221,10 +2221,10 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>150.2194369081526</v>
+        <v>150.2194369041792</v>
       </c>
       <c r="C163" t="n">
-        <v>45.10267048546437</v>
+        <v>45.10267048724129</v>
       </c>
     </row>
     <row r="164">
@@ -2232,10 +2232,10 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>150.2177509204456</v>
+        <v>150.2177509164783</v>
       </c>
       <c r="C164" t="n">
-        <v>45.10176688407189</v>
+        <v>45.10176688584625</v>
       </c>
     </row>
     <row r="165">
@@ -2243,10 +2243,10 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>150.2159966893599</v>
+        <v>150.2159966853989</v>
       </c>
       <c r="C165" t="n">
-        <v>45.10082618619921</v>
+        <v>45.10082618797092</v>
       </c>
     </row>
     <row r="166">
@@ -2254,10 +2254,10 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>150.2141714572112</v>
+        <v>150.2141714532566</v>
       </c>
       <c r="C166" t="n">
-        <v>45.09984687172262</v>
+        <v>45.09984687349159</v>
       </c>
     </row>
     <row r="167">
@@ -2265,10 +2265,10 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>150.2122723552574</v>
+        <v>150.2122723513096</v>
       </c>
       <c r="C167" t="n">
-        <v>45.09882735846529</v>
+        <v>45.09882736023142</v>
       </c>
     </row>
     <row r="168">
@@ -2276,10 +2276,10 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>150.2102963992581</v>
+        <v>150.2102963953172</v>
       </c>
       <c r="C168" t="n">
-        <v>45.09776599968415</v>
+        <v>45.09776600144734</v>
       </c>
     </row>
     <row r="169">
@@ -2287,10 +2287,10 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>150.2082404848578</v>
+        <v>150.208240480924</v>
       </c>
       <c r="C169" t="n">
-        <v>45.09666108145662</v>
+        <v>45.09666108321677</v>
       </c>
     </row>
     <row r="170">
@@ -2298,10 +2298,10 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>150.2061013827883</v>
+        <v>150.206101378862</v>
       </c>
       <c r="C170" t="n">
-        <v>45.09551081996348</v>
+        <v>45.0955108217205</v>
       </c>
     </row>
     <row r="171">
@@ -2309,10 +2309,10 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>150.2038757338825</v>
+        <v>150.2038757299638</v>
       </c>
       <c r="C171" t="n">
-        <v>45.09431335866374</v>
+        <v>45.09431336041751</v>
       </c>
     </row>
     <row r="172">
@@ -2320,10 +2320,10 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>150.2015600438916</v>
+        <v>150.2015600399809</v>
       </c>
       <c r="C172" t="n">
-        <v>45.09306676535746</v>
+        <v>45.09306676710788</v>
       </c>
     </row>
     <row r="173">
@@ -2331,10 +2331,10 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>150.1991506781003</v>
+        <v>150.1991506741979</v>
       </c>
       <c r="C173" t="n">
-        <v>45.09176902913232</v>
+        <v>45.09176903087926</v>
       </c>
     </row>
     <row r="174">
@@ -2342,10 +2342,10 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>150.1966438557304</v>
+        <v>150.1966438518364</v>
       </c>
       <c r="C174" t="n">
-        <v>45.09041805718933</v>
+        <v>45.09041805893268</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>150.1940356441254</v>
+        <v>150.1940356402403</v>
       </c>
       <c r="C175" t="n">
-        <v>45.08901167154341</v>
+        <v>45.08901167328305</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>150.1913219527093</v>
+        <v>150.1913219488331</v>
       </c>
       <c r="C176" t="n">
-        <v>45.08754760559385</v>
+        <v>45.08754760732965</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>150.1884985267082</v>
+        <v>150.1884985228414</v>
       </c>
       <c r="C177" t="n">
-        <v>45.08602350055995</v>
+        <v>45.08602350229177</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>150.1855609406294</v>
+        <v>150.1855609367723</v>
       </c>
       <c r="C178" t="n">
-        <v>45.08443690177666</v>
+        <v>45.08443690350438</v>
       </c>
     </row>
     <row r="179">
@@ -2397,10 +2397,10 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>150.182504591486</v>
+        <v>150.1825045876388</v>
       </c>
       <c r="C179" t="n">
-        <v>45.08278525484528</v>
+        <v>45.08278525656876</v>
       </c>
     </row>
     <row r="180">
@@ -2408,10 +2408,10 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>150.1793246917593</v>
+        <v>150.1793246879225</v>
       </c>
       <c r="C180" t="n">
-        <v>45.08106590163345</v>
+        <v>45.08106590335254</v>
       </c>
     </row>
     <row r="181">
@@ -2419,10 +2419,10 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>150.1760162620889</v>
+        <v>150.1760162582628</v>
       </c>
       <c r="C181" t="n">
-        <v>45.07927607611933</v>
+        <v>45.07927607783389</v>
       </c>
     </row>
     <row r="182">
@@ -2430,10 +2430,10 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>150.1725741236805</v>
+        <v>150.1725741198655</v>
       </c>
       <c r="C182" t="n">
-        <v>45.0774129000739</v>
+        <v>45.07741290178377</v>
       </c>
     </row>
     <row r="183">
@@ -2441,10 +2441,10 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>150.168992890421</v>
+        <v>150.1689928866173</v>
       </c>
       <c r="C183" t="n">
-        <v>45.0754733785757</v>
+        <v>45.07547338028073</v>
       </c>
     </row>
     <row r="184">
@@ -2452,10 +2452,10 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>150.16526696069</v>
+        <v>150.1652669568981</v>
       </c>
       <c r="C184" t="n">
-        <v>45.07345439535189</v>
+        <v>45.07345439705192</v>
       </c>
     </row>
     <row r="185">
@@ -2463,10 +2463,10 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>150.1613905088585</v>
+        <v>150.1613905050787</v>
       </c>
       <c r="C185" t="n">
-        <v>45.0713527079393</v>
+        <v>45.07135270963416</v>
       </c>
     </row>
     <row r="186">
@@ -2474,10 +2474,10 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>150.1573574764601</v>
+        <v>150.1573574726929</v>
       </c>
       <c r="C186" t="n">
-        <v>45.06916494265916</v>
+        <v>45.06916494434867</v>
       </c>
     </row>
     <row r="187">
@@ -2485,10 +2485,10 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>150.1531615630272</v>
+        <v>150.1531615592729</v>
       </c>
       <c r="C187" t="n">
-        <v>45.06688758939877</v>
+        <v>45.06688759108277</v>
       </c>
     </row>
     <row r="188">
@@ -2496,10 +2496,10 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>150.1487962165766</v>
+        <v>150.1487962128358</v>
       </c>
       <c r="C188" t="n">
-        <v>45.06451699619345</v>
+        <v>45.06451699787175</v>
       </c>
     </row>
     <row r="189">
@@ -2507,10 +2507,10 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>150.1442546237347</v>
+        <v>150.1442546200077</v>
       </c>
       <c r="C189" t="n">
-        <v>45.06204936360155</v>
+        <v>45.06204936527396</v>
       </c>
     </row>
     <row r="190">
@@ -2518,10 +2518,10 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>150.1395296994881</v>
+        <v>150.1395296957754</v>
       </c>
       <c r="C190" t="n">
-        <v>45.0594807388656</v>
+        <v>45.05948074053191</v>
       </c>
     </row>
     <row r="191">
@@ -2529,10 +2529,10 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>150.1346140765476</v>
+        <v>150.1346140728496</v>
       </c>
       <c r="C191" t="n">
-        <v>45.05680700985196</v>
+        <v>45.05680701151199</v>
       </c>
     </row>
     <row r="192">
@@ -2540,10 +2540,10 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>150.1295000943114</v>
+        <v>150.1295000906286</v>
       </c>
       <c r="C192" t="n">
-        <v>45.05402389876173</v>
+        <v>45.05402390041526</v>
       </c>
     </row>
     <row r="193">
@@ -2551,10 +2551,10 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>150.1241797874144</v>
+        <v>150.1241797837474</v>
       </c>
       <c r="C193" t="n">
-        <v>45.05112695560481</v>
+        <v>45.05112695725165</v>
       </c>
     </row>
     <row r="194">
@@ -2562,10 +2562,10 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>150.1186448738496</v>
+        <v>150.1186448701988</v>
       </c>
       <c r="C194" t="n">
-        <v>45.04811155142954</v>
+        <v>45.04811155306944</v>
       </c>
     </row>
     <row r="195">
@@ -2573,10 +2573,10 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>150.1128867426458</v>
+        <v>150.1128867390117</v>
       </c>
       <c r="C195" t="n">
-        <v>45.04497287129946</v>
+        <v>45.04497287293221</v>
       </c>
     </row>
     <row r="196">
@@ -2584,10 +2584,10 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>150.106896441089</v>
+        <v>150.1068964374722</v>
       </c>
       <c r="C196" t="n">
-        <v>45.04170590700935</v>
+        <v>45.04170590863472</v>
       </c>
     </row>
     <row r="197">
@@ -2595,10 +2595,10 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>150.1006646614707</v>
+        <v>150.1006646578717</v>
       </c>
       <c r="C197" t="n">
-        <v>45.03830544953163</v>
+        <v>45.03830545114938</v>
       </c>
     </row>
     <row r="198">
@@ -2606,10 +2606,10 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>150.0941817273479</v>
+        <v>150.0941817237673</v>
       </c>
       <c r="C198" t="n">
-        <v>45.03476608118488</v>
+        <v>45.03476608279475</v>
       </c>
     </row>
     <row r="199">
@@ -2617,10 +2617,10 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>150.0874375792997</v>
+        <v>150.0874375757382</v>
       </c>
       <c r="C199" t="n">
-        <v>45.0310821675155</v>
+        <v>45.03108216911725</v>
       </c>
     </row>
     <row r="200">
@@ -2628,10 +2628,10 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>150.080421760164</v>
+        <v>150.080421756622</v>
       </c>
       <c r="C200" t="n">
-        <v>45.02724784888375</v>
+        <v>45.02724785047712</v>
       </c>
     </row>
     <row r="201">
@@ -2639,10 +2639,10 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>150.0731233997367</v>
+        <v>150.073123396215</v>
       </c>
       <c r="C201" t="n">
-        <v>45.02325703174499</v>
+        <v>45.0232570333297</v>
       </c>
     </row>
     <row r="202">
@@ -2650,10 +2650,10 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>150.0655311989196</v>
+        <v>150.0655311954188</v>
       </c>
       <c r="C202" t="n">
-        <v>45.01910337961706</v>
+        <v>45.01910338119283</v>
       </c>
     </row>
     <row r="203">
@@ -2661,10 +2661,10 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>150.0655311989196</v>
+        <v>150.0655311954188</v>
       </c>
       <c r="C203" t="n">
-        <v>45.01910337961706</v>
+        <v>45.01910338119283</v>
       </c>
     </row>
     <row r="204">
@@ -2672,10 +2672,10 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>150.0576334132959</v>
+        <v>150.0576334098166</v>
       </c>
       <c r="C204" t="n">
-        <v>45.01478030372451</v>
+        <v>45.01478030529107</v>
       </c>
     </row>
     <row r="205">
@@ -2683,10 +2683,10 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>150.0494178361205</v>
+        <v>150.0494178326634</v>
       </c>
       <c r="C205" t="n">
-        <v>45.01028095331028</v>
+        <v>45.01028095486733</v>
       </c>
     </row>
     <row r="206">
@@ -2694,10 +2694,10 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>150.040871780703</v>
+        <v>150.0408717772688</v>
       </c>
       <c r="C206" t="n">
-        <v>45.00559820560546</v>
+        <v>45.00559820715269</v>
       </c>
     </row>
     <row r="207">
@@ -2705,10 +2705,10 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>150.0319820621705</v>
+        <v>150.0319820587599</v>
       </c>
       <c r="C207" t="n">
-        <v>45.00072465544759</v>
+        <v>45.00072465698471</v>
       </c>
     </row>
     <row r="208">
@@ -2716,10 +2716,10 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>150.0227349785874</v>
+        <v>150.0227349752012</v>
       </c>
       <c r="C208" t="n">
-        <v>44.99565260453811</v>
+        <v>44.99565260606478</v>
       </c>
     </row>
     <row r="209">
@@ -2727,10 +2727,10 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>150.0131162914183</v>
+        <v>150.0131162880572</v>
       </c>
       <c r="C209" t="n">
-        <v>44.99037405032928</v>
+        <v>44.99037405184519</v>
       </c>
     </row>
     <row r="210">
@@ -2738,10 +2738,10 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>150.0031112053132</v>
+        <v>150.003111201978</v>
       </c>
       <c r="C210" t="n">
-        <v>44.98488067453133</v>
+        <v>44.98488067603613</v>
       </c>
     </row>
     <row r="211">
@@ -2749,10 +2749,10 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>149.9927043471982</v>
+        <v>149.9927043438897</v>
       </c>
       <c r="C211" t="n">
-        <v>44.97916383123024</v>
+        <v>44.97916383272359</v>
       </c>
     </row>
     <row r="212">
@@ -2760,10 +2760,10 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>149.981879744652</v>
+        <v>149.981879741371</v>
       </c>
       <c r="C212" t="n">
-        <v>44.97321453460695</v>
+        <v>44.9732145360885</v>
       </c>
     </row>
     <row r="213">
@@ -2771,10 +2771,10 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>149.9706208035524</v>
+        <v>149.9706208002997</v>
       </c>
       <c r="C213" t="n">
-        <v>44.96702344624891</v>
+        <v>44.96702344771829</v>
       </c>
     </row>
     <row r="214">
@@ -2782,10 +2782,10 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>149.9589102849714</v>
+        <v>149.958910281748</v>
       </c>
       <c r="C214" t="n">
-        <v>44.96058086204489</v>
+        <v>44.96058086350172</v>
       </c>
     </row>
     <row r="215">
@@ -2793,10 +2793,10 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>149.9467302813047</v>
+        <v>149.9467302781114</v>
       </c>
       <c r="C215" t="n">
-        <v>44.95387669865438</v>
+        <v>44.95387670009828</v>
       </c>
     </row>
     <row r="216">
@@ -2804,10 +2804,10 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>149.9340621916143</v>
+        <v>149.934062188452</v>
       </c>
       <c r="C216" t="n">
-        <v>44.94690047954326</v>
+        <v>44.94690048097385</v>
       </c>
     </row>
     <row r="217">
@@ -2815,10 +2815,10 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>149.9208866961694</v>
+        <v>149.920886693039</v>
       </c>
       <c r="C217" t="n">
-        <v>44.93964132057754</v>
+        <v>44.93964132199439</v>
       </c>
     </row>
     <row r="218">
@@ -2826,10 +2826,10 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>149.9071837301675</v>
+        <v>149.9071837270701</v>
       </c>
       <c r="C218" t="n">
-        <v>44.93208791516761</v>
+        <v>44.93208791657033</v>
       </c>
     </row>
     <row r="219">
@@ -2837,10 +2837,10 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>149.8929324566197</v>
+        <v>149.8929324535562</v>
       </c>
       <c r="C219" t="n">
-        <v>44.92422851895594</v>
+        <v>44.92422852034409</v>
       </c>
     </row>
     <row r="220">
@@ -2848,10 +2848,10 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>149.8781112383831</v>
+        <v>149.8781112353545</v>
       </c>
       <c r="C220" t="n">
-        <v>44.91605093404151</v>
+        <v>44.91605093541465</v>
       </c>
     </row>
     <row r="221">
@@ -2859,10 +2859,10 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>149.8626976093278</v>
+        <v>149.8626976063351</v>
       </c>
       <c r="C221" t="n">
-        <v>44.90754249273525</v>
+        <v>44.90754249409293</v>
       </c>
     </row>
     <row r="222">
@@ -2870,10 +2870,10 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>149.8466682446212</v>
+        <v>149.8466682416655</v>
       </c>
       <c r="C222" t="n">
-        <v>44.8986900408413</v>
+        <v>44.89869004218308</v>
       </c>
     </row>
     <row r="223">
@@ -2881,10 +2881,10 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>149.8299989301188</v>
+        <v>149.8299989272012</v>
       </c>
       <c r="C223" t="n">
-        <v>44.88947992045988</v>
+        <v>44.88947992178529</v>
       </c>
     </row>
     <row r="224">
@@ -2892,10 +2892,10 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>149.8126645308478</v>
+        <v>149.8126645279694</v>
       </c>
       <c r="C224" t="n">
-        <v>44.87989795230834</v>
+        <v>44.87989795361688</v>
       </c>
     </row>
     <row r="225">
@@ -2903,10 +2903,10 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>149.794638958574</v>
+        <v>149.794638955736</v>
       </c>
       <c r="C225" t="n">
-        <v>44.8699294175584</v>
+        <v>44.8699294188496</v>
       </c>
     </row>
     <row r="226">
@@ -2914,10 +2914,10 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>149.7758951384419</v>
+        <v>149.7758951356454</v>
       </c>
       <c r="C226" t="n">
-        <v>44.85955903918861</v>
+        <v>44.85955904046195</v>
       </c>
     </row>
     <row r="227">
@@ -2925,10 +2925,10 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>149.7564049746805</v>
+        <v>149.7564049719268</v>
       </c>
       <c r="C227" t="n">
-        <v>44.84877096285221</v>
+        <v>44.8487709641072</v>
       </c>
     </row>
     <row r="228">
@@ -2936,10 +2936,10 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>149.7361393153707</v>
+        <v>149.7361393126609</v>
       </c>
       <c r="C228" t="n">
-        <v>44.83754873726274</v>
+        <v>44.83754873849882</v>
       </c>
     </row>
     <row r="229">
@@ -2947,10 +2947,10 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>149.7150679162682</v>
+        <v>149.7150679136035</v>
       </c>
       <c r="C229" t="n">
-        <v>44.82587529410056</v>
+        <v>44.82587529531722</v>
       </c>
     </row>
     <row r="230">
@@ -2958,10 +2958,10 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>149.6931594036837</v>
+        <v>149.6931594010655</v>
       </c>
       <c r="C230" t="n">
-        <v>44.8137329274462</v>
+        <v>44.81373292864289</v>
       </c>
     </row>
     <row r="231">
@@ -2969,10 +2969,10 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>149.6703812364203</v>
+        <v>149.6703812338498</v>
       </c>
       <c r="C231" t="n">
-        <v>44.80110327274784</v>
+        <v>44.80110327392399</v>
       </c>
     </row>
     <row r="232">
@@ -2980,10 +2980,10 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>149.6466996667733</v>
+        <v>149.6466996642519</v>
       </c>
       <c r="C232" t="n">
-        <v>44.78796728533278</v>
+        <v>44.78796728648783</v>
       </c>
     </row>
     <row r="233">
@@ -2991,10 +2991,10 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>149.6220797006008</v>
+        <v>149.6220796981297</v>
       </c>
       <c r="C233" t="n">
-        <v>44.77430521847521</v>
+        <v>44.77430521960857</v>
       </c>
     </row>
     <row r="234">
@@ -3002,10 +3002,10 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>149.5964850564755</v>
+        <v>149.5964850540563</v>
       </c>
       <c r="C234" t="n">
-        <v>44.76009660103529</v>
+        <v>44.76009660214638</v>
       </c>
     </row>
     <row r="235">
@@ -3013,10 +3013,10 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>149.5698781239352</v>
+        <v>149.5698781215692</v>
       </c>
       <c r="C235" t="n">
-        <v>44.74532021468745</v>
+        <v>44.74532021577565</v>
       </c>
     </row>
     <row r="236">
@@ -3024,10 +3024,10 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>149.5422199208494</v>
+        <v>149.542219918538</v>
       </c>
       <c r="C236" t="n">
-        <v>44.72995407075914</v>
+        <v>44.72995407182384</v>
       </c>
     </row>
     <row r="237">
@@ -3035,10 +3035,10 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>149.5134700499296</v>
+        <v>149.5134700476744</v>
       </c>
       <c r="C237" t="n">
-        <v>44.71397538670469</v>
+        <v>44.71397538774526</v>
       </c>
     </row>
     <row r="238">
@@ -3046,10 +3046,10 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>149.483586654411</v>
+        <v>149.4835866522134</v>
       </c>
       <c r="C238" t="n">
-        <v>44.69736056224274</v>
+        <v>44.69736056325854</v>
       </c>
     </row>
     <row r="239">
@@ -3057,10 +3057,10 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>149.4525263729421</v>
+        <v>149.4525263708036</v>
       </c>
       <c r="C239" t="n">
-        <v>44.68008515518995</v>
+        <v>44.68008515618035</v>
       </c>
     </row>
     <row r="240">
@@ -3068,10 +3068,10 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>149.4202442937248</v>
+        <v>149.420244291647</v>
       </c>
       <c r="C240" t="n">
-        <v>44.66212385702802</v>
+        <v>44.66212385799236</v>
       </c>
     </row>
     <row r="241">
@@ -3079,10 +3079,10 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>149.3866939079521</v>
+        <v>149.3866939059365</v>
       </c>
       <c r="C241" t="n">
-        <v>44.64345046824582</v>
+        <v>44.64345046918343</v>
       </c>
     </row>
     <row r="242">
@@ -3090,10 +3090,10 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>149.3518270626012</v>
+        <v>149.3518270606495</v>
       </c>
       <c r="C242" t="n">
-        <v>44.62403787350388</v>
+        <v>44.62403787441407</v>
       </c>
     </row>
     <row r="243">
@@ -3101,10 +3101,10 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>149.3155939126441</v>
+        <v>149.3155939107579</v>
       </c>
       <c r="C243" t="n">
-        <v>44.60385801667375</v>
+        <v>44.60385801755586</v>
       </c>
     </row>
     <row r="244">
@@ -3112,10 +3112,10 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>149.2779428727492</v>
+        <v>149.2779428709299</v>
       </c>
       <c r="C244" t="n">
-        <v>44.582881875811</v>
+        <v>44.58288187666432</v>
       </c>
     </row>
     <row r="245">
@@ -3123,10 +3123,10 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>149.2388205685545</v>
+        <v>149.238820566804</v>
       </c>
       <c r="C245" t="n">
-        <v>44.56107943812674</v>
+        <v>44.56107943895057</v>
       </c>
     </row>
     <row r="246">
@@ -3134,10 +3134,10 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>149.1981717876059</v>
+        <v>149.1981717859259</v>
       </c>
       <c r="C246" t="n">
-        <v>44.5384196750298</v>
+        <v>44.53841967582343</v>
       </c>
     </row>
     <row r="247">
@@ -3145,10 +3145,10 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>149.1559394300597</v>
+        <v>149.1559394284517</v>
       </c>
       <c r="C247" t="n">
-        <v>44.51487051731872</v>
+        <v>44.51487051808144</v>
       </c>
     </row>
     <row r="248">
@@ -3156,10 +3156,10 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>149.112064459265</v>
+        <v>149.112064457731</v>
       </c>
       <c r="C248" t="n">
-        <v>44.49039883061058</v>
+        <v>44.49039883134167</v>
       </c>
     </row>
     <row r="249">
@@ -3167,10 +3167,10 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>149.0664858523518</v>
+        <v>149.0664858508933</v>
       </c>
       <c r="C249" t="n">
-        <v>44.46497039110218</v>
+        <v>44.46497039180091</v>
       </c>
     </row>
     <row r="250">
@@ -3178,10 +3178,10 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>149.0191405509616</v>
+        <v>149.0191405495804</v>
       </c>
       <c r="C250" t="n">
-        <v>44.43854986176763</v>
+        <v>44.43854986243327</v>
       </c>
     </row>
     <row r="251">
@@ -3189,10 +3189,10 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>148.9699634122753</v>
+        <v>148.9699634109733</v>
       </c>
       <c r="C251" t="n">
-        <v>44.41110076910597</v>
+        <v>44.41110076973779</v>
       </c>
     </row>
     <row r="252">
@@ -3200,10 +3200,10 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>148.9188871605052</v>
+        <v>148.9188871592841</v>
       </c>
       <c r="C252" t="n">
-        <v>44.38258548056228</v>
+        <v>44.38258548115953</v>
       </c>
     </row>
     <row r="253">
@@ -3211,10 +3211,10 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>148.8658423390335</v>
+        <v>148.865842337895</v>
       </c>
       <c r="C253" t="n">
-        <v>44.3529651827559</v>
+        <v>44.35296518331786</v>
       </c>
     </row>
     <row r="254">
@@ -3222,10 +3222,10 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>148.8107572633984</v>
+        <v>148.8107572623444</v>
       </c>
       <c r="C254" t="n">
-        <v>44.32219986066083</v>
+        <v>44.32219986118674</v>
       </c>
     </row>
     <row r="255">
@@ -3233,10 +3233,10 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>148.7535579753448</v>
+        <v>148.753557974377</v>
       </c>
       <c r="C255" t="n">
-        <v>44.29024827789422</v>
+        <v>44.29024827838336</v>
       </c>
     </row>
     <row r="256">
@@ -3244,10 +3244,10 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>148.694168198176</v>
+        <v>148.6941681972963</v>
       </c>
       <c r="C256" t="n">
-        <v>44.25706795828155</v>
+        <v>44.25706795873317</v>
       </c>
     </row>
     <row r="257">
@@ -3255,10 +3255,10 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>148.6325092936624</v>
+        <v>148.6325092928726</v>
       </c>
       <c r="C257" t="n">
-        <v>44.22261516887905</v>
+        <v>44.22261516929242</v>
       </c>
     </row>
     <row r="258">
@@ -3266,10 +3266,10 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>148.5685002207832</v>
+        <v>148.5685002200851</v>
       </c>
       <c r="C258" t="n">
-        <v>44.18684490464734</v>
+        <v>44.18684490502175</v>
       </c>
     </row>
     <row r="259">
@@ -3277,10 +3277,10 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>148.5020574966004</v>
+        <v>148.5020574959958</v>
       </c>
       <c r="C259" t="n">
-        <v>44.14971087498375</v>
+        <v>44.14971087531846</v>
       </c>
     </row>
     <row r="260">
@@ -3288,10 +3288,10 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>148.4330951595853</v>
+        <v>148.4330951590759</v>
       </c>
       <c r="C260" t="n">
-        <v>44.11116549233436</v>
+        <v>44.11116549262868</v>
       </c>
     </row>
     <row r="261">
@@ -3299,10 +3299,10 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>148.3615247357417</v>
+        <v>148.3615247353293</v>
       </c>
       <c r="C261" t="n">
-        <v>44.0711598631219</v>
+        <v>44.07115986337512</v>
       </c>
     </row>
     <row r="262">
@@ -3310,10 +3310,10 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>148.2872552078963</v>
+        <v>148.2872552075827</v>
       </c>
       <c r="C262" t="n">
-        <v>44.02964378123951</v>
+        <v>44.02964378145095</v>
       </c>
     </row>
     <row r="263">
@@ -3321,10 +3321,10 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>148.2101929885494</v>
+        <v>148.2101929883364</v>
       </c>
       <c r="C263" t="n">
-        <v>43.98656572437621</v>
+        <v>43.98656572454517</v>
       </c>
     </row>
     <row r="264">
@@ -3332,10 +3332,10 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>148.130241896708</v>
+        <v>148.1302418965972</v>
       </c>
       <c r="C264" t="n">
-        <v>43.94187285345433</v>
+        <v>43.94187285358018</v>
       </c>
     </row>
     <row r="265">
@@ -3343,10 +3343,10 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>148.0473031391483</v>
+        <v>148.0473031391414</v>
       </c>
       <c r="C265" t="n">
-        <v>43.89551101547541</v>
+        <v>43.89551101555751</v>
       </c>
     </row>
     <row r="266">
@@ -3354,10 +3354,10 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>147.9612752965849</v>
+        <v>147.9612752966836</v>
       </c>
       <c r="C266" t="n">
-        <v>43.84742475008555</v>
+        <v>43.84742475012327</v>
       </c>
     </row>
     <row r="267">
@@ -3365,10 +3365,10 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>147.8720543152491</v>
+        <v>147.8720543154549</v>
       </c>
       <c r="C267" t="n">
-        <v>43.79755730018709</v>
+        <v>43.79755730017986</v>
       </c>
     </row>
     <row r="268">
@@ -3376,10 +3376,10 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>147.7795335044105</v>
+        <v>147.779533504725</v>
       </c>
       <c r="C268" t="n">
-        <v>43.74585062693844</v>
+        <v>43.74585062688568</v>
       </c>
     </row>
     <row r="269">
@@ -3387,10 +3387,10 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>147.6836035404033</v>
+        <v>147.683603540828</v>
       </c>
       <c r="C269" t="n">
-        <v>43.69224542949821</v>
+        <v>43.69224542939938</v>
       </c>
     </row>
     <row r="270">
@@ -3398,10 +3398,10 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>147.5841524777484</v>
+        <v>147.5841524782847</v>
       </c>
       <c r="C270" t="n">
-        <v>43.63668116988443</v>
+        <v>43.63668116973903</v>
       </c>
     </row>
     <row r="271">
@@ -3409,10 +3409,10 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>147.4810657679914</v>
+        <v>147.4810657686407</v>
       </c>
       <c r="C271" t="n">
-        <v>43.57909610333256</v>
+        <v>43.57909610314013</v>
       </c>
     </row>
     <row r="272">
@@ -3420,10 +3420,10 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>147.3742262869046</v>
+        <v>147.3742262876682</v>
       </c>
       <c r="C272" t="n">
-        <v>43.51942731454857</v>
+        <v>43.51942731430868</v>
       </c>
     </row>
     <row r="273">
@@ -3431,10 +3431,10 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>147.2635143707314</v>
+        <v>147.2635143716105</v>
       </c>
       <c r="C273" t="n">
-        <v>43.45761076026459</v>
+        <v>43.45761075997685</v>
       </c>
     </row>
     <row r="274">
@@ -3442,10 +3442,10 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>147.1488078621739</v>
+        <v>147.1488078631697</v>
       </c>
       <c r="C274" t="n">
-        <v>43.39358131851427</v>
+        <v>43.39358131817833</v>
       </c>
     </row>
     <row r="275">
@@ -3453,10 +3453,10 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>147.0299821668561</v>
+        <v>147.0299821679696</v>
       </c>
       <c r="C275" t="n">
-        <v>43.32727284505292</v>
+        <v>43.32727284466849</v>
       </c>
     </row>
     <row r="276">
@@ -3464,10 +3464,10 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>146.906910321014</v>
+        <v>146.9069103222463</v>
       </c>
       <c r="C276" t="n">
-        <v>43.25861823735358</v>
+        <v>43.25861823692043</v>
       </c>
     </row>
     <row r="277">
@@ -3475,10 +3475,10 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>146.7794630711894</v>
+        <v>146.7794630725411</v>
       </c>
       <c r="C277" t="n">
-        <v>43.18754950661357</v>
+        <v>43.18754950613152</v>
       </c>
     </row>
     <row r="278">
@@ -3486,10 +3486,10 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>146.6475089667209</v>
+        <v>146.6475089681929</v>
       </c>
       <c r="C278" t="n">
-        <v>43.11399785820674</v>
+        <v>43.11399785767565</v>
       </c>
     </row>
     <row r="279">
@@ -3497,10 +3497,10 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>146.5109144658452</v>
+        <v>146.510914467438</v>
       </c>
       <c r="C279" t="n">
-        <v>43.03789378101456</v>
+        <v>43.03789378043439</v>
       </c>
     </row>
     <row r="280">
@@ -3508,10 +3508,10 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>146.3695440562299</v>
+        <v>146.3695440579439</v>
       </c>
       <c r="C280" t="n">
-        <v>42.95916714606321</v>
+        <v>42.95916714543395</v>
       </c>
     </row>
     <row r="281">
@@ -3519,10 +3519,10 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>146.2232603907723</v>
+        <v>146.2232603926078</v>
       </c>
       <c r="C281" t="n">
-        <v>42.87774731488383</v>
+        <v>42.87774731420557</v>
       </c>
     </row>
     <row r="282">
@@ -3530,10 +3530,10 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>146.071924439499</v>
+        <v>146.0719244414563</v>
       </c>
       <c r="C282" t="n">
-        <v>42.79356325799933</v>
+        <v>42.79356325727223</v>
       </c>
     </row>
     <row r="283">
@@ -3541,10 +3541,10 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>145.9153956583999</v>
+        <v>145.9153956604789</v>
       </c>
       <c r="C283" t="n">
-        <v>42.70654368392191</v>
+        <v>42.70654368314621</v>
       </c>
     </row>
     <row r="284">
@@ -3552,10 +3552,10 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>145.7535321760232</v>
+        <v>145.7535321782237</v>
       </c>
       <c r="C284" t="n">
-        <v>42.61661717902123</v>
+        <v>42.61661717819724</v>
       </c>
     </row>
     <row r="285">
@@ -3563,10 +3563,10 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>145.5861909986403</v>
+        <v>145.5861910009619</v>
       </c>
       <c r="C285" t="n">
-        <v>42.52371235859337</v>
+        <v>42.5237123577215</v>
       </c>
     </row>
     <row r="286">
@@ -3574,10 +3574,10 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>145.4132282347699</v>
+        <v>145.4132282372122</v>
       </c>
       <c r="C286" t="n">
-        <v>42.42775802942467</v>
+        <v>42.42775802850542</v>
       </c>
     </row>
     <row r="287">
@@ -3585,10 +3585,10 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>145.2344993398157</v>
+        <v>145.2344993423777</v>
       </c>
       <c r="C287" t="n">
-        <v>42.32868336410153</v>
+        <v>42.32868336313551</v>
       </c>
     </row>
     <row r="288">
@@ -3596,10 +3596,10 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>145.0498593815325</v>
+        <v>145.0498593842133</v>
       </c>
       <c r="C288" t="n">
-        <v>42.22641808726814</v>
+        <v>42.22641808625604</v>
       </c>
     </row>
     <row r="289">
@@ -3607,10 +3607,10 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>144.8591633269853</v>
+        <v>144.8591633297837</v>
       </c>
       <c r="C289" t="n">
-        <v>42.1208926739764</v>
+        <v>42.12089267291902</v>
       </c>
     </row>
     <row r="290">
@@ -3618,10 +3618,10 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>144.6622663516011</v>
+        <v>144.6622663545157</v>
       </c>
       <c r="C290" t="n">
-        <v>42.01203856020804</v>
+        <v>42.01203855910629</v>
       </c>
     </row>
     <row r="291">
@@ -3629,10 +3629,10 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>144.4590241708417</v>
+        <v>144.4590241738708</v>
       </c>
       <c r="C291" t="n">
-        <v>41.89978836557579</v>
+        <v>41.89978836443071</v>
       </c>
     </row>
     <row r="292">
@@ -3640,10 +3640,10 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>144.2492933949361</v>
+        <v>144.2492933980777</v>
       </c>
       <c r="C292" t="n">
-        <v>41.78407612812948</v>
+        <v>41.7840761269422</v>
       </c>
     </row>
     <row r="293">
@@ -3651,10 +3651,10 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>144.0329319070132</v>
+        <v>144.0329319102651</v>
       </c>
       <c r="C293" t="n">
-        <v>41.66483755110333</v>
+        <v>41.66483754987509</v>
       </c>
     </row>
     <row r="294">
@@ -3662,10 +3662,10 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>143.8097992648601</v>
+        <v>143.8097992682198</v>
       </c>
       <c r="C294" t="n">
-        <v>41.54201026134297</v>
+        <v>41.54201026007516</v>
       </c>
     </row>
     <row r="295">
@@ -3673,10 +3673,10 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>143.5797571264004</v>
+        <v>143.5797571298652</v>
       </c>
       <c r="C295" t="n">
-        <v>41.41553407904419</v>
+        <v>41.41553407773829</v>
       </c>
     </row>
     <row r="296">
@@ -3684,10 +3684,10 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>143.3426696988471</v>
+        <v>143.342669702414</v>
       </c>
       <c r="C296" t="n">
-        <v>41.28535129832056</v>
+        <v>41.28535129697821</v>
       </c>
     </row>
     <row r="297">
@@ -3695,10 +3695,10 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>143.0984042113195</v>
+        <v>143.098404214985</v>
       </c>
       <c r="C297" t="n">
-        <v>41.15140697799515</v>
+        <v>41.1514069766181</v>
       </c>
     </row>
     <row r="298">
@@ -3706,10 +3706,10 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>142.8468314105417</v>
+        <v>142.8468314143022</v>
       </c>
       <c r="C298" t="n">
-        <v>41.01364924188089</v>
+        <v>41.01364924047101</v>
       </c>
     </row>
     <row r="299">
@@ -3717,10 +3717,10 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>142.5878260790473</v>
+        <v>142.5878260828989</v>
       </c>
       <c r="C299" t="n">
-        <v>40.87202958767759</v>
+        <v>40.87202958623688</v>
       </c>
     </row>
     <row r="300">
@@ -3728,10 +3728,10 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>142.3212675751091</v>
+        <v>142.3212675790474</v>
       </c>
       <c r="C300" t="n">
-        <v>40.72650320347069</v>
+        <v>40.7265032020013</v>
       </c>
     </row>
     <row r="301">
@@ -3739,10 +3739,10 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>142.0470403933871</v>
+        <v>142.0470403974077</v>
       </c>
       <c r="C301" t="n">
-        <v>40.57702929066904</v>
+        <v>40.57702928917323</v>
       </c>
     </row>
     <row r="302">
@@ -3750,10 +3750,10 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>141.7650347450573</v>
+        <v>141.7650347491552</v>
       </c>
       <c r="C302" t="n">
-        <v>40.42357139206681</v>
+        <v>40.42357139054696</v>
       </c>
     </row>
     <row r="303">
@@ -3761,10 +3761,10 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>141.4751471559264</v>
+        <v>141.4751471600962</v>
       </c>
       <c r="C303" t="n">
-        <v>40.26609772356117</v>
+        <v>40.26609772201981</v>
       </c>
     </row>
     <row r="304">
@@ -3772,10 +3772,10 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>141.17728108078</v>
+        <v>141.1772810850163</v>
       </c>
       <c r="C304" t="n">
-        <v>40.10458150790185</v>
+        <v>40.10458150634162</v>
       </c>
     </row>
     <row r="305">
@@ -3783,10 +3783,10 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>140.8713475319377</v>
+        <v>140.8713475362346</v>
       </c>
       <c r="C305" t="n">
-        <v>39.93900130869509</v>
+        <v>39.93900130711876</v>
       </c>
     </row>
     <row r="306">
@@ -3794,10 +3794,10 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>140.5572657197022</v>
+        <v>140.5572657240534</v>
       </c>
       <c r="C306" t="n">
-        <v>39.76934136273367</v>
+        <v>39.76934136114411</v>
       </c>
     </row>
     <row r="307">
@@ -3805,10 +3805,10 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>140.2349637021069</v>
+        <v>140.2349637065059</v>
       </c>
       <c r="C307" t="n">
-        <v>39.59559190857901</v>
+        <v>39.59559190697922</v>
       </c>
     </row>
     <row r="308">
@@ -3816,10 +3816,10 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>139.9043790410696</v>
+        <v>139.9043790455095</v>
       </c>
       <c r="C308" t="n">
-        <v>39.41774950918369</v>
+        <v>39.41774950757677</v>
       </c>
     </row>
     <row r="309">
@@ -3827,10 +3827,10 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>139.5654594617685</v>
+        <v>139.5654594662422</v>
       </c>
       <c r="C309" t="n">
-        <v>39.23581736621503</v>
+        <v>39.2358173646042</v>
       </c>
     </row>
     <row r="310">
@@ -3838,10 +3838,10 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>139.2181635117657</v>
+        <v>139.2181635162657</v>
       </c>
       <c r="C310" t="n">
-        <v>39.04980562362573</v>
+        <v>39.04980562201428</v>
       </c>
     </row>
     <row r="311">
@@ -3849,10 +3849,10 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>138.8624612161202</v>
+        <v>138.8624612206387</v>
       </c>
       <c r="C311" t="n">
-        <v>38.85973165791858</v>
+        <v>38.85973165630991</v>
       </c>
     </row>
     <row r="312">
@@ -3860,10 +3860,10 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>138.4983347244594</v>
+        <v>138.4983347289884</v>
       </c>
       <c r="C312" t="n">
-        <v>38.66562035247174</v>
+        <v>38.66562035086932</v>
       </c>
     </row>
     <row r="313">
@@ -3871,10 +3871,10 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>138.1257789457184</v>
+        <v>138.1257789502497</v>
       </c>
       <c r="C313" t="n">
-        <v>38.46750435323182</v>
+        <v>38.46750435163917</v>
       </c>
     </row>
     <row r="314">
@@ -3882,10 +3882,10 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>137.7448021660222</v>
+        <v>137.7448021705472</v>
       </c>
       <c r="C314" t="n">
-        <v>38.26542430304671</v>
+        <v>38.26542430146745</v>
       </c>
     </row>
     <row r="315">
@@ -3893,10 +3893,10 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>137.3554266449687</v>
+        <v>137.3554266494786</v>
       </c>
       <c r="C315" t="n">
-        <v>38.05942905190165</v>
+        <v>38.05942905033941</v>
       </c>
     </row>
     <row r="316">
@@ -3904,10 +3904,10 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>136.9576891853904</v>
+        <v>136.9576891898763</v>
       </c>
       <c r="C316" t="n">
-        <v>37.84957584034199</v>
+        <v>37.84957583880047</v>
       </c>
     </row>
     <row r="317">
@@ -3915,10 +3915,10 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>136.5516416715245</v>
+        <v>136.5516416759771</v>
       </c>
       <c r="C317" t="n">
-        <v>37.63593045341833</v>
+        <v>37.63593045190123</v>
       </c>
     </row>
     <row r="318">
@@ -3926,10 +3926,10 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>136.1373515704108</v>
+        <v>136.137351574821</v>
       </c>
       <c r="C318" t="n">
-        <v>37.41856734257354</v>
+        <v>37.4185673410846</v>
       </c>
     </row>
     <row r="319">
@@ -3937,10 +3937,10 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>135.7149023912804</v>
+        <v>135.7149023956385</v>
       </c>
       <c r="C319" t="n">
-        <v>37.19756971301096</v>
+        <v>37.1975697115539</v>
       </c>
     </row>
     <row r="320">
@@ -3948,10 +3948,10 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>135.284394097678</v>
+        <v>135.2843941019747</v>
       </c>
       <c r="C320" t="n">
-        <v>36.97302957423703</v>
+        <v>36.97302957281555</v>
       </c>
     </row>
     <row r="321">
@@ -3959,10 +3959,10 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>134.8459434671117</v>
+        <v>134.8459434713372</v>
       </c>
       <c r="C321" t="n">
-        <v>36.74504775166228</v>
+        <v>36.74504775028007</v>
       </c>
     </row>
     <row r="322">
@@ -3970,10 +3970,10 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>134.399684393117</v>
+        <v>134.3996843972617</v>
       </c>
       <c r="C322" t="n">
-        <v>36.51373385737076</v>
+        <v>36.51373385603144</v>
       </c>
     </row>
     <row r="323">
@@ -3981,10 +3981,10 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>133.9457681247904</v>
+        <v>133.9457681288446</v>
       </c>
       <c r="C323" t="n">
-        <v>36.27920621842895</v>
+        <v>36.2792062171361</v>
       </c>
     </row>
     <row r="324">
@@ -3992,10 +3992,10 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>133.4843634390715</v>
+        <v>133.4843634430255</v>
       </c>
       <c r="C324" t="n">
-        <v>36.04159176140021</v>
+        <v>36.04159176015733</v>
       </c>
     </row>
     <row r="325">
@@ -4003,10 +4003,10 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>133.0156567413459</v>
+        <v>133.0156567451901</v>
       </c>
       <c r="C325" t="n">
-        <v>35.80102585205677</v>
+        <v>35.80102585086727</v>
       </c>
     </row>
     <row r="326">
@@ -4014,10 +4014,10 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>132.5398520903035</v>
+        <v>132.5398520940285</v>
       </c>
       <c r="C326" t="n">
-        <v>35.55765208963627</v>
+        <v>35.55765208850345</v>
       </c>
     </row>
     <row r="327">
@@ -4025,10 +4025,10 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>132.0571711434111</v>
+        <v>132.0571711470075</v>
       </c>
       <c r="C327" t="n">
-        <v>35.31162205536981</v>
+        <v>35.31162205429685</v>
       </c>
     </row>
     <row r="328">
@@ -4036,10 +4036,10 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>131.5678530198521</v>
+        <v>131.5678530233107</v>
       </c>
       <c r="C328" t="n">
-        <v>35.06309501540956</v>
+        <v>35.06309501439952</v>
       </c>
     </row>
     <row r="329">
@@ -4047,10 +4047,10 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>131.0721540783399</v>
+        <v>131.0721540816517</v>
       </c>
       <c r="C329" t="n">
-        <v>34.81223757870121</v>
+        <v>34.81223757775697</v>
       </c>
     </row>
     <row r="330">
@@ -4058,10 +4058,10 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>130.5703476078282</v>
+        <v>130.5703476109845</v>
       </c>
       <c r="C330" t="n">
-        <v>34.55922331077471</v>
+        <v>34.55922330989902</v>
       </c>
     </row>
     <row r="331">
@@ -4069,10 +4069,10 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>130.0627234298049</v>
+        <v>130.0627234327973</v>
       </c>
       <c r="C331" t="n">
-        <v>34.30423230486027</v>
+        <v>34.30423230405567</v>
       </c>
     </row>
     <row r="332">
@@ -4080,10 +4080,10 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>129.5495874115781</v>
+        <v>129.5495874143984</v>
       </c>
       <c r="C332" t="n">
-        <v>34.0474507121688</v>
+        <v>34.04745071143763</v>
       </c>
     </row>
     <row r="333">
@@ -4091,10 +4091,10 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>129.0312608907101</v>
+        <v>129.0312608933508</v>
       </c>
       <c r="C333" t="n">
-        <v>33.78907023360107</v>
+        <v>33.78907023294551</v>
       </c>
     </row>
     <row r="334">
@@ -4102,10 +4102,10 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>128.5080800115515</v>
+        <v>128.5080800140051</v>
       </c>
       <c r="C334" t="n">
-        <v>33.52928757556104</v>
+        <v>33.52928757498304</v>
       </c>
     </row>
     <row r="335">
@@ -4113,10 +4113,10 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>127.9803949756267</v>
+        <v>127.9803949778863</v>
       </c>
       <c r="C335" t="n">
-        <v>33.26830387293926</v>
+        <v>33.26830387244054</v>
       </c>
     </row>
     <row r="336">
@@ -4124,10 +4124,10 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>127.4485692084497</v>
+        <v>127.448569210509</v>
       </c>
       <c r="C336" t="n">
-        <v>33.00632408269647</v>
+        <v>33.00632408227851</v>
       </c>
     </row>
     <row r="337">
@@ -4135,10 +4135,10 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>126.9129784461634</v>
+        <v>126.9129784480164</v>
       </c>
       <c r="C337" t="n">
-        <v>32.74355635180835</v>
+        <v>32.74355635147239</v>
       </c>
     </row>
     <row r="338">
@@ -4146,10 +4146,10 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>126.3740097462056</v>
+        <v>126.374009747847</v>
       </c>
       <c r="C338" t="n">
-        <v>32.48021136362518</v>
+        <v>32.48021136337225</v>
       </c>
     </row>
     <row r="339">
@@ -4157,10 +4157,10 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>125.8320604269889</v>
+        <v>125.8320604284139</v>
       </c>
       <c r="C339" t="n">
-        <v>32.21650166694926</v>
+        <v>32.21650166678008</v>
       </c>
     </row>
     <row r="340">
@@ -4168,10 +4168,10 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>125.2875369423297</v>
+        <v>125.2875369435341</v>
       </c>
       <c r="C340" t="n">
-        <v>31.95264099233399</v>
+        <v>31.95264099224909</v>
       </c>
     </row>
     <row r="341">
@@ -4179,10 +4179,10 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>124.7408536970617</v>
+        <v>124.7408536980418</v>
       </c>
       <c r="C341" t="n">
-        <v>31.6888435602587</v>
+        <v>31.68884356025829</v>
       </c>
     </row>
     <row r="342">
@@ -4190,10 +4190,10 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>124.1924318109124</v>
+        <v>124.1924318116653</v>
       </c>
       <c r="C342" t="n">
-        <v>31.42532338592843</v>
+        <v>31.42532338601251</v>
       </c>
     </row>
     <row r="343">
@@ -4201,10 +4201,10 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>123.6426978382919</v>
+        <v>123.6426978388153</v>
       </c>
       <c r="C343" t="n">
-        <v>31.16229358548844</v>
+        <v>31.16229358565674</v>
       </c>
     </row>
     <row r="344">
@@ -4212,10 +4212,10 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>123.0920824521386</v>
+        <v>123.0920824524307</v>
       </c>
       <c r="C344" t="n">
-        <v>30.89996568842571</v>
+        <v>30.8999656886777</v>
       </c>
     </row>
     <row r="345">
@@ -4223,10 +4223,10 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>122.5410191003703</v>
+        <v>122.5410191004302</v>
       </c>
       <c r="C345" t="n">
-        <v>30.63854896085742</v>
+        <v>30.63854896119232</v>
       </c>
     </row>
     <row r="346">
@@ -4234,10 +4234,10 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>121.9899426438042</v>
+        <v>121.9899426436315</v>
       </c>
       <c r="C346" t="n">
-        <v>30.37824974427812</v>
+        <v>30.37824974469491</v>
       </c>
     </row>
     <row r="347">
@@ -4245,10 +4245,10 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>121.439287984616</v>
+        <v>121.439287984211</v>
       </c>
       <c r="C347" t="n">
-        <v>30.11927081415682</v>
+        <v>30.11927081465424</v>
       </c>
     </row>
     <row r="348">
@@ -4256,10 +4256,10 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>120.8894886945233</v>
+        <v>120.8894886938871</v>
       </c>
       <c r="C348" t="n">
-        <v>29.86181076254529</v>
+        <v>29.86181076312185</v>
       </c>
     </row>
     <row r="349">
@@ -4267,10 +4267,10 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>120.3409756518766</v>
+        <v>120.3409756510108</v>
       </c>
       <c r="C349" t="n">
-        <v>29.60606340858358</v>
+        <v>29.60606340923756</v>
       </c>
     </row>
     <row r="350">
@@ -4278,10 +4278,10 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>119.794175696741</v>
+        <v>119.7941756956478</v>
       </c>
       <c r="C350" t="n">
-        <v>29.35221724047246</v>
+        <v>29.35221724120193</v>
       </c>
     </row>
     <row r="351">
@@ -4289,10 +4289,10 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>119.2495103128457</v>
+        <v>119.2495103115281</v>
       </c>
       <c r="C351" t="n">
-        <v>29.10045489213167</v>
+        <v>29.10045489293451</v>
       </c>
     </row>
     <row r="352">
@@ -4300,10 +4300,10 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>118.7073943449734</v>
+        <v>118.7073943434349</v>
       </c>
       <c r="C352" t="n">
-        <v>28.85095265738215</v>
+        <v>28.85095265825604</v>
       </c>
     </row>
     <row r="353">
@@ -4311,10 +4311,10 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>118.1682347599587</v>
+        <v>118.1682347582036</v>
       </c>
       <c r="C353" t="n">
-        <v>28.60388004408704</v>
+        <v>28.60388004502949</v>
       </c>
     </row>
     <row r="354">
@@ -4322,10 +4322,10 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>117.632429458979</v>
+        <v>117.632429457012</v>
       </c>
       <c r="C354" t="n">
-        <v>28.35939937026595</v>
+        <v>28.3593993712743</v>
       </c>
     </row>
     <row r="355">
@@ -4333,10 +4333,10 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>117.1003661482517</v>
+        <v>117.1003661460781</v>
       </c>
       <c r="C355" t="n">
-        <v>28.11766540376715</v>
+        <v>28.11766540483858</v>
       </c>
     </row>
     <row r="356">
@@ -4344,10 +4344,10 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>116.5724212746139</v>
+        <v>116.5724212722395</v>
       </c>
       <c r="C356" t="n">
-        <v>27.87882504664826</v>
+        <v>27.87882504777982</v>
       </c>
     </row>
     <row r="357">
@@ -4355,10 +4355,10 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>116.0489590317638</v>
+        <v>116.0489590291948</v>
       </c>
       <c r="C357" t="n">
-        <v>27.64301706498527</v>
+        <v>27.64301706617391</v>
       </c>
     </row>
     <row r="358">
@@ -4366,10 +4366,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>115.5303304421966</v>
+        <v>115.53033043944</v>
       </c>
       <c r="C358" t="n">
-        <v>27.41037186440714</v>
+        <v>27.41037186564968</v>
       </c>
     </row>
     <row r="359">
@@ -4377,10 +4377,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>115.0168725190863</v>
+        <v>115.0168725161492</v>
       </c>
       <c r="C359" t="n">
-        <v>27.18101131124489</v>
+        <v>27.18101131253807</v>
       </c>
     </row>
     <row r="360">
@@ -4388,10 +4388,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>114.5089075115567</v>
+        <v>114.5089075084466</v>
       </c>
       <c r="C360" t="n">
-        <v>26.95504859879511</v>
+        <v>26.95504860013559</v>
       </c>
     </row>
     <row r="361">
@@ -4399,10 +4399,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>114.0067422359673</v>
+        <v>114.0067422326923</v>
       </c>
       <c r="C361" t="n">
-        <v>26.73258815783198</v>
+        <v>26.73258815921635</v>
       </c>
     </row>
     <row r="362">
@@ -4410,10 +4410,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>113.510667495019</v>
+        <v>113.5106674915874</v>
       </c>
       <c r="C362" t="n">
-        <v>26.51372561016374</v>
+        <v>26.51372561158855</v>
       </c>
     </row>
     <row r="363">
@@ -4421,10 +4421,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>113.0209575856747</v>
+        <v>113.0209575820949</v>
       </c>
       <c r="C363" t="n">
-        <v>26.29854776372157</v>
+        <v>26.29854776518334</v>
       </c>
     </row>
     <row r="364">
@@ -4432,10 +4432,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>112.5378698961014</v>
+        <v>112.5378698923823</v>
       </c>
       <c r="C364" t="n">
-        <v>26.08713264739363</v>
+        <v>26.08713264888886</v>
       </c>
     </row>
     <row r="365">
@@ -4443,10 +4443,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>112.0616445910849</v>
+        <v>112.0616445872355</v>
       </c>
       <c r="C365" t="n">
-        <v>25.87954958357665</v>
+        <v>25.87954958510185</v>
       </c>
     </row>
     <row r="366">
@@ -4454,10 +4454,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>111.5925043846458</v>
+        <v>111.5925043806753</v>
       </c>
       <c r="C366" t="n">
-        <v>25.67585929621195</v>
+        <v>25.67585929776359</v>
       </c>
     </row>
     <row r="367">
@@ -4465,10 +4465,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>111.1306543979193</v>
+        <v>111.1306543938369</v>
       </c>
       <c r="C367" t="n">
-        <v>25.47611405190397</v>
+        <v>25.4761140534786</v>
       </c>
     </row>
     <row r="368">
@@ -4476,10 +4476,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>110.6762820997397</v>
+        <v>110.6762820955549</v>
       </c>
       <c r="C368" t="n">
-        <v>25.28035783158581</v>
+        <v>25.28035783317996</v>
       </c>
     </row>
     <row r="369">
@@ -4487,10 +4487,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>110.2295573268154</v>
+        <v>110.2295573225375</v>
       </c>
       <c r="C369" t="n">
-        <v>25.08862653009743</v>
+        <v>25.0886265317077</v>
       </c>
     </row>
     <row r="370">
@@ -4498,10 +4498,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>109.7906323798804</v>
+        <v>109.790632375519</v>
       </c>
       <c r="C370" t="n">
-        <v>24.90094818097773</v>
+        <v>24.90094818260079</v>
       </c>
     </row>
     <row r="371">
@@ -4509,10 +4509,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>109.3596421917808</v>
+        <v>109.3596421873453</v>
       </c>
       <c r="C371" t="n">
-        <v>24.71734320373846</v>
+        <v>24.71734320537099</v>
       </c>
     </row>
     <row r="372">
@@ -4520,10 +4520,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>108.9367045630881</v>
+        <v>108.9367045585879</v>
       </c>
       <c r="C372" t="n">
-        <v>24.53782467088492</v>
+        <v>24.53782467252373</v>
       </c>
     </row>
     <row r="373">
@@ -4531,10 +4531,10 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>108.521920460535</v>
+        <v>108.5219204559794</v>
       </c>
       <c r="C373" t="n">
-        <v>24.36239859197353</v>
+        <v>24.36239859361546</v>
       </c>
     </row>
     <row r="374">
@@ -4542,10 +4542,10 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>108.1153743733392</v>
+        <v>108.1153743687374</v>
       </c>
       <c r="C374" t="n">
-        <v>24.19106421204534</v>
+        <v>24.19106421368735</v>
       </c>
     </row>
     <row r="375">
@@ -4553,10 +4553,10 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>107.7171347223127</v>
+        <v>107.7171347176738</v>
       </c>
       <c r="C375" t="n">
-        <v>24.02381432184751</v>
+        <v>24.02381432348664</v>
       </c>
     </row>
     <row r="376">
@@ -4564,10 +4564,10 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>107.3272543165505</v>
+        <v>107.3272543118834</v>
       </c>
       <c r="C376" t="n">
-        <v>23.86063557734582</v>
+        <v>23.8606355789792</v>
       </c>
     </row>
     <row r="377">
@@ -4575,10 +4575,10 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>106.9457708524479</v>
+        <v>106.9457708477613</v>
       </c>
       <c r="C377" t="n">
-        <v>23.70150882614039</v>
+        <v>23.70150882776527</v>
       </c>
     </row>
     <row r="378">
@@ -4586,10 +4586,10 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>106.5727074498022</v>
+        <v>106.5727074451048</v>
       </c>
       <c r="C378" t="n">
-        <v>23.54640943851922</v>
+        <v>23.54640944013295</v>
       </c>
     </row>
     <row r="379">
@@ -4597,10 +4597,10 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>106.2080732198168</v>
+        <v>106.2080732151167</v>
       </c>
       <c r="C379" t="n">
-        <v>23.39530764101798</v>
+        <v>23.395307642618</v>
       </c>
     </row>
     <row r="380">
@@ -4608,10 +4608,10 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>105.8518638599273</v>
+        <v>105.8518638552326</v>
       </c>
       <c r="C380" t="n">
-        <v>23.24816885049737</v>
+        <v>23.24816885208128</v>
       </c>
     </row>
     <row r="381">
@@ -4619,10 +4619,10 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>105.5040622705188</v>
+        <v>105.5040622658374</v>
       </c>
       <c r="C381" t="n">
-        <v>23.10495400689831</v>
+        <v>23.10495400846379</v>
       </c>
     </row>
     <row r="382">
@@ -4630,10 +4630,10 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>105.1646391887803</v>
+        <v>105.1646391841197</v>
       </c>
       <c r="C382" t="n">
-        <v>22.9656199029878</v>
+        <v>22.96561990453266</v>
       </c>
     </row>
     <row r="383">
@@ -4641,10 +4641,10 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>104.8335538351575</v>
+        <v>104.8335538305248</v>
       </c>
       <c r="C383" t="n">
-        <v>22.83011950956351</v>
+        <v>22.83011951108567</v>
       </c>
     </row>
     <row r="384">
@@ -4652,10 +4652,10 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>104.5107545680973</v>
+        <v>104.5107545634996</v>
       </c>
       <c r="C384" t="n">
-        <v>22.69840229473936</v>
+        <v>22.69840229623688</v>
       </c>
     </row>
     <row r="385">
@@ -4663,10 +4663,10 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>104.1961795430399</v>
+        <v>104.1961795384839</v>
       </c>
       <c r="C385" t="n">
-        <v>22.57041453608768</v>
+        <v>22.57041453755871</v>
       </c>
     </row>
     <row r="386">
@@ -4674,10 +4674,10 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>103.8897573718804</v>
+        <v>103.8897573673723</v>
       </c>
       <c r="C386" t="n">
-        <v>22.44609962456278</v>
+        <v>22.4460996260056</v>
       </c>
     </row>
     <row r="387">
@@ -4685,10 +4685,10 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>103.5914077794094</v>
+        <v>103.5914077749554</v>
       </c>
       <c r="C387" t="n">
-        <v>22.32539835927619</v>
+        <v>22.3253983606892</v>
       </c>
     </row>
     <row r="388">
@@ -4696,10 +4696,10 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>103.3010422535314</v>
+        <v>103.3010422491372</v>
       </c>
       <c r="C388" t="n">
-        <v>22.208249232333</v>
+        <v>22.2082492337147</v>
       </c>
     </row>
     <row r="389">
@@ -4707,10 +4707,10 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>103.018564686351</v>
+        <v>103.018564682022</v>
       </c>
       <c r="C389" t="n">
-        <v>22.09458870307178</v>
+        <v>22.09458870442081</v>
       </c>
     </row>
     <row r="390">
@@ -4718,10 +4718,10 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>102.7438720035119</v>
+        <v>102.7438719992531</v>
       </c>
       <c r="C390" t="n">
-        <v>21.98435146117626</v>
+        <v>21.98435146249134</v>
       </c>
     </row>
     <row r="391">
@@ -4729,10 +4729,10 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>102.4768547794612</v>
+        <v>102.4768547752775</v>
       </c>
       <c r="C391" t="n">
-        <v>21.87747067824467</v>
+        <v>21.87747067952466</v>
       </c>
     </row>
     <row r="392">
@@ -4740,10 +4740,10 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>102.217397836595</v>
+        <v>102.2173978324909</v>
       </c>
       <c r="C392" t="n">
-        <v>21.77387824751275</v>
+        <v>21.7738782487566</v>
       </c>
     </row>
     <row r="393">
@@ -4751,10 +4751,10 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>101.9653808265144</v>
+        <v>101.965380822494</v>
       </c>
       <c r="C393" t="n">
-        <v>21.67350501152752</v>
+        <v>21.67350501273427</v>
       </c>
     </row>
     <row r="394">
@@ -4762,10 +4762,10 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>101.7206787918853</v>
+        <v>101.7206787879524</v>
       </c>
       <c r="C394" t="n">
-        <v>21.5762809776621</v>
+        <v>21.57628097883092</v>
       </c>
     </row>
     <row r="395">
@@ -4773,10 +4773,10 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>101.4831627076463</v>
+        <v>101.4831627038046</v>
       </c>
       <c r="C395" t="n">
-        <v>21.48213552144629</v>
+        <v>21.48213552257641</v>
       </c>
     </row>
     <row r="396">
@@ -4784,10 +4784,10 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>101.2527000005467</v>
+        <v>101.2526999967994</v>
       </c>
       <c r="C396" t="n">
-        <v>21.39099757776385</v>
+        <v>21.39099757885463</v>
       </c>
     </row>
     <row r="397">
@@ -4795,10 +4795,10 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>101.0291550462186</v>
+        <v>101.0291550425687</v>
       </c>
       <c r="C397" t="n">
-        <v>21.30279582003547</v>
+        <v>21.30279582108634</v>
       </c>
     </row>
     <row r="398">
@@ -4806,10 +4806,10 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>100.8123896431975</v>
+        <v>100.8123896396477</v>
       </c>
       <c r="C398" t="n">
-        <v>21.2174588275666</v>
+        <v>21.21745882857707</v>
       </c>
     </row>
     <row r="399">
@@ -4817,10 +4817,10 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>100.6022634634952</v>
+        <v>100.6022634600479</v>
       </c>
       <c r="C399" t="n">
-        <v>21.13491524129192</v>
+        <v>21.13491524226159</v>
       </c>
     </row>
     <row r="400">
@@ -4828,10 +4828,10 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>100.3986344795079</v>
+        <v>100.3986344761654</v>
       </c>
       <c r="C400" t="n">
-        <v>21.055093908194</v>
+        <v>21.05509390912256</v>
       </c>
     </row>
     <row r="401">
@@ -4839,10 +4839,10 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>100.2013593672017</v>
+        <v>100.2013593639657</v>
       </c>
       <c r="C401" t="n">
-        <v>20.97792401471197</v>
+        <v>20.97792401559916</v>
       </c>
     </row>
     <row r="402">
@@ -4850,10 +4850,10 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>100.0102938856629</v>
+        <v>100.0102938825353</v>
       </c>
       <c r="C402" t="n">
-        <v>20.90333520948876</v>
+        <v>20.90333521033442</v>
       </c>
     </row>
     <row r="403">
@@ -4861,10 +4861,10 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>99.82529323323209</v>
+        <v>99.82529323021419</v>
       </c>
       <c r="C403" t="n">
-        <v>20.83125771583199</v>
+        <v>20.831257716636</v>
       </c>
     </row>
     <row r="404">
@@ -4872,10 +4872,10 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>99.64621238055392</v>
+        <v>99.64621237764698</v>
       </c>
       <c r="C404" t="n">
-        <v>20.76162243428431</v>
+        <v>20.76162243504663</v>
       </c>
     </row>
     <row r="405">
@@ -4883,10 +4883,10 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>99.47290638097776</v>
+        <v>99.4729063781828</v>
       </c>
       <c r="C405" t="n">
-        <v>20.69436103571552</v>
+        <v>20.69436103643616</v>
       </c>
     </row>
     <row r="406">
@@ -4894,10 +4894,10 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>99.30523065883088</v>
+        <v>99.30523065614869</v>
       </c>
       <c r="C406" t="n">
-        <v>20.62940604535989</v>
+        <v>20.62940604603894</v>
       </c>
     </row>
     <row r="407">
@@ -4905,10 +4905,10 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>99.14304127616138</v>
+        <v>99.14304127359253</v>
       </c>
       <c r="C407" t="n">
-        <v>20.56669091822998</v>
+        <v>20.56669091886755</v>
       </c>
     </row>
     <row r="408">
@@ -4916,10 +4916,10 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>98.98619517861064</v>
+        <v>98.98619517615558</v>
       </c>
       <c r="C408" t="n">
-        <v>20.50615010634143</v>
+        <v>20.5061501069377</v>
       </c>
     </row>
     <row r="409">
@@ -4927,10 +4927,10 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>98.83455042112769</v>
+        <v>98.83455041878665</v>
       </c>
       <c r="C409" t="n">
-        <v>20.44771911818424</v>
+        <v>20.44771911873944</v>
       </c>
     </row>
     <row r="410">
@@ -4938,10 +4938,10 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>98.68796637427863</v>
+        <v>98.68796637205166</v>
       </c>
       <c r="C410" t="n">
-        <v>20.39133457087321</v>
+        <v>20.39133457138761</v>
       </c>
     </row>
     <row r="411">
@@ -4949,10 +4949,10 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>98.54630391193726</v>
+        <v>98.54630390982427</v>
       </c>
       <c r="C411" t="n">
-        <v>20.33693423540535</v>
+        <v>20.33693423587924</v>
       </c>
     </row>
     <row r="412">
@@ -4960,10 +4960,10 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>98.40942558116578</v>
+        <v>98.40942557916657</v>
       </c>
       <c r="C412" t="n">
-        <v>20.28445707544493</v>
+        <v>20.28445707587866</v>
       </c>
     </row>
     <row r="413">
@@ -4971,10 +4971,10 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>98.2771957551109</v>
+        <v>98.27719575322504</v>
       </c>
       <c r="C413" t="n">
-        <v>20.23384328004784</v>
+        <v>20.2338432804418</v>
       </c>
     </row>
     <row r="414">
@@ -4982,10 +4982,10 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>98.14948076974852</v>
+        <v>98.14948076797553</v>
       </c>
       <c r="C414" t="n">
-        <v>20.18503429072625</v>
+        <v>20.18503429108084</v>
       </c>
     </row>
     <row r="415">
@@ -4993,10 +4993,10 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>98.0261490453131</v>
+        <v>98.02614904365237</v>
       </c>
       <c r="C415" t="n">
-        <v>20.13797282324249</v>
+        <v>20.13797282355815</v>
       </c>
     </row>
     <row r="416">
@@ -5004,10 +5004,10 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>97.90707119324428</v>
+        <v>97.90707119169502</v>
       </c>
       <c r="C416" t="n">
-        <v>20.09260288450855</v>
+        <v>20.09260288478576</v>
       </c>
     </row>
     <row r="417">
@@ -5015,10 +5015,10 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>97.79212010947489</v>
+        <v>97.79212010803627</v>
       </c>
       <c r="C417" t="n">
-        <v>20.04886978495312</v>
+        <v>20.04886978519235</v>
       </c>
     </row>
     <row r="418">
@@ -5026,10 +5026,10 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>97.68117105487285</v>
+        <v>97.68117105354392</v>
       </c>
       <c r="C418" t="n">
-        <v>20.00672014670421</v>
+        <v>20.00672014690597</v>
       </c>
     </row>
     <row r="419">
@@ -5037,10 +5037,10 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>97.57410172363234</v>
+        <v>97.57410172241208</v>
       </c>
       <c r="C419" t="n">
-        <v>19.96610190792013</v>
+        <v>19.96610190808496</v>
       </c>
     </row>
     <row r="420">
@@ -5048,10 +5048,10 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>97.4707923003913</v>
+        <v>97.47079229927857</v>
       </c>
       <c r="C420" t="n">
-        <v>19.92696432358659</v>
+        <v>19.92696432371503</v>
       </c>
     </row>
     <row r="421">
@@ -5059,10 +5059,10 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>97.37112550682977</v>
+        <v>97.37112550582339</v>
       </c>
       <c r="C421" t="n">
-        <v>19.88925796308211</v>
+        <v>19.88925796317472</v>
       </c>
     </row>
     <row r="422">
@@ -5070,10 +5070,10 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>97.27498663848046</v>
+        <v>97.27498663757912</v>
       </c>
       <c r="C422" t="n">
-        <v>19.85293470479889</v>
+        <v>19.85293470485626</v>
       </c>
     </row>
     <row r="423">
@@ -5081,10 +5081,10 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>97.18226359245617</v>
+        <v>97.18226359165857</v>
       </c>
       <c r="C423" t="n">
-        <v>19.81794772809062</v>
+        <v>19.81794772811332</v>
       </c>
     </row>
     <row r="424">
@@ -5092,10 +5092,10 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>97.09284688677309</v>
+        <v>97.09284688607784</v>
       </c>
       <c r="C424" t="n">
-        <v>19.78425150280392</v>
+        <v>19.78425150279257</v>
       </c>
     </row>
     <row r="425">
@@ -5103,10 +5103,10 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>97.00662967191975</v>
+        <v>97.00662967132541</v>
       </c>
       <c r="C425" t="n">
-        <v>19.75180177663506</v>
+        <v>19.75180177659024</v>
       </c>
     </row>
     <row r="426">
@@ -5114,10 +5114,10 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>96.92350773529377</v>
+        <v>96.92350773479886</v>
       </c>
       <c r="C426" t="n">
-        <v>19.72055556053906</v>
+        <v>19.72055556046141</v>
       </c>
     </row>
     <row r="427">
@@ -5125,10 +5125,10 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>96.84337949909889</v>
+        <v>96.84337949870188</v>
       </c>
       <c r="C427" t="n">
-        <v>19.69047111240445</v>
+        <v>19.69047111229456</v>
       </c>
     </row>
     <row r="428">
@@ -5136,10 +5136,10 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>96.76614601226628</v>
+        <v>96.76614601196562</v>
       </c>
       <c r="C428" t="n">
-        <v>19.66150791919271</v>
+        <v>19.66150791905121</v>
       </c>
     </row>
     <row r="429">
@@ -5147,10 +5147,10 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>96.6917109369346</v>
+        <v>96.6917109367287</v>
       </c>
       <c r="C429" t="n">
-        <v>19.63362667772876</v>
+        <v>19.63362667755627</v>
       </c>
     </row>
     <row r="430">
@@ -5158,10 +5158,10 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>96.61998052999459</v>
+        <v>96.61998052988184</v>
       </c>
       <c r="C430" t="n">
-        <v>19.60678927431572</v>
+        <v>19.60678927411288</v>
       </c>
     </row>
     <row r="431">
@@ -5169,10 +5169,10 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>96.55086362017587</v>
+        <v>96.55086362015464</v>
       </c>
       <c r="C431" t="n">
-        <v>19.58095876333504</v>
+        <v>19.58095876310246</v>
       </c>
     </row>
     <row r="432">
@@ -5180,10 +5180,10 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>96.48427158112561</v>
+        <v>96.48427158119424</v>
       </c>
       <c r="C432" t="n">
-        <v>19.55609934498144</v>
+        <v>19.55609934471975</v>
       </c>
     </row>
     <row r="433">
@@ -5191,10 +5191,10 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>96.42011830090151</v>
+        <v>96.42011830105832</v>
       </c>
       <c r="C433" t="n">
-        <v>19.53217634227093</v>
+        <v>19.53217634198074</v>
       </c>
     </row>
     <row r="434">
@@ -5202,10 +5202,10 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>96.35832014827547</v>
+        <v>96.3583201485188</v>
       </c>
       <c r="C434" t="n">
-        <v>19.50915617744943</v>
+        <v>19.50915617713137</v>
       </c>
     </row>
     <row r="435">
@@ -5213,10 +5213,10 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>96.29879593621848</v>
+        <v>96.29879593654664</v>
       </c>
       <c r="C435" t="n">
-        <v>19.48700634791963</v>
+        <v>19.48700634757433</v>
       </c>
     </row>
     <row r="436">
@@ -5224,10 +5224,10 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>96.24146688291283</v>
+        <v>96.24146688332414</v>
       </c>
       <c r="C436" t="n">
-        <v>19.46569540179395</v>
+        <v>19.46569540142201</v>
       </c>
     </row>
     <row r="437">
@@ -5235,10 +5235,10 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>96.18625657061382</v>
+        <v>96.18625657110657</v>
       </c>
       <c r="C437" t="n">
-        <v>19.44519291317251</v>
+        <v>19.44519291277454</v>
       </c>
     </row>
     <row r="438">
@@ -5246,10 +5246,10 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>96.13309090266081</v>
+        <v>96.13309090323332</v>
       </c>
       <c r="C438" t="n">
-        <v>19.42546945723672</v>
+        <v>19.42546945681332</v>
       </c>
     </row>
     <row r="439">
@@ -5257,10 +5257,10 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>96.08189805891513</v>
+        <v>96.08189805956572</v>
       </c>
       <c r="C439" t="n">
-        <v>19.4064965852406</v>
+        <v>19.40649658479236</v>
       </c>
     </row>
     <row r="440">
@@ -5268,10 +5268,10 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>96.0326084498824</v>
+        <v>96.0326084506094</v>
       </c>
       <c r="C440" t="n">
-        <v>19.38824679947495</v>
+        <v>19.38824679900247</v>
       </c>
     </row>
     <row r="441">
@@ -5279,10 +5279,10 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>95.98515466975621</v>
+        <v>95.98515467055796</v>
       </c>
       <c r="C441" t="n">
-        <v>19.37069352827209</v>
+        <v>19.37069352777596</v>
       </c>
     </row>
     <row r="442">
@@ -5290,10 +5290,10 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>95.93947144860226</v>
+        <v>95.93947144947708</v>
       </c>
       <c r="C442" t="n">
-        <v>19.35381110111237</v>
+        <v>19.35381110059315</v>
       </c>
     </row>
     <row r="443">
@@ -5301,10 +5301,10 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>95.89549560388357</v>
+        <v>95.89549560482982</v>
       </c>
       <c r="C443" t="n">
-        <v>19.33757472388751</v>
+        <v>19.33757472334579</v>
       </c>
     </row>
     <row r="444">
@@ -5312,10 +5312,10 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>95.85316599151139</v>
+        <v>95.85316599252744</v>
       </c>
       <c r="C444" t="n">
-        <v>19.32196045437022</v>
+        <v>19.32196045380655</v>
       </c>
     </row>
     <row r="445">
@@ -5323,10 +5323,10 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>95.81242345658971</v>
+        <v>95.81242345767394</v>
       </c>
       <c r="C445" t="n">
-        <v>19.30694517793383</v>
+        <v>19.30694517734877</v>
       </c>
     </row>
     <row r="446">
@@ -5334,10 +5334,10 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>95.77321078400746</v>
+        <v>95.77321078515828</v>
       </c>
       <c r="C446" t="n">
-        <v>19.29250658356116</v>
+        <v>19.29250658295523</v>
       </c>
     </row>
     <row r="447">
@@ -5345,10 +5345,10 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>95.73547264901748</v>
+        <v>95.73547265023333</v>
       </c>
       <c r="C447" t="n">
-        <v>19.27862314017684</v>
+        <v>19.2786231395506</v>
       </c>
     </row>
     <row r="448">
@@ -5356,10 +5356,10 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>95.6991555679292</v>
+        <v>95.69915556920849</v>
       </c>
       <c r="C448" t="n">
-        <v>19.26527407333348</v>
+        <v>19.26527407268744</v>
       </c>
     </row>
     <row r="449">
@@ -5367,10 +5367,10 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>95.66420784902877</v>
+        <v>95.66420785036998</v>
       </c>
       <c r="C449" t="n">
-        <v>19.25243934227752</v>
+        <v>19.25243934161221</v>
       </c>
     </row>
     <row r="450">
@@ -5378,10 +5378,10 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>95.63057954382995</v>
+        <v>95.63057954523154</v>
       </c>
       <c r="C450" t="n">
-        <v>19.24009961741778</v>
+        <v>19.24009961673371</v>
       </c>
     </row>
     <row r="451">
@@ -5389,10 +5389,10 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>95.59822239874731</v>
+        <v>95.59822240020779</v>
       </c>
       <c r="C451" t="n">
-        <v>19.22823625821561</v>
+        <v>19.22823625751326</v>
       </c>
     </row>
     <row r="452">
@@ -5400,10 +5400,10 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>95.56708980727436</v>
+        <v>95.56708980879225</v>
       </c>
       <c r="C452" t="n">
-        <v>19.21683129151293</v>
+        <v>19.2168312907928</v>
       </c>
     </row>
   </sheetData>

--- a/Data/regression_data/Dwelling_Lifetime/lifetime_regression.xlsx
+++ b/Data/regression_data/Dwelling_Lifetime/lifetime_regression.xlsx
@@ -450,10 +450,10 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>150.2609869156692</v>
+        <v>150.2609869198162</v>
       </c>
       <c r="C2" t="n">
-        <v>45.12462703604107</v>
+        <v>45.12462703419202</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>150.2609841053052</v>
+        <v>150.2609841094522</v>
       </c>
       <c r="C3" t="n">
-        <v>45.12462566011413</v>
+        <v>45.12462565826509</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>150.2609811810055</v>
+        <v>150.2609811851524</v>
       </c>
       <c r="C4" t="n">
-        <v>45.12462422759902</v>
+        <v>45.12462422574999</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>150.260978138151</v>
+        <v>150.2609781422979</v>
       </c>
       <c r="C5" t="n">
-        <v>45.12462273616844</v>
+        <v>45.12462273431942</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>150.2609749719354</v>
+        <v>150.2609749760822</v>
       </c>
       <c r="C6" t="n">
-        <v>45.12462118339936</v>
+        <v>45.12462118155035</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>150.2609716773574</v>
+        <v>150.2609716815042</v>
       </c>
       <c r="C7" t="n">
-        <v>45.12461956676909</v>
+        <v>45.12461956492009</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>150.2609682492131</v>
+        <v>150.2609682533598</v>
       </c>
       <c r="C8" t="n">
-        <v>45.12461788365121</v>
+        <v>45.12461788180222</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>150.2609646820875</v>
+        <v>150.2609646862343</v>
       </c>
       <c r="C9" t="n">
-        <v>45.12461613131129</v>
+        <v>45.1246161294623</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>150.2609609703463</v>
+        <v>150.2609609744931</v>
       </c>
       <c r="C10" t="n">
-        <v>45.12461430690239</v>
+        <v>45.12461430505341</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>150.2609571081265</v>
+        <v>150.2609571122732</v>
       </c>
       <c r="C11" t="n">
-        <v>45.12461240746055</v>
+        <v>45.12461240561158</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>150.2609530893276</v>
+        <v>150.2609530934743</v>
       </c>
       <c r="C12" t="n">
-        <v>45.12461042989986</v>
+        <v>45.12461042805091</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>150.2609489076017</v>
+        <v>150.2609489117484</v>
       </c>
       <c r="C13" t="n">
-        <v>45.12460837100754</v>
+        <v>45.12460836915859</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>150.2609445563436</v>
+        <v>150.2609445604902</v>
       </c>
       <c r="C14" t="n">
-        <v>45.12460622743864</v>
+        <v>45.12460622558971</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>150.2609400286802</v>
+        <v>150.2609400328268</v>
       </c>
       <c r="C15" t="n">
-        <v>45.12460399571067</v>
+        <v>45.12460399386175</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>150.2609353174599</v>
+        <v>150.2609353216064</v>
       </c>
       <c r="C16" t="n">
-        <v>45.1246016721979</v>
+        <v>45.124601670349</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>150.2609304152411</v>
+        <v>150.2609304193876</v>
       </c>
       <c r="C17" t="n">
-        <v>45.1245992531255</v>
+        <v>45.12459925127661</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>150.2609253142805</v>
+        <v>150.260925318427</v>
       </c>
       <c r="C18" t="n">
-        <v>45.12459673456338</v>
+        <v>45.12459673271451</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>150.260920006521</v>
+        <v>150.2609200106674</v>
       </c>
       <c r="C19" t="n">
-        <v>45.12459411241983</v>
+        <v>45.12459411057097</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>150.2609144835787</v>
+        <v>150.2609144877251</v>
       </c>
       <c r="C20" t="n">
-        <v>45.12459138243485</v>
+        <v>45.124591380586</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>150.2609087367299</v>
+        <v>150.2609087408763</v>
       </c>
       <c r="C21" t="n">
-        <v>45.12458854017326</v>
+        <v>45.12458853832442</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>150.2609027568972</v>
+        <v>150.2609027610436</v>
       </c>
       <c r="C22" t="n">
-        <v>45.12458558101744</v>
+        <v>45.12458557916862</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>150.2608965346353</v>
+        <v>150.2608965387816</v>
       </c>
       <c r="C23" t="n">
-        <v>45.12458250015992</v>
+        <v>45.12458249831111</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>150.2608900601158</v>
+        <v>150.260890064262</v>
       </c>
       <c r="C24" t="n">
-        <v>45.12457929259546</v>
+        <v>45.12457929074667</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>150.260883323112</v>
+        <v>150.2608833272582</v>
       </c>
       <c r="C25" t="n">
-        <v>45.12457595311299</v>
+        <v>45.12457595126423</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>150.2608763129825</v>
+        <v>150.2608763171287</v>
       </c>
       <c r="C26" t="n">
-        <v>45.12457247628716</v>
+        <v>45.12457247443841</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>150.2608690186546</v>
+        <v>150.2608690228008</v>
       </c>
       <c r="C27" t="n">
-        <v>45.12456885646945</v>
+        <v>45.12456885462072</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>150.2608614286067</v>
+        <v>150.2608614327528</v>
       </c>
       <c r="C28" t="n">
-        <v>45.12456508777906</v>
+        <v>45.12456508593035</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>150.2608535308501</v>
+        <v>150.2608535349961</v>
       </c>
       <c r="C29" t="n">
-        <v>45.12456116409333</v>
+        <v>45.12456116224465</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>150.2608453129099</v>
+        <v>150.2608453170559</v>
       </c>
       <c r="C30" t="n">
-        <v>45.12455707903781</v>
+        <v>45.12455707718914</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>150.2608367618058</v>
+        <v>150.2608367659517</v>
       </c>
       <c r="C31" t="n">
-        <v>45.12455282597586</v>
+        <v>45.12455282412721</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>150.2608278640309</v>
+        <v>150.2608278681768</v>
       </c>
       <c r="C32" t="n">
-        <v>45.12454839799794</v>
+        <v>45.12454839614932</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>150.2608186055311</v>
+        <v>150.2608186096768</v>
       </c>
       <c r="C33" t="n">
-        <v>45.12454378791033</v>
+        <v>45.12454378606174</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>150.2608089716822</v>
+        <v>150.2608089758279</v>
       </c>
       <c r="C34" t="n">
-        <v>45.12453898822346</v>
+        <v>45.12453898637489</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>150.2607989472674</v>
+        <v>150.2607989514131</v>
       </c>
       <c r="C35" t="n">
-        <v>45.12453399113976</v>
+        <v>45.12453398929121</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>150.2607885164529</v>
+        <v>150.2607885205985</v>
       </c>
       <c r="C36" t="n">
-        <v>45.12452878854094</v>
+        <v>45.12452878669242</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>150.2607776627631</v>
+        <v>150.2607776669086</v>
       </c>
       <c r="C37" t="n">
-        <v>45.12452337197489</v>
+        <v>45.1245233701264</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>150.2607663690542</v>
+        <v>150.2607663731997</v>
       </c>
       <c r="C38" t="n">
-        <v>45.12451773264186</v>
+        <v>45.12451773079339</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>150.2607546174878</v>
+        <v>150.2607546216332</v>
       </c>
       <c r="C39" t="n">
-        <v>45.12451186138022</v>
+        <v>45.12451185953179</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>150.260742389502</v>
+        <v>150.2607423936473</v>
       </c>
       <c r="C40" t="n">
-        <v>45.12450574865157</v>
+        <v>45.12450574680317</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>150.2607296657826</v>
+        <v>150.2607296699279</v>
       </c>
       <c r="C41" t="n">
-        <v>45.12449938452524</v>
+        <v>45.12449938267686</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>150.2607164262324</v>
+        <v>150.2607164303775</v>
       </c>
       <c r="C42" t="n">
-        <v>45.12449275866212</v>
+        <v>45.12449275681378</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>150.2607026499393</v>
+        <v>150.2607026540843</v>
       </c>
       <c r="C43" t="n">
-        <v>45.12448586029795</v>
+        <v>45.12448585844965</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>150.2606883151436</v>
+        <v>150.2606883192885</v>
       </c>
       <c r="C44" t="n">
-        <v>45.12447867822576</v>
+        <v>45.12447867637749</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>150.2606733992035</v>
+        <v>150.2606734033483</v>
       </c>
       <c r="C45" t="n">
-        <v>45.1244712007777</v>
+        <v>45.12447119892946</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>150.2606578785592</v>
+        <v>150.2606578827039</v>
       </c>
       <c r="C46" t="n">
-        <v>45.12446341580607</v>
+        <v>45.12446341395788</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>150.2606417286958</v>
+        <v>150.2606417328405</v>
       </c>
       <c r="C47" t="n">
-        <v>45.1244553106636</v>
+        <v>45.12445530881545</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>150.2606249241049</v>
+        <v>150.2606249282494</v>
       </c>
       <c r="C48" t="n">
-        <v>45.12444687218292</v>
+        <v>45.1244468703348</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>150.2606074382435</v>
+        <v>150.260607442388</v>
       </c>
       <c r="C49" t="n">
-        <v>45.12443808665511</v>
+        <v>45.12443808480704</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>150.260589243493</v>
+        <v>150.2605892476373</v>
       </c>
       <c r="C50" t="n">
-        <v>45.12442893980754</v>
+        <v>45.12442893795951</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>150.260570311115</v>
+        <v>150.2605703152592</v>
       </c>
       <c r="C51" t="n">
-        <v>45.12441941678055</v>
+        <v>45.12441941493258</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>150.2605506112061</v>
+        <v>150.2605506153502</v>
       </c>
       <c r="C52" t="n">
-        <v>45.12440950210345</v>
+        <v>45.12440950025552</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>150.2605301126507</v>
+        <v>150.2605301167947</v>
       </c>
       <c r="C53" t="n">
-        <v>45.1243991796693</v>
+        <v>45.12439917782142</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>150.2605087830718</v>
+        <v>150.2605087872157</v>
       </c>
       <c r="C54" t="n">
-        <v>45.12438843270877</v>
+        <v>45.12438843086094</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>150.2604865887799</v>
+        <v>150.2604865929236</v>
       </c>
       <c r="C55" t="n">
-        <v>45.12437724376291</v>
+        <v>45.12437724191513</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>150.2604634947198</v>
+        <v>150.2604634988633</v>
       </c>
       <c r="C56" t="n">
-        <v>45.12436559465479</v>
+        <v>45.12436559280707</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>150.2604394644152</v>
+        <v>150.2604394685586</v>
       </c>
       <c r="C57" t="n">
-        <v>45.12435346645999</v>
+        <v>45.12435346461233</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>150.2604144599111</v>
+        <v>150.2604144640543</v>
       </c>
       <c r="C58" t="n">
-        <v>45.12434083947584</v>
+        <v>45.12434083762824</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>150.260388441714</v>
+        <v>150.2603884458571</v>
       </c>
       <c r="C59" t="n">
-        <v>45.12432769318941</v>
+        <v>45.12432769134188</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>150.2603613687293</v>
+        <v>150.2603613728723</v>
       </c>
       <c r="C60" t="n">
-        <v>45.12431400624425</v>
+        <v>45.12431400439677</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>150.2603331981968</v>
+        <v>150.2603332023396</v>
       </c>
       <c r="C61" t="n">
-        <v>45.12429975640561</v>
+        <v>45.1242997545582</v>
       </c>
     </row>
     <row r="62">
@@ -1110,10 +1110,10 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>150.2603038856226</v>
+        <v>150.2603038897652</v>
       </c>
       <c r="C62" t="n">
-        <v>45.12428492052444</v>
+        <v>45.1242849186771</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>150.2602733847092</v>
+        <v>150.2602733888516</v>
       </c>
       <c r="C63" t="n">
-        <v>45.1242694744997</v>
+        <v>45.12426947265242</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>150.2602416472825</v>
+        <v>150.2602416514247</v>
       </c>
       <c r="C64" t="n">
-        <v>45.12425339323925</v>
+        <v>45.12425339139205</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>150.2602086232155</v>
+        <v>150.2602086273575</v>
       </c>
       <c r="C65" t="n">
-        <v>45.12423665061913</v>
+        <v>45.12423664877201</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>150.2601742603492</v>
+        <v>150.260174264491</v>
       </c>
       <c r="C66" t="n">
-        <v>45.12421921944108</v>
+        <v>45.12421921759404</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>150.2601385044103</v>
+        <v>150.260138508552</v>
       </c>
       <c r="C67" t="n">
-        <v>45.12420107138841</v>
+        <v>45.12420106954145</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>150.2601012989255</v>
+        <v>150.2601013030669</v>
       </c>
       <c r="C68" t="n">
-        <v>45.12418217697998</v>
+        <v>45.12418217513311</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>150.2600625851321</v>
+        <v>150.2600625892734</v>
       </c>
       <c r="C69" t="n">
-        <v>45.12416250552236</v>
+        <v>45.12416250367557</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>150.2600223018859</v>
+        <v>150.2600223060269</v>
       </c>
       <c r="C70" t="n">
-        <v>45.12414202505995</v>
+        <v>45.12414202321326</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>150.2599803855636</v>
+        <v>150.2599803897043</v>
       </c>
       <c r="C71" t="n">
-        <v>45.12412070232311</v>
+        <v>45.12412070047652</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>150.2599367699633</v>
+        <v>150.2599367741038</v>
       </c>
       <c r="C72" t="n">
-        <v>45.12409850267414</v>
+        <v>45.12409850082764</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>150.2598913861994</v>
+        <v>150.2598913903397</v>
       </c>
       <c r="C73" t="n">
-        <v>45.12407539005099</v>
+        <v>45.1240753882046</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>150.2598441625943</v>
+        <v>150.2598441667343</v>
       </c>
       <c r="C74" t="n">
-        <v>45.12405132690877</v>
+        <v>45.12405132506248</v>
       </c>
     </row>
     <row r="75">
@@ -1253,10 +1253,10 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>150.2597950245647</v>
+        <v>150.2597950287044</v>
       </c>
       <c r="C75" t="n">
-        <v>45.12402627415871</v>
+        <v>45.12402627231253</v>
       </c>
     </row>
     <row r="76">
@@ -1264,10 +1264,10 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>150.2597438945043</v>
+        <v>150.2597438986438</v>
       </c>
       <c r="C76" t="n">
-        <v>45.12400019110476</v>
+        <v>45.12400018925869</v>
       </c>
     </row>
     <row r="77">
@@ -1275,10 +1275,10 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>150.2596906916612</v>
+        <v>150.2596906958003</v>
       </c>
       <c r="C77" t="n">
-        <v>45.12397303537744</v>
+        <v>45.1239730335315</v>
       </c>
     </row>
     <row r="78">
@@ -1286,10 +1286,10 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>150.25963533201</v>
+        <v>150.2596353361489</v>
       </c>
       <c r="C78" t="n">
-        <v>45.12394476286511</v>
+        <v>45.1239447610193</v>
       </c>
     </row>
     <row r="79">
@@ -1297,10 +1297,10 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>150.2595777281199</v>
+        <v>150.2595777322584</v>
       </c>
       <c r="C79" t="n">
-        <v>45.12391532764232</v>
+        <v>45.12391532579664</v>
       </c>
     </row>
     <row r="80">
@@ -1308,10 +1308,10 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>150.2595177890159</v>
+        <v>150.2595177931541</v>
       </c>
       <c r="C80" t="n">
-        <v>45.12388468189524</v>
+        <v>45.12388468004968</v>
       </c>
     </row>
     <row r="81">
@@ -1319,10 +1319,10 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>150.2594554200359</v>
+        <v>150.2594554241738</v>
       </c>
       <c r="C81" t="n">
-        <v>45.12385277584404</v>
+        <v>45.12385277399861</v>
       </c>
     </row>
     <row r="82">
@@ -1330,10 +1330,10 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>150.2593905226806</v>
+        <v>150.2593905268182</v>
       </c>
       <c r="C82" t="n">
-        <v>45.12381955766205</v>
+        <v>45.12381955581677</v>
       </c>
     </row>
     <row r="83">
@@ -1341,10 +1341,10 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>150.2593229944587</v>
+        <v>150.2593229985958</v>
       </c>
       <c r="C83" t="n">
-        <v>45.12378497339166</v>
+        <v>45.12378497154653</v>
       </c>
     </row>
     <row r="84">
@@ -1352,10 +1352,10 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>150.2592527287244</v>
+        <v>150.2592527328612</v>
       </c>
       <c r="C84" t="n">
-        <v>45.12374896685673</v>
+        <v>45.12374896501176</v>
       </c>
     </row>
     <row r="85">
@@ -1363,10 +1363,10 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>150.2591796145097</v>
+        <v>150.2591796186461</v>
       </c>
       <c r="C85" t="n">
-        <v>45.12371147957132</v>
+        <v>45.1237114777265</v>
       </c>
     </row>
     <row r="86">
@@ -1374,10 +1374,10 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>150.259103536349</v>
+        <v>150.259103540485</v>
       </c>
       <c r="C86" t="n">
-        <v>45.12367245064483</v>
+        <v>45.12367244880017</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>150.2590243740967</v>
+        <v>150.2590243782323</v>
       </c>
       <c r="C87" t="n">
-        <v>45.12363181668312</v>
+        <v>45.12363181483863</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>150.2589420027379</v>
+        <v>150.258942006873</v>
       </c>
       <c r="C88" t="n">
-        <v>45.12358951168561</v>
+        <v>45.1235895098413</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>150.2588562921907</v>
+        <v>150.2588562963253</v>
       </c>
       <c r="C89" t="n">
-        <v>45.12354546693818</v>
+        <v>45.12354546509405</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>150.2587671071014</v>
+        <v>150.2587671112356</v>
       </c>
       <c r="C90" t="n">
-        <v>45.12349961090159</v>
+        <v>45.12349960905766</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>150.2586743066306</v>
+        <v>150.2586743107643</v>
       </c>
       <c r="C91" t="n">
-        <v>45.12345186909543</v>
+        <v>45.1234518672517</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>150.2585777442308</v>
+        <v>150.258577748364</v>
       </c>
       <c r="C92" t="n">
-        <v>45.12340216397719</v>
+        <v>45.12340216213366</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>150.2584772674157</v>
+        <v>150.2584772715483</v>
       </c>
       <c r="C93" t="n">
-        <v>45.12335041481644</v>
+        <v>45.12335041297312</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>150.2583727175189</v>
+        <v>150.258372721651</v>
       </c>
       <c r="C94" t="n">
-        <v>45.12329653756384</v>
+        <v>45.12329653572074</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>150.2582639294441</v>
+        <v>150.2582639335757</v>
       </c>
       <c r="C95" t="n">
-        <v>45.1232404447147</v>
+        <v>45.12324044287183</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>150.2581507314044</v>
+        <v>150.2581507355353</v>
       </c>
       <c r="C96" t="n">
-        <v>45.12318204516705</v>
+        <v>45.12318204332442</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>150.2580329446511</v>
+        <v>150.2580329487814</v>
       </c>
       <c r="C97" t="n">
-        <v>45.12312124407377</v>
+        <v>45.12312124223138</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>150.2579103831921</v>
+        <v>150.2579103873219</v>
       </c>
       <c r="C98" t="n">
-        <v>45.12305794268872</v>
+        <v>45.12305794084659</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>150.2577828534982</v>
+        <v>150.2577828576273</v>
       </c>
       <c r="C99" t="n">
-        <v>45.12299203820656</v>
+        <v>45.12299203636469</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>150.257650154198</v>
+        <v>150.2576501583264</v>
       </c>
       <c r="C100" t="n">
-        <v>45.12292342359594</v>
+        <v>45.12292342175434</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>150.2575120757598</v>
+        <v>150.2575120798876</v>
       </c>
       <c r="C101" t="n">
-        <v>45.12285198742584</v>
+        <v>45.12285198558452</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>150.257368400162</v>
+        <v>150.257368404289</v>
       </c>
       <c r="C102" t="n">
-        <v>45.1227776136849</v>
+        <v>45.12277761184388</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>150.2572189005482</v>
+        <v>150.2572189046745</v>
       </c>
       <c r="C103" t="n">
-        <v>45.12270018159319</v>
+        <v>45.12270017975247</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>150.2570633408703</v>
+        <v>150.2570633449959</v>
       </c>
       <c r="C104" t="n">
-        <v>45.12261956540632</v>
+        <v>45.12261956356592</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>150.2569014755157</v>
+        <v>150.2569014796404</v>
       </c>
       <c r="C105" t="n">
-        <v>45.12253563421154</v>
+        <v>45.12253563237147</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>150.2567330489202</v>
+        <v>150.2567330530441</v>
       </c>
       <c r="C106" t="n">
-        <v>45.12244825171541</v>
+        <v>45.12244824987567</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>150.2565577951651</v>
+        <v>150.2565577992881</v>
       </c>
       <c r="C107" t="n">
-        <v>45.12235727602281</v>
+        <v>45.12235727418342</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>150.2563754375577</v>
+        <v>150.2563754416799</v>
       </c>
       <c r="C108" t="n">
-        <v>45.12226255940687</v>
+        <v>45.12226255756784</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>150.2561856881954</v>
+        <v>150.2561856923166</v>
       </c>
       <c r="C109" t="n">
-        <v>45.12216394806946</v>
+        <v>45.12216394623081</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>150.2559882475115</v>
+        <v>150.2559882516318</v>
       </c>
       <c r="C110" t="n">
-        <v>45.12206128189187</v>
+        <v>45.12206128005361</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>150.2557828038034</v>
+        <v>150.2557828079227</v>
       </c>
       <c r="C111" t="n">
-        <v>45.12195439417525</v>
+        <v>45.12195439233739</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>150.2555690327408</v>
+        <v>150.2555690368591</v>
       </c>
       <c r="C112" t="n">
-        <v>45.1218431113704</v>
+        <v>45.12184310953296</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>150.255346596855</v>
+        <v>150.2553466009723</v>
       </c>
       <c r="C113" t="n">
-        <v>45.12172725279652</v>
+        <v>45.12172725095952</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>150.2551151450069</v>
+        <v>150.2551151491231</v>
       </c>
       <c r="C114" t="n">
-        <v>45.12160663034842</v>
+        <v>45.12160662851187</v>
       </c>
     </row>
     <row r="115">
@@ -1693,10 +1693,10 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>150.2548743118336</v>
+        <v>150.2548743159486</v>
       </c>
       <c r="C115" t="n">
-        <v>45.12148104819171</v>
+        <v>45.12148104635563</v>
       </c>
     </row>
     <row r="116">
@@ -1704,10 +1704,10 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>150.2546237171729</v>
+        <v>150.2546237212868</v>
       </c>
       <c r="C116" t="n">
-        <v>45.12135030244549</v>
+        <v>45.12135030060989</v>
       </c>
     </row>
     <row r="117">
@@ -1715,10 +1715,10 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>150.2543629654644</v>
+        <v>150.254362969577</v>
       </c>
       <c r="C117" t="n">
-        <v>45.12121418085211</v>
+        <v>45.121214179017</v>
       </c>
     </row>
     <row r="118">
@@ -1726,10 +1726,10 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>150.2540916451262</v>
+        <v>150.2540916492376</v>
       </c>
       <c r="C118" t="n">
-        <v>45.12107246243329</v>
+        <v>45.1210724605987</v>
       </c>
     </row>
     <row r="119">
@@ -1737,10 +1737,10 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>150.2538093279068</v>
+        <v>150.2538093320169</v>
       </c>
       <c r="C119" t="n">
-        <v>45.1209249171323</v>
+        <v>45.12092491529825</v>
       </c>
     </row>
     <row r="120">
@@ -1748,10 +1748,10 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>150.2535155682106</v>
+        <v>150.2535155723193</v>
       </c>
       <c r="C120" t="n">
-        <v>45.12077130544133</v>
+        <v>45.12077130360784</v>
       </c>
     </row>
     <row r="121">
@@ -1759,10 +1759,10 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>150.2532099023963</v>
+        <v>150.2532099065037</v>
       </c>
       <c r="C121" t="n">
-        <v>45.12061137801373</v>
+        <v>45.12061137618082</v>
       </c>
     </row>
     <row r="122">
@@ -1770,10 +1770,10 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>150.2528918480467</v>
+        <v>150.2528918521526</v>
       </c>
       <c r="C122" t="n">
-        <v>45.1204448752603</v>
+        <v>45.12044487342799</v>
       </c>
     </row>
     <row r="123">
@@ -1781,10 +1781,10 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>150.2525609032093</v>
+        <v>150.2525609073137</v>
       </c>
       <c r="C123" t="n">
-        <v>45.12027152692911</v>
+        <v>45.12027152509741</v>
       </c>
     </row>
     <row r="124">
@@ -1792,10 +1792,10 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>150.2522165456064</v>
+        <v>150.2522165497093</v>
       </c>
       <c r="C124" t="n">
-        <v>45.12009105166806</v>
+        <v>45.12009104983699</v>
       </c>
     </row>
     <row r="125">
@@ -1803,10 +1803,10 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>150.2518582318129</v>
+        <v>150.2518582359141</v>
       </c>
       <c r="C125" t="n">
-        <v>45.11990315656962</v>
+        <v>45.11990315473923</v>
       </c>
     </row>
     <row r="126">
@@ -1814,10 +1814,10 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>150.2514853964009</v>
+        <v>150.2514854005004</v>
       </c>
       <c r="C126" t="n">
-        <v>45.11970753669693</v>
+        <v>45.11970753486722</v>
       </c>
     </row>
     <row r="127">
@@ -1825,10 +1825,10 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>150.2510974510506</v>
+        <v>150.2510974551484</v>
       </c>
       <c r="C127" t="n">
-        <v>45.11950387459044</v>
+        <v>45.11950387276145</v>
       </c>
     </row>
     <row r="128">
@@ -1836,10 +1836,10 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>150.2506937836244</v>
+        <v>150.2506937877205</v>
       </c>
       <c r="C128" t="n">
-        <v>45.11929183975453</v>
+        <v>45.11929183792628</v>
       </c>
     </row>
     <row r="129">
@@ -1847,10 +1847,10 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>150.2502737572044</v>
+        <v>150.2502737612986</v>
       </c>
       <c r="C129" t="n">
-        <v>45.11907108812299</v>
+        <v>45.11907108629549</v>
       </c>
     </row>
     <row r="130">
@@ -1858,10 +1858,10 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>150.2498367090903</v>
+        <v>150.2498367131826</v>
       </c>
       <c r="C130" t="n">
-        <v>45.11884126150274</v>
+        <v>45.11884125967605</v>
       </c>
     </row>
     <row r="131">
@@ -1869,10 +1869,10 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>150.2493819497579</v>
+        <v>150.2493819538482</v>
       </c>
       <c r="C131" t="n">
-        <v>45.1186019869949</v>
+        <v>45.11860198516902</v>
       </c>
     </row>
     <row r="132">
@@ -1880,10 +1880,10 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>150.2489087617746</v>
+        <v>150.2489087658629</v>
       </c>
       <c r="C132" t="n">
-        <v>45.11835287639202</v>
+        <v>45.11835287456699</v>
       </c>
     </row>
     <row r="133">
@@ -1891,10 +1891,10 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>150.2484163986725</v>
+        <v>150.2484164027587</v>
       </c>
       <c r="C133" t="n">
-        <v>45.11809352555089</v>
+        <v>45.11809352372673</v>
       </c>
     </row>
     <row r="134">
@@ -1902,10 +1902,10 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>150.2479040837748</v>
+        <v>150.2479040878588</v>
       </c>
       <c r="C134" t="n">
-        <v>45.11782351373963</v>
+        <v>45.11782351191638</v>
       </c>
     </row>
     <row r="135">
@@ -1913,10 +1913,10 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>150.2473710089757</v>
+        <v>150.2473710130575</v>
       </c>
       <c r="C135" t="n">
-        <v>45.11754240295821</v>
+        <v>45.11754240113591</v>
       </c>
     </row>
     <row r="136">
@@ -1924,10 +1924,10 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>150.2468163334713</v>
+        <v>150.2468163375507</v>
       </c>
       <c r="C136" t="n">
-        <v>45.11724973723124</v>
+        <v>45.11724973540992</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>150.246239182439</v>
+        <v>150.246239186516</v>
       </c>
       <c r="C137" t="n">
-        <v>45.11694504187189</v>
+        <v>45.11694504005158</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>150.2456386456641</v>
+        <v>150.2456386497385</v>
       </c>
       <c r="C138" t="n">
-        <v>45.11662782271583</v>
+        <v>45.11662782089657</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>150.2450137761108</v>
+        <v>150.2450137801826</v>
       </c>
       <c r="C139" t="n">
-        <v>45.11629756532397</v>
+        <v>45.11629756350579</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>150.2443635884368</v>
+        <v>150.2443635925059</v>
       </c>
       <c r="C140" t="n">
-        <v>45.11595373415271</v>
+        <v>45.11595373233565</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>150.2436870574467</v>
+        <v>150.243687061513</v>
       </c>
       <c r="C141" t="n">
-        <v>45.11559577169042</v>
+        <v>45.11559576987452</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>150.2429831164846</v>
+        <v>150.2429831205481</v>
       </c>
       <c r="C142" t="n">
-        <v>45.11522309755875</v>
+        <v>45.11522309574406</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>150.2422506557616</v>
+        <v>150.2422506598221</v>
       </c>
       <c r="C143" t="n">
-        <v>45.11483510757746</v>
+        <v>45.11483510576401</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>150.2414885206161</v>
+        <v>150.2414885246735</v>
       </c>
       <c r="C144" t="n">
-        <v>45.11443117279106</v>
+        <v>45.11443117097892</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>150.2406955097046</v>
+        <v>150.2406955137588</v>
       </c>
       <c r="C145" t="n">
-        <v>45.11401063845617</v>
+        <v>45.11401063664535</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>150.2398703731199</v>
+        <v>150.2398703771708</v>
       </c>
       <c r="C146" t="n">
-        <v>45.11357282298741</v>
+        <v>45.11357282117798</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>150.2390118104339</v>
+        <v>150.2390118144814</v>
       </c>
       <c r="C147" t="n">
-        <v>45.1131170168608</v>
+        <v>45.1131170150528</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>150.2381184686618</v>
+        <v>150.2381184727057</v>
       </c>
       <c r="C148" t="n">
-        <v>45.11264248147243</v>
+        <v>45.11264247966592</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>150.2371889401451</v>
+        <v>150.2371889441854</v>
       </c>
       <c r="C149" t="n">
-        <v>45.11214844795102</v>
+        <v>45.11214844614604</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>150.2362217603498</v>
+        <v>150.2362217643862</v>
       </c>
       <c r="C150" t="n">
-        <v>45.11163411592223</v>
+        <v>45.11163411411884</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>150.2352154055762</v>
+        <v>150.2352154096088</v>
       </c>
       <c r="C151" t="n">
-        <v>45.11109865222297</v>
+        <v>45.11109865042122</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>150.2341682905782</v>
+        <v>150.2341682946067</v>
       </c>
       <c r="C152" t="n">
-        <v>45.11054118956368</v>
+        <v>45.11054118776363</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>150.2330787660859</v>
+        <v>150.2330787701102</v>
       </c>
       <c r="C153" t="n">
-        <v>45.10996082513645</v>
+        <v>45.10996082333816</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>150.2319451162309</v>
+        <v>150.2319451202508</v>
       </c>
       <c r="C154" t="n">
-        <v>45.10935661916691</v>
+        <v>45.10935661737044</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>150.2307655558678</v>
+        <v>150.2307655598833</v>
       </c>
       <c r="C155" t="n">
-        <v>45.10872759340761</v>
+        <v>45.10872759161303</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>150.2295382277895</v>
+        <v>150.2295382318003</v>
       </c>
       <c r="C156" t="n">
-        <v>45.10807272957058</v>
+        <v>45.10807272777795</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>150.2282611998311</v>
+        <v>150.2282612038371</v>
       </c>
       <c r="C157" t="n">
-        <v>45.10739096769668</v>
+        <v>45.10739096590607</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>150.2269324618591</v>
+        <v>150.2269324658601</v>
       </c>
       <c r="C158" t="n">
-        <v>45.10668120445921</v>
+        <v>45.1066812026707</v>
       </c>
     </row>
     <row r="159">
@@ -2177,10 +2177,10 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>150.2255499226402</v>
+        <v>150.2255499266361</v>
       </c>
       <c r="C159" t="n">
-        <v>45.10594229139927</v>
+        <v>45.10594228961291</v>
       </c>
     </row>
     <row r="160">
@@ -2188,10 +2188,10 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>150.2241114065861</v>
+        <v>150.2241114105766</v>
       </c>
       <c r="C160" t="n">
-        <v>45.10517303309001</v>
+        <v>45.1051730313059</v>
       </c>
     </row>
     <row r="161">
@@ -2199,10 +2199,10 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>150.2226146503686</v>
+        <v>150.2226146543537</v>
       </c>
       <c r="C161" t="n">
-        <v>45.10437218522726</v>
+        <v>45.10437218344546</v>
       </c>
     </row>
     <row r="162">
@@ -2210,10 +2210,10 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>150.221057299401</v>
+        <v>150.2210573033804</v>
       </c>
       <c r="C162" t="n">
-        <v>45.10353845264334</v>
+        <v>45.10353845086394</v>
       </c>
     </row>
     <row r="163">
@@ -2221,10 +2221,10 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>150.2194369041792</v>
+        <v>150.2194369081526</v>
       </c>
       <c r="C163" t="n">
-        <v>45.10267048724129</v>
+        <v>45.10267048546437</v>
       </c>
     </row>
     <row r="164">
@@ -2232,10 +2232,10 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>150.2177509164783</v>
+        <v>150.2177509204456</v>
       </c>
       <c r="C164" t="n">
-        <v>45.10176688584625</v>
+        <v>45.10176688407189</v>
       </c>
     </row>
     <row r="165">
@@ -2243,10 +2243,10 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>150.2159966853989</v>
+        <v>150.2159966893599</v>
       </c>
       <c r="C165" t="n">
-        <v>45.10082618797092</v>
+        <v>45.10082618619921</v>
       </c>
     </row>
     <row r="166">
@@ -2254,10 +2254,10 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>150.2141714532566</v>
+        <v>150.2141714572112</v>
       </c>
       <c r="C166" t="n">
-        <v>45.09984687349159</v>
+        <v>45.09984687172262</v>
       </c>
     </row>
     <row r="167">
@@ -2265,10 +2265,10 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>150.2122723513096</v>
+        <v>150.2122723552574</v>
       </c>
       <c r="C167" t="n">
-        <v>45.09882736023142</v>
+        <v>45.09882735846529</v>
       </c>
     </row>
     <row r="168">
@@ -2276,10 +2276,10 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>150.2102963953172</v>
+        <v>150.2102963992581</v>
       </c>
       <c r="C168" t="n">
-        <v>45.09776600144734</v>
+        <v>45.09776599968415</v>
       </c>
     </row>
     <row r="169">
@@ -2287,10 +2287,10 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>150.208240480924</v>
+        <v>150.2082404848578</v>
       </c>
       <c r="C169" t="n">
-        <v>45.09666108321677</v>
+        <v>45.09666108145662</v>
       </c>
     </row>
     <row r="170">
@@ -2298,10 +2298,10 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>150.206101378862</v>
+        <v>150.2061013827883</v>
       </c>
       <c r="C170" t="n">
-        <v>45.0955108217205</v>
+        <v>45.09551081996348</v>
       </c>
     </row>
     <row r="171">
@@ -2309,10 +2309,10 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>150.2038757299638</v>
+        <v>150.2038757338825</v>
       </c>
       <c r="C171" t="n">
-        <v>45.09431336041751</v>
+        <v>45.09431335866374</v>
       </c>
     </row>
     <row r="172">
@@ -2320,10 +2320,10 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>150.2015600399809</v>
+        <v>150.2015600438916</v>
       </c>
       <c r="C172" t="n">
-        <v>45.09306676710788</v>
+        <v>45.09306676535746</v>
       </c>
     </row>
     <row r="173">
@@ -2331,10 +2331,10 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>150.1991506741979</v>
+        <v>150.1991506781003</v>
       </c>
       <c r="C173" t="n">
-        <v>45.09176903087926</v>
+        <v>45.09176902913232</v>
       </c>
     </row>
     <row r="174">
@@ -2342,10 +2342,10 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>150.1966438518364</v>
+        <v>150.1966438557304</v>
       </c>
       <c r="C174" t="n">
-        <v>45.09041805893268</v>
+        <v>45.09041805718933</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>150.1940356402403</v>
+        <v>150.1940356441254</v>
       </c>
       <c r="C175" t="n">
-        <v>45.08901167328305</v>
+        <v>45.08901167154341</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>150.1913219488331</v>
+        <v>150.1913219527093</v>
       </c>
       <c r="C176" t="n">
-        <v>45.08754760732965</v>
+        <v>45.08754760559385</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>150.1884985228414</v>
+        <v>150.1884985267082</v>
       </c>
       <c r="C177" t="n">
-        <v>45.08602350229177</v>
+        <v>45.08602350055995</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>150.1855609367723</v>
+        <v>150.1855609406294</v>
       </c>
       <c r="C178" t="n">
-        <v>45.08443690350438</v>
+        <v>45.08443690177666</v>
       </c>
     </row>
     <row r="179">
@@ -2397,10 +2397,10 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>150.1825045876388</v>
+        <v>150.182504591486</v>
       </c>
       <c r="C179" t="n">
-        <v>45.08278525656876</v>
+        <v>45.08278525484528</v>
       </c>
     </row>
     <row r="180">
@@ -2408,10 +2408,10 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>150.1793246879225</v>
+        <v>150.1793246917593</v>
       </c>
       <c r="C180" t="n">
-        <v>45.08106590335254</v>
+        <v>45.08106590163345</v>
       </c>
     </row>
     <row r="181">
@@ -2419,10 +2419,10 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>150.1760162582628</v>
+        <v>150.1760162620889</v>
       </c>
       <c r="C181" t="n">
-        <v>45.07927607783389</v>
+        <v>45.07927607611933</v>
       </c>
     </row>
     <row r="182">
@@ -2430,10 +2430,10 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>150.1725741198655</v>
+        <v>150.1725741236805</v>
       </c>
       <c r="C182" t="n">
-        <v>45.07741290178377</v>
+        <v>45.0774129000739</v>
       </c>
     </row>
     <row r="183">
@@ -2441,10 +2441,10 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>150.1689928866173</v>
+        <v>150.168992890421</v>
       </c>
       <c r="C183" t="n">
-        <v>45.07547338028073</v>
+        <v>45.0754733785757</v>
       </c>
     </row>
     <row r="184">
@@ -2452,10 +2452,10 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>150.1652669568981</v>
+        <v>150.16526696069</v>
       </c>
       <c r="C184" t="n">
-        <v>45.07345439705192</v>
+        <v>45.07345439535189</v>
       </c>
     </row>
     <row r="185">
@@ -2463,10 +2463,10 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>150.1613905050787</v>
+        <v>150.1613905088585</v>
       </c>
       <c r="C185" t="n">
-        <v>45.07135270963416</v>
+        <v>45.0713527079393</v>
       </c>
     </row>
     <row r="186">
@@ -2474,10 +2474,10 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>150.1573574726929</v>
+        <v>150.1573574764601</v>
       </c>
       <c r="C186" t="n">
-        <v>45.06916494434867</v>
+        <v>45.06916494265916</v>
       </c>
     </row>
     <row r="187">
@@ -2485,10 +2485,10 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>150.1531615592729</v>
+        <v>150.1531615630272</v>
       </c>
       <c r="C187" t="n">
-        <v>45.06688759108277</v>
+        <v>45.06688758939877</v>
       </c>
     </row>
     <row r="188">
@@ -2496,10 +2496,10 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>150.1487962128358</v>
+        <v>150.1487962165766</v>
       </c>
       <c r="C188" t="n">
-        <v>45.06451699787175</v>
+        <v>45.06451699619345</v>
       </c>
     </row>
     <row r="189">
@@ -2507,10 +2507,10 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>150.1442546200077</v>
+        <v>150.1442546237347</v>
       </c>
       <c r="C189" t="n">
-        <v>45.06204936527396</v>
+        <v>45.06204936360155</v>
       </c>
     </row>
     <row r="190">
@@ -2518,10 +2518,10 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>150.1395296957754</v>
+        <v>150.1395296994881</v>
       </c>
       <c r="C190" t="n">
-        <v>45.05948074053191</v>
+        <v>45.0594807388656</v>
       </c>
     </row>
     <row r="191">
@@ -2529,10 +2529,10 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>150.1346140728496</v>
+        <v>150.1346140765476</v>
       </c>
       <c r="C191" t="n">
-        <v>45.05680701151199</v>
+        <v>45.05680700985196</v>
       </c>
     </row>
     <row r="192">
@@ -2540,10 +2540,10 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>150.1295000906286</v>
+        <v>150.1295000943114</v>
       </c>
       <c r="C192" t="n">
-        <v>45.05402390041526</v>
+        <v>45.05402389876173</v>
       </c>
     </row>
     <row r="193">
@@ -2551,10 +2551,10 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>150.1241797837474</v>
+        <v>150.1241797874144</v>
       </c>
       <c r="C193" t="n">
-        <v>45.05112695725165</v>
+        <v>45.05112695560481</v>
       </c>
     </row>
     <row r="194">
@@ -2562,10 +2562,10 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>150.1186448701988</v>
+        <v>150.1186448738496</v>
       </c>
       <c r="C194" t="n">
-        <v>45.04811155306944</v>
+        <v>45.04811155142954</v>
       </c>
     </row>
     <row r="195">
@@ -2573,10 +2573,10 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>150.1128867390117</v>
+        <v>150.1128867426458</v>
       </c>
       <c r="C195" t="n">
-        <v>45.04497287293221</v>
+        <v>45.04497287129946</v>
       </c>
     </row>
     <row r="196">
@@ -2584,10 +2584,10 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>150.1068964374722</v>
+        <v>150.106896441089</v>
       </c>
       <c r="C196" t="n">
-        <v>45.04170590863472</v>
+        <v>45.04170590700935</v>
       </c>
     </row>
     <row r="197">
@@ -2595,10 +2595,10 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>150.1006646578717</v>
+        <v>150.1006646614707</v>
       </c>
       <c r="C197" t="n">
-        <v>45.03830545114938</v>
+        <v>45.03830544953163</v>
       </c>
     </row>
     <row r="198">
@@ -2606,10 +2606,10 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>150.0941817237673</v>
+        <v>150.0941817273479</v>
       </c>
       <c r="C198" t="n">
-        <v>45.03476608279475</v>
+        <v>45.03476608118488</v>
       </c>
     </row>
     <row r="199">
@@ -2617,10 +2617,10 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>150.0874375757382</v>
+        <v>150.0874375792997</v>
       </c>
       <c r="C199" t="n">
-        <v>45.03108216911725</v>
+        <v>45.0310821675155</v>
       </c>
     </row>
     <row r="200">
@@ -2628,10 +2628,10 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>150.080421756622</v>
+        <v>150.080421760164</v>
       </c>
       <c r="C200" t="n">
-        <v>45.02724785047712</v>
+        <v>45.02724784888375</v>
       </c>
     </row>
     <row r="201">
@@ -2639,10 +2639,10 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>150.073123396215</v>
+        <v>150.0731233997367</v>
       </c>
       <c r="C201" t="n">
-        <v>45.0232570333297</v>
+        <v>45.02325703174499</v>
       </c>
     </row>
     <row r="202">
@@ -2650,10 +2650,10 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>150.0655311954188</v>
+        <v>150.0655311989196</v>
       </c>
       <c r="C202" t="n">
-        <v>45.01910338119283</v>
+        <v>45.01910337961706</v>
       </c>
     </row>
     <row r="203">
@@ -2661,10 +2661,10 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>150.0655311954188</v>
+        <v>150.0655311989196</v>
       </c>
       <c r="C203" t="n">
-        <v>45.01910338119283</v>
+        <v>45.01910337961706</v>
       </c>
     </row>
     <row r="204">
@@ -2672,10 +2672,10 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>150.0576334098166</v>
+        <v>150.0576334132959</v>
       </c>
       <c r="C204" t="n">
-        <v>45.01478030529107</v>
+        <v>45.01478030372451</v>
       </c>
     </row>
     <row r="205">
@@ -2683,10 +2683,10 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>150.0494178326634</v>
+        <v>150.0494178361205</v>
       </c>
       <c r="C205" t="n">
-        <v>45.01028095486733</v>
+        <v>45.01028095331028</v>
       </c>
     </row>
     <row r="206">
@@ -2694,10 +2694,10 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>150.0408717772688</v>
+        <v>150.040871780703</v>
       </c>
       <c r="C206" t="n">
-        <v>45.00559820715269</v>
+        <v>45.00559820560546</v>
       </c>
     </row>
     <row r="207">
@@ -2705,10 +2705,10 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>150.0319820587599</v>
+        <v>150.0319820621705</v>
       </c>
       <c r="C207" t="n">
-        <v>45.00072465698471</v>
+        <v>45.00072465544759</v>
       </c>
     </row>
     <row r="208">
@@ -2716,10 +2716,10 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>150.0227349752012</v>
+        <v>150.0227349785874</v>
       </c>
       <c r="C208" t="n">
-        <v>44.99565260606478</v>
+        <v>44.99565260453811</v>
       </c>
     </row>
     <row r="209">
@@ -2727,10 +2727,10 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>150.0131162880572</v>
+        <v>150.0131162914183</v>
       </c>
       <c r="C209" t="n">
-        <v>44.99037405184519</v>
+        <v>44.99037405032928</v>
       </c>
     </row>
     <row r="210">
@@ -2738,10 +2738,10 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>150.003111201978</v>
+        <v>150.0031112053132</v>
       </c>
       <c r="C210" t="n">
-        <v>44.98488067603613</v>
+        <v>44.98488067453133</v>
       </c>
     </row>
     <row r="211">
@@ -2749,10 +2749,10 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>149.9927043438897</v>
+        <v>149.9927043471982</v>
       </c>
       <c r="C211" t="n">
-        <v>44.97916383272359</v>
+        <v>44.97916383123024</v>
       </c>
     </row>
     <row r="212">
@@ -2760,10 +2760,10 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>149.981879741371</v>
+        <v>149.981879744652</v>
       </c>
       <c r="C212" t="n">
-        <v>44.9732145360885</v>
+        <v>44.97321453460695</v>
       </c>
     </row>
     <row r="213">
@@ -2771,10 +2771,10 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>149.9706208002997</v>
+        <v>149.9706208035524</v>
       </c>
       <c r="C213" t="n">
-        <v>44.96702344771829</v>
+        <v>44.96702344624891</v>
       </c>
     </row>
     <row r="214">
@@ -2782,10 +2782,10 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>149.958910281748</v>
+        <v>149.9589102849714</v>
       </c>
       <c r="C214" t="n">
-        <v>44.96058086350172</v>
+        <v>44.96058086204489</v>
       </c>
     </row>
     <row r="215">
@@ -2793,10 +2793,10 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>149.9467302781114</v>
+        <v>149.9467302813047</v>
       </c>
       <c r="C215" t="n">
-        <v>44.95387670009828</v>
+        <v>44.95387669865438</v>
       </c>
     </row>
     <row r="216">
@@ -2804,10 +2804,10 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>149.934062188452</v>
+        <v>149.9340621916143</v>
       </c>
       <c r="C216" t="n">
-        <v>44.94690048097385</v>
+        <v>44.94690047954326</v>
       </c>
     </row>
     <row r="217">
@@ -2815,10 +2815,10 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>149.920886693039</v>
+        <v>149.9208866961694</v>
       </c>
       <c r="C217" t="n">
-        <v>44.93964132199439</v>
+        <v>44.93964132057754</v>
       </c>
     </row>
     <row r="218">
@@ -2826,10 +2826,10 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>149.9071837270701</v>
+        <v>149.9071837301675</v>
       </c>
       <c r="C218" t="n">
-        <v>44.93208791657033</v>
+        <v>44.93208791516761</v>
       </c>
     </row>
     <row r="219">
@@ -2837,10 +2837,10 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>149.8929324535562</v>
+        <v>149.8929324566197</v>
       </c>
       <c r="C219" t="n">
-        <v>44.92422852034409</v>
+        <v>44.92422851895594</v>
       </c>
     </row>
     <row r="220">
@@ -2848,10 +2848,10 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>149.8781112353545</v>
+        <v>149.8781112383831</v>
       </c>
       <c r="C220" t="n">
-        <v>44.91605093541465</v>
+        <v>44.91605093404151</v>
       </c>
     </row>
     <row r="221">
@@ -2859,10 +2859,10 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>149.8626976063351</v>
+        <v>149.8626976093278</v>
       </c>
       <c r="C221" t="n">
-        <v>44.90754249409293</v>
+        <v>44.90754249273525</v>
       </c>
     </row>
     <row r="222">
@@ -2870,10 +2870,10 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>149.8466682416655</v>
+        <v>149.8466682446212</v>
       </c>
       <c r="C222" t="n">
-        <v>44.89869004218308</v>
+        <v>44.8986900408413</v>
       </c>
     </row>
     <row r="223">
@@ -2881,10 +2881,10 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>149.8299989272012</v>
+        <v>149.8299989301188</v>
       </c>
       <c r="C223" t="n">
-        <v>44.88947992178529</v>
+        <v>44.88947992045988</v>
       </c>
     </row>
     <row r="224">
@@ -2892,10 +2892,10 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>149.8126645279694</v>
+        <v>149.8126645308478</v>
       </c>
       <c r="C224" t="n">
-        <v>44.87989795361688</v>
+        <v>44.87989795230834</v>
       </c>
     </row>
     <row r="225">
@@ -2903,10 +2903,10 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>149.794638955736</v>
+        <v>149.794638958574</v>
       </c>
       <c r="C225" t="n">
-        <v>44.8699294188496</v>
+        <v>44.8699294175584</v>
       </c>
     </row>
     <row r="226">
@@ -2914,10 +2914,10 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>149.7758951356454</v>
+        <v>149.7758951384419</v>
       </c>
       <c r="C226" t="n">
-        <v>44.85955904046195</v>
+        <v>44.85955903918861</v>
       </c>
     </row>
     <row r="227">
@@ -2925,10 +2925,10 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>149.7564049719268</v>
+        <v>149.7564049746805</v>
       </c>
       <c r="C227" t="n">
-        <v>44.8487709641072</v>
+        <v>44.84877096285221</v>
       </c>
     </row>
     <row r="228">
@@ -2936,10 +2936,10 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>149.7361393126609</v>
+        <v>149.7361393153707</v>
       </c>
       <c r="C228" t="n">
-        <v>44.83754873849882</v>
+        <v>44.83754873726274</v>
       </c>
     </row>
     <row r="229">
@@ -2947,10 +2947,10 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>149.7150679136035</v>
+        <v>149.7150679162682</v>
       </c>
       <c r="C229" t="n">
-        <v>44.82587529531722</v>
+        <v>44.82587529410056</v>
       </c>
     </row>
     <row r="230">
@@ -2958,10 +2958,10 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>149.6931594010655</v>
+        <v>149.6931594036837</v>
       </c>
       <c r="C230" t="n">
-        <v>44.81373292864289</v>
+        <v>44.8137329274462</v>
       </c>
     </row>
     <row r="231">
@@ -2969,10 +2969,10 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>149.6703812338498</v>
+        <v>149.6703812364203</v>
       </c>
       <c r="C231" t="n">
-        <v>44.80110327392399</v>
+        <v>44.80110327274784</v>
       </c>
     </row>
     <row r="232">
@@ -2980,10 +2980,10 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>149.6466996642519</v>
+        <v>149.6466996667733</v>
       </c>
       <c r="C232" t="n">
-        <v>44.78796728648783</v>
+        <v>44.78796728533278</v>
       </c>
     </row>
     <row r="233">
@@ -2991,10 +2991,10 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>149.6220796981297</v>
+        <v>149.6220797006008</v>
       </c>
       <c r="C233" t="n">
-        <v>44.77430521960857</v>
+        <v>44.77430521847521</v>
       </c>
     </row>
     <row r="234">
@@ -3002,10 +3002,10 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>149.5964850540563</v>
+        <v>149.5964850564755</v>
       </c>
       <c r="C234" t="n">
-        <v>44.76009660214638</v>
+        <v>44.76009660103529</v>
       </c>
     </row>
     <row r="235">
@@ -3013,10 +3013,10 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>149.5698781215692</v>
+        <v>149.5698781239352</v>
       </c>
       <c r="C235" t="n">
-        <v>44.74532021577565</v>
+        <v>44.74532021468745</v>
       </c>
     </row>
     <row r="236">
@@ -3024,10 +3024,10 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>149.542219918538</v>
+        <v>149.5422199208494</v>
       </c>
       <c r="C236" t="n">
-        <v>44.72995407182384</v>
+        <v>44.72995407075914</v>
       </c>
     </row>
     <row r="237">
@@ -3035,10 +3035,10 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>149.5134700476744</v>
+        <v>149.5134700499296</v>
       </c>
       <c r="C237" t="n">
-        <v>44.71397538774526</v>
+        <v>44.71397538670469</v>
       </c>
     </row>
     <row r="238">
@@ -3046,10 +3046,10 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>149.4835866522134</v>
+        <v>149.483586654411</v>
       </c>
       <c r="C238" t="n">
-        <v>44.69736056325854</v>
+        <v>44.69736056224274</v>
       </c>
     </row>
     <row r="239">
@@ -3057,10 +3057,10 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>149.4525263708036</v>
+        <v>149.4525263729421</v>
       </c>
       <c r="C239" t="n">
-        <v>44.68008515618035</v>
+        <v>44.68008515518995</v>
       </c>
     </row>
     <row r="240">
@@ -3068,10 +3068,10 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>149.420244291647</v>
+        <v>149.4202442937248</v>
       </c>
       <c r="C240" t="n">
-        <v>44.66212385799236</v>
+        <v>44.66212385702802</v>
       </c>
     </row>
     <row r="241">
@@ -3079,10 +3079,10 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>149.3866939059365</v>
+        <v>149.3866939079521</v>
       </c>
       <c r="C241" t="n">
-        <v>44.64345046918343</v>
+        <v>44.64345046824582</v>
       </c>
     </row>
     <row r="242">
@@ -3090,10 +3090,10 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>149.3518270606495</v>
+        <v>149.3518270626012</v>
       </c>
       <c r="C242" t="n">
-        <v>44.62403787441407</v>
+        <v>44.62403787350388</v>
       </c>
     </row>
     <row r="243">
@@ -3101,10 +3101,10 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>149.3155939107579</v>
+        <v>149.3155939126441</v>
       </c>
       <c r="C243" t="n">
-        <v>44.60385801755586</v>
+        <v>44.60385801667375</v>
       </c>
     </row>
     <row r="244">
@@ -3112,10 +3112,10 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>149.2779428709299</v>
+        <v>149.2779428727492</v>
       </c>
       <c r="C244" t="n">
-        <v>44.58288187666432</v>
+        <v>44.582881875811</v>
       </c>
     </row>
     <row r="245">
@@ -3123,10 +3123,10 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>149.238820566804</v>
+        <v>149.2388205685545</v>
       </c>
       <c r="C245" t="n">
-        <v>44.56107943895057</v>
+        <v>44.56107943812674</v>
       </c>
     </row>
     <row r="246">
@@ -3134,10 +3134,10 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>149.1981717859259</v>
+        <v>149.1981717876059</v>
       </c>
       <c r="C246" t="n">
-        <v>44.53841967582343</v>
+        <v>44.5384196750298</v>
       </c>
     </row>
     <row r="247">
@@ -3145,10 +3145,10 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>149.1559394284517</v>
+        <v>149.1559394300597</v>
       </c>
       <c r="C247" t="n">
-        <v>44.51487051808144</v>
+        <v>44.51487051731872</v>
       </c>
     </row>
     <row r="248">
@@ -3156,10 +3156,10 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>149.112064457731</v>
+        <v>149.112064459265</v>
       </c>
       <c r="C248" t="n">
-        <v>44.49039883134167</v>
+        <v>44.49039883061058</v>
       </c>
     </row>
     <row r="249">
@@ -3167,10 +3167,10 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>149.0664858508933</v>
+        <v>149.0664858523518</v>
       </c>
       <c r="C249" t="n">
-        <v>44.46497039180091</v>
+        <v>44.46497039110218</v>
       </c>
     </row>
     <row r="250">
@@ -3178,10 +3178,10 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>149.0191405495804</v>
+        <v>149.0191405509616</v>
       </c>
       <c r="C250" t="n">
-        <v>44.43854986243327</v>
+        <v>44.43854986176763</v>
       </c>
     </row>
     <row r="251">
@@ -3189,10 +3189,10 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>148.9699634109733</v>
+        <v>148.9699634122753</v>
       </c>
       <c r="C251" t="n">
-        <v>44.41110076973779</v>
+        <v>44.41110076910597</v>
       </c>
     </row>
     <row r="252">
@@ -3200,10 +3200,10 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>148.9188871592841</v>
+        <v>148.9188871605052</v>
       </c>
       <c r="C252" t="n">
-        <v>44.38258548115953</v>
+        <v>44.38258548056228</v>
       </c>
     </row>
     <row r="253">
@@ -3211,10 +3211,10 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>148.865842337895</v>
+        <v>148.8658423390335</v>
       </c>
       <c r="C253" t="n">
-        <v>44.35296518331786</v>
+        <v>44.3529651827559</v>
       </c>
     </row>
     <row r="254">
@@ -3222,10 +3222,10 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>148.8107572623444</v>
+        <v>148.8107572633984</v>
       </c>
       <c r="C254" t="n">
-        <v>44.32219986118674</v>
+        <v>44.32219986066083</v>
       </c>
     </row>
     <row r="255">
@@ -3233,10 +3233,10 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>148.753557974377</v>
+        <v>148.7535579753448</v>
       </c>
       <c r="C255" t="n">
-        <v>44.29024827838336</v>
+        <v>44.29024827789422</v>
       </c>
     </row>
     <row r="256">
@@ -3244,10 +3244,10 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>148.6941681972963</v>
+        <v>148.694168198176</v>
       </c>
       <c r="C256" t="n">
-        <v>44.25706795873317</v>
+        <v>44.25706795828155</v>
       </c>
     </row>
     <row r="257">
@@ -3255,10 +3255,10 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>148.6325092928726</v>
+        <v>148.6325092936624</v>
       </c>
       <c r="C257" t="n">
-        <v>44.22261516929242</v>
+        <v>44.22261516887905</v>
       </c>
     </row>
     <row r="258">
@@ -3266,10 +3266,10 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>148.5685002200851</v>
+        <v>148.5685002207832</v>
       </c>
       <c r="C258" t="n">
-        <v>44.18684490502175</v>
+        <v>44.18684490464734</v>
       </c>
     </row>
     <row r="259">
@@ -3277,10 +3277,10 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>148.5020574959958</v>
+        <v>148.5020574966004</v>
       </c>
       <c r="C259" t="n">
-        <v>44.14971087531846</v>
+        <v>44.14971087498375</v>
       </c>
     </row>
     <row r="260">
@@ -3288,10 +3288,10 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>148.4330951590759</v>
+        <v>148.4330951595853</v>
       </c>
       <c r="C260" t="n">
-        <v>44.11116549262868</v>
+        <v>44.11116549233436</v>
       </c>
     </row>
     <row r="261">
@@ -3299,10 +3299,10 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>148.3615247353293</v>
+        <v>148.3615247357417</v>
       </c>
       <c r="C261" t="n">
-        <v>44.07115986337512</v>
+        <v>44.0711598631219</v>
       </c>
     </row>
     <row r="262">
@@ -3310,10 +3310,10 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>148.2872552075827</v>
+        <v>148.2872552078963</v>
       </c>
       <c r="C262" t="n">
-        <v>44.02964378145095</v>
+        <v>44.02964378123951</v>
       </c>
     </row>
     <row r="263">
@@ -3321,10 +3321,10 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>148.2101929883364</v>
+        <v>148.2101929885494</v>
       </c>
       <c r="C263" t="n">
-        <v>43.98656572454517</v>
+        <v>43.98656572437621</v>
       </c>
     </row>
     <row r="264">
@@ -3332,10 +3332,10 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>148.1302418965972</v>
+        <v>148.130241896708</v>
       </c>
       <c r="C264" t="n">
-        <v>43.94187285358018</v>
+        <v>43.94187285345433</v>
       </c>
     </row>
     <row r="265">
@@ -3343,10 +3343,10 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>148.0473031391414</v>
+        <v>148.0473031391483</v>
       </c>
       <c r="C265" t="n">
-        <v>43.89551101555751</v>
+        <v>43.89551101547541</v>
       </c>
     </row>
     <row r="266">
@@ -3354,10 +3354,10 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>147.9612752966836</v>
+        <v>147.9612752965849</v>
       </c>
       <c r="C266" t="n">
-        <v>43.84742475012327</v>
+        <v>43.84742475008555</v>
       </c>
     </row>
     <row r="267">
@@ -3365,10 +3365,10 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>147.8720543154549</v>
+        <v>147.8720543152491</v>
       </c>
       <c r="C267" t="n">
-        <v>43.79755730017986</v>
+        <v>43.79755730018709</v>
       </c>
     </row>
     <row r="268">
@@ -3376,10 +3376,10 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>147.779533504725</v>
+        <v>147.7795335044105</v>
       </c>
       <c r="C268" t="n">
-        <v>43.74585062688568</v>
+        <v>43.74585062693844</v>
       </c>
     </row>
     <row r="269">
@@ -3387,10 +3387,10 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>147.683603540828</v>
+        <v>147.6836035404033</v>
       </c>
       <c r="C269" t="n">
-        <v>43.69224542939938</v>
+        <v>43.69224542949821</v>
       </c>
     </row>
     <row r="270">
@@ -3398,10 +3398,10 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>147.5841524782847</v>
+        <v>147.5841524777484</v>
       </c>
       <c r="C270" t="n">
-        <v>43.63668116973903</v>
+        <v>43.63668116988443</v>
       </c>
     </row>
     <row r="271">
@@ -3409,10 +3409,10 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>147.4810657686407</v>
+        <v>147.4810657679914</v>
       </c>
       <c r="C271" t="n">
-        <v>43.57909610314013</v>
+        <v>43.57909610333256</v>
       </c>
     </row>
     <row r="272">
@@ -3420,10 +3420,10 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>147.3742262876682</v>
+        <v>147.3742262869046</v>
       </c>
       <c r="C272" t="n">
-        <v>43.51942731430868</v>
+        <v>43.51942731454857</v>
       </c>
     </row>
     <row r="273">
@@ -3431,10 +3431,10 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>147.2635143716105</v>
+        <v>147.2635143707314</v>
       </c>
       <c r="C273" t="n">
-        <v>43.45761075997685</v>
+        <v>43.45761076026459</v>
       </c>
     </row>
     <row r="274">
@@ -3442,10 +3442,10 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>147.1488078631697</v>
+        <v>147.1488078621739</v>
       </c>
       <c r="C274" t="n">
-        <v>43.39358131817833</v>
+        <v>43.39358131851427</v>
       </c>
     </row>
     <row r="275">
@@ -3453,10 +3453,10 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>147.0299821679696</v>
+        <v>147.0299821668561</v>
       </c>
       <c r="C275" t="n">
-        <v>43.32727284466849</v>
+        <v>43.32727284505292</v>
       </c>
     </row>
     <row r="276">
@@ -3464,10 +3464,10 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>146.9069103222463</v>
+        <v>146.906910321014</v>
       </c>
       <c r="C276" t="n">
-        <v>43.25861823692043</v>
+        <v>43.25861823735358</v>
       </c>
     </row>
     <row r="277">
@@ -3475,10 +3475,10 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>146.7794630725411</v>
+        <v>146.7794630711894</v>
       </c>
       <c r="C277" t="n">
-        <v>43.18754950613152</v>
+        <v>43.18754950661357</v>
       </c>
     </row>
     <row r="278">
@@ -3486,10 +3486,10 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>146.6475089681929</v>
+        <v>146.6475089667209</v>
       </c>
       <c r="C278" t="n">
-        <v>43.11399785767565</v>
+        <v>43.11399785820674</v>
       </c>
     </row>
     <row r="279">
@@ -3497,10 +3497,10 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>146.510914467438</v>
+        <v>146.5109144658452</v>
       </c>
       <c r="C279" t="n">
-        <v>43.03789378043439</v>
+        <v>43.03789378101456</v>
       </c>
     </row>
     <row r="280">
@@ -3508,10 +3508,10 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>146.3695440579439</v>
+        <v>146.3695440562299</v>
       </c>
       <c r="C280" t="n">
-        <v>42.95916714543395</v>
+        <v>42.95916714606321</v>
       </c>
     </row>
     <row r="281">
@@ -3519,10 +3519,10 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>146.2232603926078</v>
+        <v>146.2232603907723</v>
       </c>
       <c r="C281" t="n">
-        <v>42.87774731420557</v>
+        <v>42.87774731488383</v>
       </c>
     </row>
     <row r="282">
@@ -3530,10 +3530,10 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>146.0719244414563</v>
+        <v>146.071924439499</v>
       </c>
       <c r="C282" t="n">
-        <v>42.79356325727223</v>
+        <v>42.79356325799933</v>
       </c>
     </row>
     <row r="283">
@@ -3541,10 +3541,10 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>145.9153956604789</v>
+        <v>145.9153956583999</v>
       </c>
       <c r="C283" t="n">
-        <v>42.70654368314621</v>
+        <v>42.70654368392191</v>
       </c>
     </row>
     <row r="284">
@@ -3552,10 +3552,10 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>145.7535321782237</v>
+        <v>145.7535321760232</v>
       </c>
       <c r="C284" t="n">
-        <v>42.61661717819724</v>
+        <v>42.61661717902123</v>
       </c>
     </row>
     <row r="285">
@@ -3563,10 +3563,10 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>145.5861910009619</v>
+        <v>145.5861909986403</v>
       </c>
       <c r="C285" t="n">
-        <v>42.5237123577215</v>
+        <v>42.52371235859337</v>
       </c>
     </row>
     <row r="286">
@@ -3574,10 +3574,10 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>145.4132282372122</v>
+        <v>145.4132282347699</v>
       </c>
       <c r="C286" t="n">
-        <v>42.42775802850542</v>
+        <v>42.42775802942467</v>
       </c>
     </row>
     <row r="287">
@@ -3585,10 +3585,10 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>145.2344993423777</v>
+        <v>145.2344993398157</v>
       </c>
       <c r="C287" t="n">
-        <v>42.32868336313551</v>
+        <v>42.32868336410153</v>
       </c>
     </row>
     <row r="288">
@@ -3596,10 +3596,10 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>145.0498593842133</v>
+        <v>145.0498593815325</v>
       </c>
       <c r="C288" t="n">
-        <v>42.22641808625604</v>
+        <v>42.22641808726814</v>
       </c>
     </row>
     <row r="289">
@@ -3607,10 +3607,10 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>144.8591633297837</v>
+        <v>144.8591633269853</v>
       </c>
       <c r="C289" t="n">
-        <v>42.12089267291902</v>
+        <v>42.1208926739764</v>
       </c>
     </row>
     <row r="290">
@@ -3618,10 +3618,10 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>144.6622663545157</v>
+        <v>144.6622663516011</v>
       </c>
       <c r="C290" t="n">
-        <v>42.01203855910629</v>
+        <v>42.01203856020804</v>
       </c>
     </row>
     <row r="291">
@@ -3629,10 +3629,10 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>144.4590241738708</v>
+        <v>144.4590241708417</v>
       </c>
       <c r="C291" t="n">
-        <v>41.89978836443071</v>
+        <v>41.89978836557579</v>
       </c>
     </row>
     <row r="292">
@@ -3640,10 +3640,10 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>144.2492933980777</v>
+        <v>144.2492933949361</v>
       </c>
       <c r="C292" t="n">
-        <v>41.7840761269422</v>
+        <v>41.78407612812948</v>
       </c>
     </row>
     <row r="293">
@@ -3651,10 +3651,10 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>144.0329319102651</v>
+        <v>144.0329319070132</v>
       </c>
       <c r="C293" t="n">
-        <v>41.66483754987509</v>
+        <v>41.66483755110333</v>
       </c>
     </row>
     <row r="294">
@@ -3662,10 +3662,10 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>143.8097992682198</v>
+        <v>143.8097992648601</v>
       </c>
       <c r="C294" t="n">
-        <v>41.54201026007516</v>
+        <v>41.54201026134297</v>
       </c>
     </row>
     <row r="295">
@@ -3673,10 +3673,10 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>143.5797571298652</v>
+        <v>143.5797571264004</v>
       </c>
       <c r="C295" t="n">
-        <v>41.41553407773829</v>
+        <v>41.41553407904419</v>
       </c>
     </row>
     <row r="296">
@@ -3684,10 +3684,10 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>143.342669702414</v>
+        <v>143.3426696988471</v>
       </c>
       <c r="C296" t="n">
-        <v>41.28535129697821</v>
+        <v>41.28535129832056</v>
       </c>
     </row>
     <row r="297">
@@ -3695,10 +3695,10 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>143.098404214985</v>
+        <v>143.0984042113195</v>
       </c>
       <c r="C297" t="n">
-        <v>41.1514069766181</v>
+        <v>41.15140697799515</v>
       </c>
     </row>
     <row r="298">
@@ -3706,10 +3706,10 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>142.8468314143022</v>
+        <v>142.8468314105417</v>
       </c>
       <c r="C298" t="n">
-        <v>41.01364924047101</v>
+        <v>41.01364924188089</v>
       </c>
     </row>
     <row r="299">
@@ -3717,10 +3717,10 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>142.5878260828989</v>
+        <v>142.5878260790473</v>
       </c>
       <c r="C299" t="n">
-        <v>40.87202958623688</v>
+        <v>40.87202958767759</v>
       </c>
     </row>
     <row r="300">
@@ -3728,10 +3728,10 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>142.3212675790474</v>
+        <v>142.3212675751091</v>
       </c>
       <c r="C300" t="n">
-        <v>40.7265032020013</v>
+        <v>40.72650320347069</v>
       </c>
     </row>
     <row r="301">
@@ -3739,10 +3739,10 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>142.0470403974077</v>
+        <v>142.0470403933871</v>
       </c>
       <c r="C301" t="n">
-        <v>40.57702928917323</v>
+        <v>40.57702929066904</v>
       </c>
     </row>
     <row r="302">
@@ -3750,10 +3750,10 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>141.7650347491552</v>
+        <v>141.7650347450573</v>
       </c>
       <c r="C302" t="n">
-        <v>40.42357139054696</v>
+        <v>40.42357139206681</v>
       </c>
     </row>
     <row r="303">
@@ -3761,10 +3761,10 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>141.4751471600962</v>
+        <v>141.4751471559264</v>
       </c>
       <c r="C303" t="n">
-        <v>40.26609772201981</v>
+        <v>40.26609772356117</v>
       </c>
     </row>
     <row r="304">
@@ -3772,10 +3772,10 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>141.1772810850163</v>
+        <v>141.17728108078</v>
       </c>
       <c r="C304" t="n">
-        <v>40.10458150634162</v>
+        <v>40.10458150790185</v>
       </c>
     </row>
     <row r="305">
@@ -3783,10 +3783,10 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>140.8713475362346</v>
+        <v>140.8713475319377</v>
       </c>
       <c r="C305" t="n">
-        <v>39.93900130711876</v>
+        <v>39.93900130869509</v>
       </c>
     </row>
     <row r="306">
@@ -3794,10 +3794,10 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>140.5572657240534</v>
+        <v>140.5572657197022</v>
       </c>
       <c r="C306" t="n">
-        <v>39.76934136114411</v>
+        <v>39.76934136273367</v>
       </c>
     </row>
     <row r="307">
@@ -3805,10 +3805,10 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>140.2349637065059</v>
+        <v>140.2349637021069</v>
       </c>
       <c r="C307" t="n">
-        <v>39.59559190697922</v>
+        <v>39.59559190857901</v>
       </c>
     </row>
     <row r="308">
@@ -3816,10 +3816,10 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>139.9043790455095</v>
+        <v>139.9043790410696</v>
       </c>
       <c r="C308" t="n">
-        <v>39.41774950757677</v>
+        <v>39.41774950918369</v>
       </c>
     </row>
     <row r="309">
@@ -3827,10 +3827,10 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>139.5654594662422</v>
+        <v>139.5654594617685</v>
       </c>
       <c r="C309" t="n">
-        <v>39.2358173646042</v>
+        <v>39.23581736621503</v>
       </c>
     </row>
     <row r="310">
@@ -3838,10 +3838,10 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>139.2181635162657</v>
+        <v>139.2181635117657</v>
       </c>
       <c r="C310" t="n">
-        <v>39.04980562201428</v>
+        <v>39.04980562362573</v>
       </c>
     </row>
     <row r="311">
@@ -3849,10 +3849,10 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>138.8624612206387</v>
+        <v>138.8624612161202</v>
       </c>
       <c r="C311" t="n">
-        <v>38.85973165630991</v>
+        <v>38.85973165791858</v>
       </c>
     </row>
     <row r="312">
@@ -3860,10 +3860,10 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>138.4983347289884</v>
+        <v>138.4983347244594</v>
       </c>
       <c r="C312" t="n">
-        <v>38.66562035086932</v>
+        <v>38.66562035247174</v>
       </c>
     </row>
     <row r="313">
@@ -3871,10 +3871,10 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>138.1257789502497</v>
+        <v>138.1257789457184</v>
       </c>
       <c r="C313" t="n">
-        <v>38.46750435163917</v>
+        <v>38.46750435323182</v>
       </c>
     </row>
     <row r="314">
@@ -3882,10 +3882,10 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>137.7448021705472</v>
+        <v>137.7448021660222</v>
       </c>
       <c r="C314" t="n">
-        <v>38.26542430146745</v>
+        <v>38.26542430304671</v>
       </c>
     </row>
     <row r="315">
@@ -3893,10 +3893,10 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>137.3554266494786</v>
+        <v>137.3554266449687</v>
       </c>
       <c r="C315" t="n">
-        <v>38.05942905033941</v>
+        <v>38.05942905190165</v>
       </c>
     </row>
     <row r="316">
@@ -3904,10 +3904,10 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>136.9576891898763</v>
+        <v>136.9576891853904</v>
       </c>
       <c r="C316" t="n">
-        <v>37.84957583880047</v>
+        <v>37.84957584034199</v>
       </c>
     </row>
     <row r="317">
@@ -3915,10 +3915,10 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>136.5516416759771</v>
+        <v>136.5516416715245</v>
       </c>
       <c r="C317" t="n">
-        <v>37.63593045190123</v>
+        <v>37.63593045341833</v>
       </c>
     </row>
     <row r="318">
@@ -3926,10 +3926,10 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>136.137351574821</v>
+        <v>136.1373515704108</v>
       </c>
       <c r="C318" t="n">
-        <v>37.4185673410846</v>
+        <v>37.41856734257354</v>
       </c>
     </row>
     <row r="319">
@@ -3937,10 +3937,10 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>135.7149023956385</v>
+        <v>135.7149023912804</v>
       </c>
       <c r="C319" t="n">
-        <v>37.1975697115539</v>
+        <v>37.19756971301096</v>
       </c>
     </row>
     <row r="320">
@@ -3948,10 +3948,10 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>135.2843941019747</v>
+        <v>135.284394097678</v>
       </c>
       <c r="C320" t="n">
-        <v>36.97302957281555</v>
+        <v>36.97302957423703</v>
       </c>
     </row>
     <row r="321">
@@ -3959,10 +3959,10 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>134.8459434713372</v>
+        <v>134.8459434671117</v>
       </c>
       <c r="C321" t="n">
-        <v>36.74504775028007</v>
+        <v>36.74504775166228</v>
       </c>
     </row>
     <row r="322">
@@ -3970,10 +3970,10 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>134.3996843972617</v>
+        <v>134.399684393117</v>
       </c>
       <c r="C322" t="n">
-        <v>36.51373385603144</v>
+        <v>36.51373385737076</v>
       </c>
     </row>
     <row r="323">
@@ -3981,10 +3981,10 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>133.9457681288446</v>
+        <v>133.9457681247904</v>
       </c>
       <c r="C323" t="n">
-        <v>36.2792062171361</v>
+        <v>36.27920621842895</v>
       </c>
     </row>
     <row r="324">
@@ -3992,10 +3992,10 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>133.4843634430255</v>
+        <v>133.4843634390715</v>
       </c>
       <c r="C324" t="n">
-        <v>36.04159176015733</v>
+        <v>36.04159176140021</v>
       </c>
     </row>
     <row r="325">
@@ -4003,10 +4003,10 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>133.0156567451901</v>
+        <v>133.0156567413459</v>
       </c>
       <c r="C325" t="n">
-        <v>35.80102585086727</v>
+        <v>35.80102585205677</v>
       </c>
     </row>
     <row r="326">
@@ -4014,10 +4014,10 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>132.5398520940285</v>
+        <v>132.5398520903035</v>
       </c>
       <c r="C326" t="n">
-        <v>35.55765208850345</v>
+        <v>35.55765208963627</v>
       </c>
     </row>
     <row r="327">
@@ -4025,10 +4025,10 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>132.0571711470075</v>
+        <v>132.0571711434111</v>
       </c>
       <c r="C327" t="n">
-        <v>35.31162205429685</v>
+        <v>35.31162205536981</v>
       </c>
     </row>
     <row r="328">
@@ -4036,10 +4036,10 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>131.5678530233107</v>
+        <v>131.5678530198521</v>
       </c>
       <c r="C328" t="n">
-        <v>35.06309501439952</v>
+        <v>35.06309501540956</v>
       </c>
     </row>
     <row r="329">
@@ -4047,10 +4047,10 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>131.0721540816517</v>
+        <v>131.0721540783399</v>
       </c>
       <c r="C329" t="n">
-        <v>34.81223757775697</v>
+        <v>34.81223757870121</v>
       </c>
     </row>
     <row r="330">
@@ -4058,10 +4058,10 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>130.5703476109845</v>
+        <v>130.5703476078282</v>
       </c>
       <c r="C330" t="n">
-        <v>34.55922330989902</v>
+        <v>34.55922331077471</v>
       </c>
     </row>
     <row r="331">
@@ -4069,10 +4069,10 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>130.0627234327973</v>
+        <v>130.0627234298049</v>
       </c>
       <c r="C331" t="n">
-        <v>34.30423230405567</v>
+        <v>34.30423230486027</v>
       </c>
     </row>
     <row r="332">
@@ -4080,10 +4080,10 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>129.5495874143984</v>
+        <v>129.5495874115781</v>
       </c>
       <c r="C332" t="n">
-        <v>34.04745071143763</v>
+        <v>34.0474507121688</v>
       </c>
     </row>
     <row r="333">
@@ -4091,10 +4091,10 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>129.0312608933508</v>
+        <v>129.0312608907101</v>
       </c>
       <c r="C333" t="n">
-        <v>33.78907023294551</v>
+        <v>33.78907023360107</v>
       </c>
     </row>
     <row r="334">
@@ -4102,10 +4102,10 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>128.5080800140051</v>
+        <v>128.5080800115515</v>
       </c>
       <c r="C334" t="n">
-        <v>33.52928757498304</v>
+        <v>33.52928757556104</v>
       </c>
     </row>
     <row r="335">
@@ -4113,10 +4113,10 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>127.9803949778863</v>
+        <v>127.9803949756267</v>
       </c>
       <c r="C335" t="n">
-        <v>33.26830387244054</v>
+        <v>33.26830387293926</v>
       </c>
     </row>
     <row r="336">
@@ -4124,10 +4124,10 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>127.448569210509</v>
+        <v>127.4485692084497</v>
       </c>
       <c r="C336" t="n">
-        <v>33.00632408227851</v>
+        <v>33.00632408269647</v>
       </c>
     </row>
     <row r="337">
@@ -4135,10 +4135,10 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>126.9129784480164</v>
+        <v>126.9129784461634</v>
       </c>
       <c r="C337" t="n">
-        <v>32.74355635147239</v>
+        <v>32.74355635180835</v>
       </c>
     </row>
     <row r="338">
@@ -4146,10 +4146,10 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>126.374009747847</v>
+        <v>126.3740097462056</v>
       </c>
       <c r="C338" t="n">
-        <v>32.48021136337225</v>
+        <v>32.48021136362518</v>
       </c>
     </row>
     <row r="339">
@@ -4157,10 +4157,10 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>125.8320604284139</v>
+        <v>125.8320604269889</v>
       </c>
       <c r="C339" t="n">
-        <v>32.21650166678008</v>
+        <v>32.21650166694926</v>
       </c>
     </row>
     <row r="340">
@@ -4168,10 +4168,10 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>125.2875369435341</v>
+        <v>125.2875369423297</v>
       </c>
       <c r="C340" t="n">
-        <v>31.95264099224909</v>
+        <v>31.95264099233399</v>
       </c>
     </row>
     <row r="341">
@@ -4179,10 +4179,10 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>124.7408536980418</v>
+        <v>124.7408536970617</v>
       </c>
       <c r="C341" t="n">
-        <v>31.68884356025829</v>
+        <v>31.6888435602587</v>
       </c>
     </row>
     <row r="342">
@@ -4190,10 +4190,10 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>124.1924318116653</v>
+        <v>124.1924318109124</v>
       </c>
       <c r="C342" t="n">
-        <v>31.42532338601251</v>
+        <v>31.42532338592843</v>
       </c>
     </row>
     <row r="343">
@@ -4201,10 +4201,10 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>123.6426978388153</v>
+        <v>123.6426978382919</v>
       </c>
       <c r="C343" t="n">
-        <v>31.16229358565674</v>
+        <v>31.16229358548844</v>
       </c>
     </row>
     <row r="344">
@@ -4212,10 +4212,10 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>123.0920824524307</v>
+        <v>123.0920824521386</v>
       </c>
       <c r="C344" t="n">
-        <v>30.8999656886777</v>
+        <v>30.89996568842571</v>
       </c>
     </row>
     <row r="345">
@@ -4223,10 +4223,10 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>122.5410191004302</v>
+        <v>122.5410191003703</v>
       </c>
       <c r="C345" t="n">
-        <v>30.63854896119232</v>
+        <v>30.63854896085742</v>
       </c>
     </row>
     <row r="346">
@@ -4234,10 +4234,10 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>121.9899426436315</v>
+        <v>121.9899426438042</v>
       </c>
       <c r="C346" t="n">
-        <v>30.37824974469491</v>
+        <v>30.37824974427812</v>
       </c>
     </row>
     <row r="347">
@@ -4245,10 +4245,10 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>121.439287984211</v>
+        <v>121.439287984616</v>
       </c>
       <c r="C347" t="n">
-        <v>30.11927081465424</v>
+        <v>30.11927081415682</v>
       </c>
     </row>
     <row r="348">
@@ -4256,10 +4256,10 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>120.8894886938871</v>
+        <v>120.8894886945233</v>
       </c>
       <c r="C348" t="n">
-        <v>29.86181076312185</v>
+        <v>29.86181076254529</v>
       </c>
     </row>
     <row r="349">
@@ -4267,10 +4267,10 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>120.3409756510108</v>
+        <v>120.3409756518766</v>
       </c>
       <c r="C349" t="n">
-        <v>29.60606340923756</v>
+        <v>29.60606340858358</v>
       </c>
     </row>
     <row r="350">
@@ -4278,10 +4278,10 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>119.7941756956478</v>
+        <v>119.794175696741</v>
       </c>
       <c r="C350" t="n">
-        <v>29.35221724120193</v>
+        <v>29.35221724047246</v>
       </c>
     </row>
     <row r="351">
@@ -4289,10 +4289,10 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>119.2495103115281</v>
+        <v>119.2495103128457</v>
       </c>
       <c r="C351" t="n">
-        <v>29.10045489293451</v>
+        <v>29.10045489213167</v>
       </c>
     </row>
     <row r="352">
@@ -4300,10 +4300,10 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>118.7073943434349</v>
+        <v>118.7073943449734</v>
       </c>
       <c r="C352" t="n">
-        <v>28.85095265825604</v>
+        <v>28.85095265738215</v>
       </c>
     </row>
     <row r="353">
@@ -4311,10 +4311,10 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>118.1682347582036</v>
+        <v>118.1682347599587</v>
       </c>
       <c r="C353" t="n">
-        <v>28.60388004502949</v>
+        <v>28.60388004408704</v>
       </c>
     </row>
     <row r="354">
@@ -4322,10 +4322,10 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>117.632429457012</v>
+        <v>117.632429458979</v>
       </c>
       <c r="C354" t="n">
-        <v>28.3593993712743</v>
+        <v>28.35939937026595</v>
       </c>
     </row>
     <row r="355">
@@ -4333,10 +4333,10 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>117.1003661460781</v>
+        <v>117.1003661482517</v>
       </c>
       <c r="C355" t="n">
-        <v>28.11766540483858</v>
+        <v>28.11766540376715</v>
       </c>
     </row>
     <row r="356">
@@ -4344,10 +4344,10 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>116.5724212722395</v>
+        <v>116.5724212746139</v>
       </c>
       <c r="C356" t="n">
-        <v>27.87882504777982</v>
+        <v>27.87882504664826</v>
       </c>
     </row>
     <row r="357">
@@ -4355,10 +4355,10 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>116.0489590291948</v>
+        <v>116.0489590317638</v>
       </c>
       <c r="C357" t="n">
-        <v>27.64301706617391</v>
+        <v>27.64301706498527</v>
       </c>
     </row>
     <row r="358">
@@ -4366,10 +4366,10 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>115.53033043944</v>
+        <v>115.5303304421966</v>
       </c>
       <c r="C358" t="n">
-        <v>27.41037186564968</v>
+        <v>27.41037186440714</v>
       </c>
     </row>
     <row r="359">
@@ -4377,10 +4377,10 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>115.0168725161492</v>
+        <v>115.0168725190863</v>
       </c>
       <c r="C359" t="n">
-        <v>27.18101131253807</v>
+        <v>27.18101131124489</v>
       </c>
     </row>
     <row r="360">
@@ -4388,10 +4388,10 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>114.5089075084466</v>
+        <v>114.5089075115567</v>
       </c>
       <c r="C360" t="n">
-        <v>26.95504860013559</v>
+        <v>26.95504859879511</v>
       </c>
     </row>
     <row r="361">
@@ -4399,10 +4399,10 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>114.0067422326923</v>
+        <v>114.0067422359673</v>
       </c>
       <c r="C361" t="n">
-        <v>26.73258815921635</v>
+        <v>26.73258815783198</v>
       </c>
     </row>
     <row r="362">
@@ -4410,10 +4410,10 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>113.5106674915874</v>
+        <v>113.510667495019</v>
       </c>
       <c r="C362" t="n">
-        <v>26.51372561158855</v>
+        <v>26.51372561016374</v>
       </c>
     </row>
     <row r="363">
@@ -4421,10 +4421,10 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>113.0209575820949</v>
+        <v>113.0209575856747</v>
       </c>
       <c r="C363" t="n">
-        <v>26.29854776518334</v>
+        <v>26.29854776372157</v>
       </c>
     </row>
     <row r="364">
@@ -4432,10 +4432,10 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>112.5378698923823</v>
+        <v>112.5378698961014</v>
       </c>
       <c r="C364" t="n">
-        <v>26.08713264888886</v>
+        <v>26.08713264739363</v>
       </c>
     </row>
     <row r="365">
@@ -4443,10 +4443,10 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>112.0616445872355</v>
+        <v>112.0616445910849</v>
       </c>
       <c r="C365" t="n">
-        <v>25.87954958510185</v>
+        <v>25.87954958357665</v>
       </c>
     </row>
     <row r="366">
@@ -4454,10 +4454,10 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>111.5925043806753</v>
+        <v>111.5925043846458</v>
       </c>
       <c r="C366" t="n">
-        <v>25.67585929776359</v>
+        <v>25.67585929621195</v>
       </c>
     </row>
     <row r="367">
@@ -4465,10 +4465,10 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>111.1306543938369</v>
+        <v>111.1306543979193</v>
       </c>
       <c r="C367" t="n">
-        <v>25.4761140534786</v>
+        <v>25.47611405190397</v>
       </c>
     </row>
     <row r="368">
@@ -4476,10 +4476,10 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>110.6762820955549</v>
+        <v>110.6762820997397</v>
       </c>
       <c r="C368" t="n">
-        <v>25.28035783317996</v>
+        <v>25.28035783158581</v>
       </c>
     </row>
     <row r="369">
@@ -4487,10 +4487,10 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>110.2295573225375</v>
+        <v>110.2295573268154</v>
       </c>
       <c r="C369" t="n">
-        <v>25.0886265317077</v>
+        <v>25.08862653009743</v>
       </c>
     </row>
     <row r="370">
@@ -4498,10 +4498,10 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>109.790632375519</v>
+        <v>109.7906323798804</v>
       </c>
       <c r="C370" t="n">
-        <v>24.90094818260079</v>
+        <v>24.90094818097773</v>
       </c>
     </row>
     <row r="371">
@@ -4509,10 +4509,10 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>109.3596421873453</v>
+        <v>109.3596421917808</v>
       </c>
       <c r="C371" t="n">
-        <v>24.71734320537099</v>
+        <v>24.71734320373846</v>
       </c>
     </row>
     <row r="372">
@@ -4520,10 +4520,10 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>108.9367045585879</v>
+        <v>108.9367045630881</v>
       </c>
       <c r="C372" t="n">
-        <v>24.53782467252373</v>
+        <v>24.53782467088492</v>
       </c>
     </row>
     <row r="373">
@@ -4531,10 +4531,10 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>108.5219204559794</v>
+        <v>108.521920460535</v>
       </c>
       <c r="C373" t="n">
-        <v>24.36239859361546</v>
+        <v>24.36239859197353</v>
       </c>
     </row>
     <row r="374">
@@ -4542,10 +4542,10 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>108.1153743687374</v>
+        <v>108.1153743733392</v>
       </c>
       <c r="C374" t="n">
-        <v>24.19106421368735</v>
+        <v>24.19106421204534</v>
       </c>
     </row>
     <row r="375">
@@ -4553,10 +4553,10 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>107.7171347176738</v>
+        <v>107.7171347223127</v>
       </c>
       <c r="C375" t="n">
-        <v>24.02381432348664</v>
+        <v>24.02381432184751</v>
       </c>
     </row>
     <row r="376">
@@ -4564,10 +4564,10 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>107.3272543118834</v>
+        <v>107.3272543165505</v>
       </c>
       <c r="C376" t="n">
-        <v>23.8606355789792</v>
+        <v>23.86063557734582</v>
       </c>
     </row>
     <row r="377">
@@ -4575,10 +4575,10 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>106.9457708477613</v>
+        <v>106.9457708524479</v>
       </c>
       <c r="C377" t="n">
-        <v>23.70150882776527</v>
+        <v>23.70150882614039</v>
       </c>
     </row>
     <row r="378">
@@ -4586,10 +4586,10 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>106.5727074451048</v>
+        <v>106.5727074498022</v>
       </c>
       <c r="C378" t="n">
-        <v>23.54640944013295</v>
+        <v>23.54640943851922</v>
       </c>
     </row>
     <row r="379">
@@ -4597,10 +4597,10 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>106.2080732151167</v>
+        <v>106.2080732198168</v>
       </c>
       <c r="C379" t="n">
-        <v>23.395307642618</v>
+        <v>23.39530764101798</v>
       </c>
     </row>
     <row r="380">
@@ -4608,10 +4608,10 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>105.8518638552326</v>
+        <v>105.8518638599273</v>
       </c>
       <c r="C380" t="n">
-        <v>23.24816885208128</v>
+        <v>23.24816885049737</v>
       </c>
     </row>
     <row r="381">
@@ -4619,10 +4619,10 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>105.5040622658374</v>
+        <v>105.5040622705188</v>
       </c>
       <c r="C381" t="n">
-        <v>23.10495400846379</v>
+        <v>23.10495400689831</v>
       </c>
     </row>
     <row r="382">
@@ -4630,10 +4630,10 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>105.1646391841197</v>
+        <v>105.1646391887803</v>
       </c>
       <c r="C382" t="n">
-        <v>22.96561990453266</v>
+        <v>22.9656199029878</v>
       </c>
     </row>
     <row r="383">
@@ -4641,10 +4641,10 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>104.8335538305248</v>
+        <v>104.8335538351575</v>
       </c>
       <c r="C383" t="n">
-        <v>22.83011951108567</v>
+        <v>22.83011950956351</v>
       </c>
     </row>
     <row r="384">
@@ -4652,10 +4652,10 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>104.5107545634996</v>
+        <v>104.5107545680973</v>
       </c>
       <c r="C384" t="n">
-        <v>22.69840229623688</v>
+        <v>22.69840229473936</v>
       </c>
     </row>
     <row r="385">
@@ -4663,10 +4663,10 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>104.1961795384839</v>
+        <v>104.1961795430399</v>
       </c>
       <c r="C385" t="n">
-        <v>22.57041453755871</v>
+        <v>22.57041453608768</v>
       </c>
     </row>
     <row r="386">
@@ -4674,10 +4674,10 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>103.8897573673723</v>
+        <v>103.8897573718804</v>
       </c>
       <c r="C386" t="n">
-        <v>22.4460996260056</v>
+        <v>22.44609962456278</v>
       </c>
     </row>
     <row r="387">
@@ -4685,10 +4685,10 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>103.5914077749554</v>
+        <v>103.5914077794094</v>
       </c>
       <c r="C387" t="n">
-        <v>22.3253983606892</v>
+        <v>22.32539835927619</v>
       </c>
     </row>
     <row r="388">
@@ -4696,10 +4696,10 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>103.3010422491372</v>
+        <v>103.3010422535314</v>
       </c>
       <c r="C388" t="n">
-        <v>22.2082492337147</v>
+        <v>22.208249232333</v>
       </c>
     </row>
     <row r="389">
@@ -4707,10 +4707,10 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>103.018564682022</v>
+        <v>103.018564686351</v>
       </c>
       <c r="C389" t="n">
-        <v>22.09458870442081</v>
+        <v>22.09458870307178</v>
       </c>
     </row>
     <row r="390">
@@ -4718,10 +4718,10 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>102.7438719992531</v>
+        <v>102.7438720035119</v>
       </c>
       <c r="C390" t="n">
-        <v>21.98435146249134</v>
+        <v>21.98435146117626</v>
       </c>
     </row>
     <row r="391">
@@ -4729,10 +4729,10 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>102.4768547752775</v>
+        <v>102.4768547794612</v>
       </c>
       <c r="C391" t="n">
-        <v>21.87747067952466</v>
+        <v>21.87747067824467</v>
       </c>
     </row>
     <row r="392">
@@ -4740,10 +4740,10 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>102.2173978324909</v>
+        <v>102.217397836595</v>
       </c>
       <c r="C392" t="n">
-        <v>21.7738782487566</v>
+        <v>21.77387824751275</v>
       </c>
     </row>
     <row r="393">
@@ -4751,10 +4751,10 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>101.965380822494</v>
+        <v>101.9653808265144</v>
       </c>
       <c r="C393" t="n">
-        <v>21.67350501273427</v>
+        <v>21.67350501152752</v>
       </c>
     </row>
     <row r="394">
@@ -4762,10 +4762,10 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>101.7206787879524</v>
+        <v>101.7206787918853</v>
       </c>
       <c r="C394" t="n">
-        <v>21.57628097883092</v>
+        <v>21.5762809776621</v>
       </c>
     </row>
     <row r="395">
@@ -4773,10 +4773,10 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>101.4831627038046</v>
+        <v>101.4831627076463</v>
       </c>
       <c r="C395" t="n">
-        <v>21.48213552257641</v>
+        <v>21.48213552144629</v>
       </c>
     </row>
     <row r="396">
@@ -4784,10 +4784,10 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>101.2526999967994</v>
+        <v>101.2527000005467</v>
       </c>
       <c r="C396" t="n">
-        <v>21.39099757885463</v>
+        <v>21.39099757776385</v>
       </c>
     </row>
     <row r="397">
@@ -4795,10 +4795,10 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>101.0291550425687</v>
+        <v>101.0291550462186</v>
       </c>
       <c r="C397" t="n">
-        <v>21.30279582108634</v>
+        <v>21.30279582003547</v>
       </c>
     </row>
     <row r="398">
@@ -4806,10 +4806,10 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>100.8123896396477</v>
+        <v>100.8123896431975</v>
       </c>
       <c r="C398" t="n">
-        <v>21.21745882857707</v>
+        <v>21.2174588275666</v>
       </c>
     </row>
     <row r="399">
@@ -4817,10 +4817,10 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>100.6022634600479</v>
+        <v>100.6022634634952</v>
       </c>
       <c r="C399" t="n">
-        <v>21.13491524226159</v>
+        <v>21.13491524129192</v>
       </c>
     </row>
     <row r="400">
@@ -4828,10 +4828,10 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>100.3986344761654</v>
+        <v>100.3986344795079</v>
       </c>
       <c r="C400" t="n">
-        <v>21.05509390912256</v>
+        <v>21.055093908194</v>
       </c>
     </row>
     <row r="401">
@@ -4839,10 +4839,10 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>100.2013593639657</v>
+        <v>100.2013593672017</v>
       </c>
       <c r="C401" t="n">
-        <v>20.97792401559916</v>
+        <v>20.97792401471197</v>
       </c>
     </row>
     <row r="402">
@@ -4850,10 +4850,10 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>100.0102938825353</v>
+        <v>100.0102938856629</v>
       </c>
       <c r="C402" t="n">
-        <v>20.90333521033442</v>
+        <v>20.90333520948876</v>
       </c>
     </row>
     <row r="403">
@@ -4861,10 +4861,10 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>99.82529323021419</v>
+        <v>99.82529323323209</v>
       </c>
       <c r="C403" t="n">
-        <v>20.831257716636</v>
+        <v>20.83125771583199</v>
       </c>
     </row>
     <row r="404">
@@ -4872,10 +4872,10 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>99.64621237764698</v>
+        <v>99.64621238055392</v>
       </c>
       <c r="C404" t="n">
-        <v>20.76162243504663</v>
+        <v>20.76162243428431</v>
       </c>
     </row>
     <row r="405">
@@ -4883,10 +4883,10 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>99.4729063781828</v>
+        <v>99.47290638097776</v>
       </c>
       <c r="C405" t="n">
-        <v>20.69436103643616</v>
+        <v>20.69436103571552</v>
       </c>
     </row>
     <row r="406">
@@ -4894,10 +4894,10 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>99.30523065614869</v>
+        <v>99.30523065883088</v>
       </c>
       <c r="C406" t="n">
-        <v>20.62940604603894</v>
+        <v>20.62940604535989</v>
       </c>
     </row>
     <row r="407">
@@ -4905,10 +4905,10 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>99.14304127359253</v>
+        <v>99.14304127616138</v>
       </c>
       <c r="C407" t="n">
-        <v>20.56669091886755</v>
+        <v>20.56669091822998</v>
       </c>
     </row>
     <row r="408">
@@ -4916,10 +4916,10 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>98.98619517615558</v>
+        <v>98.98619517861064</v>
       </c>
       <c r="C408" t="n">
-        <v>20.5061501069377</v>
+        <v>20.50615010634143</v>
       </c>
     </row>
     <row r="409">
@@ -4927,10 +4927,10 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>98.83455041878665</v>
+        <v>98.83455042112769</v>
       </c>
       <c r="C409" t="n">
-        <v>20.44771911873944</v>
+        <v>20.44771911818424</v>
       </c>
     </row>
     <row r="410">
@@ -4938,10 +4938,10 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>98.68796637205166</v>
+        <v>98.68796637427863</v>
       </c>
       <c r="C410" t="n">
-        <v>20.39133457138761</v>
+        <v>20.39133457087321</v>
       </c>
     </row>
     <row r="411">
@@ -4949,10 +4949,10 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>98.54630390982427</v>
+        <v>98.54630391193726</v>
       </c>
       <c r="C411" t="n">
-        <v>20.33693423587924</v>
+        <v>20.33693423540535</v>
       </c>
     </row>
     <row r="412">
@@ -4960,10 +4960,10 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>98.40942557916657</v>
+        <v>98.40942558116578</v>
       </c>
       <c r="C412" t="n">
-        <v>20.28445707587866</v>
+        <v>20.28445707544493</v>
       </c>
     </row>
     <row r="413">
@@ -4971,10 +4971,10 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>98.27719575322504</v>
+        <v>98.2771957551109</v>
       </c>
       <c r="C413" t="n">
-        <v>20.2338432804418</v>
+        <v>20.23384328004784</v>
       </c>
     </row>
     <row r="414">
@@ -4982,10 +4982,10 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>98.14948076797553</v>
+        <v>98.14948076974852</v>
       </c>
       <c r="C414" t="n">
-        <v>20.18503429108084</v>
+        <v>20.18503429072625</v>
       </c>
     </row>
     <row r="415">
@@ -4993,10 +4993,10 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>98.02614904365237</v>
+        <v>98.0261490453131</v>
       </c>
       <c r="C415" t="n">
-        <v>20.13797282355815</v>
+        <v>20.13797282324249</v>
       </c>
     </row>
     <row r="416">
@@ -5004,10 +5004,10 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>97.90707119169502</v>
+        <v>97.90707119324428</v>
       </c>
       <c r="C416" t="n">
-        <v>20.09260288478576</v>
+        <v>20.09260288450855</v>
       </c>
     </row>
     <row r="417">
@@ -5015,10 +5015,10 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>97.79212010803627</v>
+        <v>97.79212010947489</v>
       </c>
       <c r="C417" t="n">
-        <v>20.04886978519235</v>
+        <v>20.04886978495312</v>
       </c>
     </row>
     <row r="418">
@@ -5026,10 +5026,10 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>97.68117105354392</v>
+        <v>97.68117105487285</v>
       </c>
       <c r="C418" t="n">
-        <v>20.00672014690597</v>
+        <v>20.00672014670421</v>
       </c>
     </row>
     <row r="419">
@@ -5037,10 +5037,10 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>97.57410172241208</v>
+        <v>97.57410172363234</v>
       </c>
       <c r="C419" t="n">
-        <v>19.96610190808496</v>
+        <v>19.96610190792013</v>
       </c>
     </row>
     <row r="420">
@@ -5048,10 +5048,10 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>97.47079229927857</v>
+        <v>97.4707923003913</v>
       </c>
       <c r="C420" t="n">
-        <v>19.92696432371503</v>
+        <v>19.92696432358659</v>
       </c>
     </row>
     <row r="421">
@@ -5059,10 +5059,10 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>97.37112550582339</v>
+        <v>97.37112550682977</v>
       </c>
       <c r="C421" t="n">
-        <v>19.88925796317472</v>
+        <v>19.88925796308211</v>
       </c>
     </row>
     <row r="422">
@@ -5070,10 +5070,10 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>97.27498663757912</v>
+        <v>97.27498663848046</v>
       </c>
       <c r="C422" t="n">
-        <v>19.85293470485626</v>
+        <v>19.85293470479889</v>
       </c>
     </row>
     <row r="423">
@@ -5081,10 +5081,10 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>97.18226359165857</v>
+        <v>97.18226359245617</v>
       </c>
       <c r="C423" t="n">
-        <v>19.81794772811332</v>
+        <v>19.81794772809062</v>
       </c>
     </row>
     <row r="424">
@@ -5092,10 +5092,10 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>97.09284688607784</v>
+        <v>97.09284688677309</v>
       </c>
       <c r="C424" t="n">
-        <v>19.78425150279257</v>
+        <v>19.78425150280392</v>
       </c>
     </row>
     <row r="425">
@@ -5103,10 +5103,10 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>97.00662967132541</v>
+        <v>97.00662967191975</v>
       </c>
       <c r="C425" t="n">
-        <v>19.75180177659024</v>
+        <v>19.75180177663506</v>
       </c>
     </row>
     <row r="426">
@@ -5114,10 +5114,10 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>96.92350773479886</v>
+        <v>96.92350773529377</v>
       </c>
       <c r="C426" t="n">
-        <v>19.72055556046141</v>
+        <v>19.72055556053906</v>
       </c>
     </row>
     <row r="427">
@@ -5125,10 +5125,10 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>96.84337949870188</v>
+        <v>96.84337949909889</v>
       </c>
       <c r="C427" t="n">
-        <v>19.69047111229456</v>
+        <v>19.69047111240445</v>
       </c>
     </row>
     <row r="428">
@@ -5136,10 +5136,10 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>96.76614601196562</v>
+        <v>96.76614601226628</v>
       </c>
       <c r="C428" t="n">
-        <v>19.66150791905121</v>
+        <v>19.66150791919271</v>
       </c>
     </row>
     <row r="429">
@@ -5147,10 +5147,10 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>96.6917109367287</v>
+        <v>96.6917109369346</v>
       </c>
       <c r="C429" t="n">
-        <v>19.63362667755627</v>
+        <v>19.63362667772876</v>
       </c>
     </row>
     <row r="430">
@@ -5158,10 +5158,10 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>96.61998052988184</v>
+        <v>96.61998052999459</v>
       </c>
       <c r="C430" t="n">
-        <v>19.60678927411288</v>
+        <v>19.60678927431572</v>
       </c>
     </row>
     <row r="431">
@@ -5169,10 +5169,10 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>96.55086362015464</v>
+        <v>96.55086362017587</v>
       </c>
       <c r="C431" t="n">
-        <v>19.58095876310246</v>
+        <v>19.58095876333504</v>
       </c>
     </row>
     <row r="432">
@@ -5180,10 +5180,10 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>96.48427158119424</v>
+        <v>96.48427158112561</v>
       </c>
       <c r="C432" t="n">
-        <v>19.55609934471975</v>
+        <v>19.55609934498144</v>
       </c>
     </row>
     <row r="433">
@@ -5191,10 +5191,10 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>96.42011830105832</v>
+        <v>96.42011830090151</v>
       </c>
       <c r="C433" t="n">
-        <v>19.53217634198074</v>
+        <v>19.53217634227093</v>
       </c>
     </row>
     <row r="434">
@@ -5202,10 +5202,10 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>96.3583201485188</v>
+        <v>96.35832014827547</v>
       </c>
       <c r="C434" t="n">
-        <v>19.50915617713137</v>
+        <v>19.50915617744943</v>
       </c>
     </row>
     <row r="435">
@@ -5213,10 +5213,10 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>96.29879593654664</v>
+        <v>96.29879593621848</v>
       </c>
       <c r="C435" t="n">
-        <v>19.48700634757433</v>
+        <v>19.48700634791963</v>
       </c>
     </row>
     <row r="436">
@@ -5224,10 +5224,10 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>96.24146688332414</v>
+        <v>96.24146688291283</v>
       </c>
       <c r="C436" t="n">
-        <v>19.46569540142201</v>
+        <v>19.46569540179395</v>
       </c>
     </row>
     <row r="437">
@@ -5235,10 +5235,10 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>96.18625657110657</v>
+        <v>96.18625657061382</v>
       </c>
       <c r="C437" t="n">
-        <v>19.44519291277454</v>
+        <v>19.44519291317251</v>
       </c>
     </row>
     <row r="438">
@@ -5246,10 +5246,10 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>96.13309090323332</v>
+        <v>96.13309090266081</v>
       </c>
       <c r="C438" t="n">
-        <v>19.42546945681332</v>
+        <v>19.42546945723672</v>
       </c>
     </row>
     <row r="439">
@@ -5257,10 +5257,10 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>96.08189805956572</v>
+        <v>96.08189805891513</v>
       </c>
       <c r="C439" t="n">
-        <v>19.40649658479236</v>
+        <v>19.4064965852406</v>
       </c>
     </row>
     <row r="440">
@@ -5268,10 +5268,10 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>96.0326084506094</v>
+        <v>96.0326084498824</v>
       </c>
       <c r="C440" t="n">
-        <v>19.38824679900247</v>
+        <v>19.38824679947495</v>
       </c>
     </row>
     <row r="441">
@@ -5279,10 +5279,10 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>95.98515467055796</v>
+        <v>95.98515466975621</v>
       </c>
       <c r="C441" t="n">
-        <v>19.37069352777596</v>
+        <v>19.37069352827209</v>
       </c>
     </row>
     <row r="442">
@@ -5290,10 +5290,10 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>95.93947144947708</v>
+        <v>95.93947144860226</v>
       </c>
       <c r="C442" t="n">
-        <v>19.35381110059315</v>
+        <v>19.35381110111237</v>
       </c>
     </row>
     <row r="443">
@@ -5301,10 +5301,10 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>95.89549560482982</v>
+        <v>95.89549560388357</v>
       </c>
       <c r="C443" t="n">
-        <v>19.33757472334579</v>
+        <v>19.33757472388751</v>
       </c>
     </row>
     <row r="444">
@@ -5312,10 +5312,10 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>95.85316599252744</v>
+        <v>95.85316599151139</v>
       </c>
       <c r="C444" t="n">
-        <v>19.32196045380655</v>
+        <v>19.32196045437022</v>
       </c>
     </row>
     <row r="445">
@@ -5323,10 +5323,10 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>95.81242345767394</v>
+        <v>95.81242345658971</v>
       </c>
       <c r="C445" t="n">
-        <v>19.30694517734877</v>
+        <v>19.30694517793383</v>
       </c>
     </row>
     <row r="446">
@@ -5334,10 +5334,10 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>95.77321078515828</v>
+        <v>95.77321078400746</v>
       </c>
       <c r="C446" t="n">
-        <v>19.29250658295523</v>
+        <v>19.29250658356116</v>
       </c>
     </row>
     <row r="447">
@@ -5345,10 +5345,10 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>95.73547265023333</v>
+        <v>95.73547264901748</v>
       </c>
       <c r="C447" t="n">
-        <v>19.2786231395506</v>
+        <v>19.27862314017684</v>
       </c>
     </row>
     <row r="448">
@@ -5356,10 +5356,10 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>95.69915556920849</v>
+        <v>95.6991555679292</v>
       </c>
       <c r="C448" t="n">
-        <v>19.26527407268744</v>
+        <v>19.26527407333348</v>
       </c>
     </row>
     <row r="449">
@@ -5367,10 +5367,10 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>95.66420785036998</v>
+        <v>95.66420784902877</v>
       </c>
       <c r="C449" t="n">
-        <v>19.25243934161221</v>
+        <v>19.25243934227752</v>
       </c>
     </row>
     <row r="450">
@@ -5378,10 +5378,10 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>95.63057954523154</v>
+        <v>95.63057954382995</v>
       </c>
       <c r="C450" t="n">
-        <v>19.24009961673371</v>
+        <v>19.24009961741778</v>
       </c>
     </row>
     <row r="451">
@@ -5389,10 +5389,10 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>95.59822240020779</v>
+        <v>95.59822239874731</v>
       </c>
       <c r="C451" t="n">
-        <v>19.22823625751326</v>
+        <v>19.22823625821561</v>
       </c>
     </row>
     <row r="452">
@@ -5400,10 +5400,10 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>95.56708980879225</v>
+        <v>95.56708980727436</v>
       </c>
       <c r="C452" t="n">
-        <v>19.2168312907928</v>
+        <v>19.21683129151293</v>
       </c>
     </row>
   </sheetData>
